--- a/base_datos/inventario/stock_ferrimac.xlsx
+++ b/base_datos/inventario/stock_ferrimac.xlsx
@@ -712,7 +712,7 @@
         <v>6</v>
       </c>
       <c r="AP2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -850,7 +850,7 @@
         <v>21</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1264,7 +1264,7 @@
         <v>5</v>
       </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1540,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="AP8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2224,7 +2224,7 @@
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -3052,7 +3052,7 @@
         <v>12</v>
       </c>
       <c r="AP19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -4980,7 +4980,7 @@
         <v>18</v>
       </c>
       <c r="AP33" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
@@ -5394,7 +5394,7 @@
         <v>9</v>
       </c>
       <c r="AP36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -5946,7 +5946,7 @@
         <v>10</v>
       </c>
       <c r="AP40" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -6084,7 +6084,7 @@
         <v>8</v>
       </c>
       <c r="AP41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -6360,7 +6360,7 @@
         <v>10</v>
       </c>
       <c r="AP43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -7740,7 +7740,7 @@
         <v>31</v>
       </c>
       <c r="AP53" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -8016,7 +8016,7 @@
         <v>28</v>
       </c>
       <c r="AP55" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -8568,7 +8568,7 @@
         <v>31</v>
       </c>
       <c r="AP59" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
@@ -8982,7 +8982,7 @@
         <v>38</v>
       </c>
       <c r="AP62" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
@@ -10638,7 +10638,7 @@
         <v>25</v>
       </c>
       <c r="AP74" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
@@ -11190,7 +11190,7 @@
         <v>26</v>
       </c>
       <c r="AP78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
@@ -11466,7 +11466,7 @@
         <v>34</v>
       </c>
       <c r="AP80" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -12156,7 +12156,7 @@
         <v>28</v>
       </c>
       <c r="AP85" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
@@ -12432,7 +12432,7 @@
         <v>26</v>
       </c>
       <c r="AP87" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
@@ -12846,7 +12846,7 @@
         <v>9</v>
       </c>
       <c r="AP90" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -13122,7 +13122,7 @@
         <v>15</v>
       </c>
       <c r="AP92" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -13536,7 +13536,7 @@
         <v>18</v>
       </c>
       <c r="AP95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -13674,7 +13674,7 @@
         <v>12</v>
       </c>
       <c r="AP96" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -14364,7 +14364,7 @@
         <v>12</v>
       </c>
       <c r="AP101" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -14502,7 +14502,7 @@
         <v>13</v>
       </c>
       <c r="AP102" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
@@ -14778,7 +14778,7 @@
         <v>10</v>
       </c>
       <c r="AP104" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
@@ -15054,7 +15054,7 @@
         <v>19</v>
       </c>
       <c r="AP106" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107">
@@ -16020,7 +16020,7 @@
         <v>20</v>
       </c>
       <c r="AP113" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -16158,7 +16158,7 @@
         <v>16</v>
       </c>
       <c r="AP114" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
@@ -16848,7 +16848,7 @@
         <v>18</v>
       </c>
       <c r="AP119" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
@@ -17400,7 +17400,7 @@
         <v>18</v>
       </c>
       <c r="AP123" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
@@ -17538,7 +17538,7 @@
         <v>5</v>
       </c>
       <c r="AP124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -18366,7 +18366,7 @@
         <v>13</v>
       </c>
       <c r="AP130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
@@ -18642,7 +18642,7 @@
         <v>4</v>
       </c>
       <c r="AP132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -19188,7 +19188,7 @@
         <v>16</v>
       </c>
       <c r="AP136" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137">
@@ -19736,7 +19736,7 @@
         <v>7</v>
       </c>
       <c r="AP140" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141">
@@ -20008,7 +20008,7 @@
         <v>7</v>
       </c>
       <c r="AP142" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
@@ -20144,7 +20144,7 @@
         <v>2</v>
       </c>
       <c r="AP143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -20282,7 +20282,7 @@
         <v>12</v>
       </c>
       <c r="AP144" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -20834,7 +20834,7 @@
         <v>23</v>
       </c>
       <c r="AP148" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
@@ -21108,7 +21108,7 @@
         <v>4</v>
       </c>
       <c r="AP150" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -21246,7 +21246,7 @@
         <v>9</v>
       </c>
       <c r="AP151" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
@@ -21658,7 +21658,7 @@
         <v>16</v>
       </c>
       <c r="AP154" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
@@ -22892,7 +22892,7 @@
         <v>11</v>
       </c>
       <c r="AP163" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
@@ -23030,7 +23030,7 @@
         <v>8</v>
       </c>
       <c r="AP164" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165">
@@ -23444,7 +23444,7 @@
         <v>11</v>
       </c>
       <c r="AP167" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
@@ -24260,7 +24260,7 @@
         <v>23</v>
       </c>
       <c r="AP173" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="174">
@@ -24398,7 +24398,7 @@
         <v>22</v>
       </c>
       <c r="AP174" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175">
@@ -25226,7 +25226,7 @@
         <v>20</v>
       </c>
       <c r="AP180" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181">
@@ -25364,7 +25364,7 @@
         <v>27</v>
       </c>
       <c r="AP181" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="182">
@@ -26054,7 +26054,7 @@
         <v>22</v>
       </c>
       <c r="AP186" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="187">
@@ -26880,7 +26880,7 @@
         <v>17</v>
       </c>
       <c r="AP192" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193">
@@ -27018,7 +27018,7 @@
         <v>22</v>
       </c>
       <c r="AP193" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="194">
@@ -27432,7 +27432,7 @@
         <v>4</v>
       </c>
       <c r="AP196" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -27570,7 +27570,7 @@
         <v>19</v>
       </c>
       <c r="AP197" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198">
@@ -27984,7 +27984,7 @@
         <v>15</v>
       </c>
       <c r="AP200" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201">
@@ -28398,7 +28398,7 @@
         <v>7</v>
       </c>
       <c r="AP203" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204">
@@ -29502,7 +29502,7 @@
         <v>25</v>
       </c>
       <c r="AP211" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212">
@@ -29640,7 +29640,7 @@
         <v>21</v>
       </c>
       <c r="AP212" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213">
@@ -31020,7 +31020,7 @@
         <v>8</v>
       </c>
       <c r="AP222" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
@@ -31158,7 +31158,7 @@
         <v>20</v>
       </c>
       <c r="AP223" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224">
@@ -31296,7 +31296,7 @@
         <v>0</v>
       </c>
       <c r="AP224" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -31572,7 +31572,7 @@
         <v>14</v>
       </c>
       <c r="AP226" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227">
@@ -31710,7 +31710,7 @@
         <v>2</v>
       </c>
       <c r="AP227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -31848,7 +31848,7 @@
         <v>14</v>
       </c>
       <c r="AP228" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229">
@@ -32262,7 +32262,7 @@
         <v>15</v>
       </c>
       <c r="AP231" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -32400,7 +32400,7 @@
         <v>5</v>
       </c>
       <c r="AP232" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -32676,7 +32676,7 @@
         <v>12</v>
       </c>
       <c r="AP234" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235">
@@ -32814,7 +32814,7 @@
         <v>17</v>
       </c>
       <c r="AP235" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="236">
@@ -32952,7 +32952,7 @@
         <v>7</v>
       </c>
       <c r="AP236" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
@@ -33090,7 +33090,7 @@
         <v>11</v>
       </c>
       <c r="AP237" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238">
@@ -33780,7 +33780,7 @@
         <v>24</v>
       </c>
       <c r="AP242" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243">
@@ -34056,7 +34056,7 @@
         <v>22</v>
       </c>
       <c r="AP244" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245">
@@ -35712,7 +35712,7 @@
         <v>25</v>
       </c>
       <c r="AP256" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="257">
@@ -35850,7 +35850,7 @@
         <v>14</v>
       </c>
       <c r="AP257" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258">
@@ -36264,7 +36264,7 @@
         <v>8</v>
       </c>
       <c r="AP260" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261">
@@ -36678,7 +36678,7 @@
         <v>22</v>
       </c>
       <c r="AP263" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264">
@@ -37230,7 +37230,7 @@
         <v>15</v>
       </c>
       <c r="AP267" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268">
@@ -37920,7 +37920,7 @@
         <v>2</v>
       </c>
       <c r="AP272" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
@@ -38058,7 +38058,7 @@
         <v>18</v>
       </c>
       <c r="AP273" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274">
@@ -38472,7 +38472,7 @@
         <v>20</v>
       </c>
       <c r="AP276" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277">
@@ -39158,7 +39158,7 @@
         <v>16</v>
       </c>
       <c r="AP281" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282">
@@ -39570,7 +39570,7 @@
         <v>11</v>
       </c>
       <c r="AP284" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285">
@@ -40666,7 +40666,7 @@
         <v>14</v>
       </c>
       <c r="AP292" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293">
@@ -42308,7 +42308,7 @@
         <v>13</v>
       </c>
       <c r="AP304" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305">
@@ -42584,7 +42584,7 @@
         <v>-1</v>
       </c>
       <c r="AP306" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="307">
@@ -42996,7 +42996,7 @@
         <v>10</v>
       </c>
       <c r="AP309" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310">
@@ -43406,7 +43406,7 @@
         <v>63</v>
       </c>
       <c r="AP312" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="313">
@@ -43542,7 +43542,7 @@
         <v>12</v>
       </c>
       <c r="AP313" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314">
@@ -43950,7 +43950,7 @@
         <v>2</v>
       </c>
       <c r="AP316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -44768,7 +44768,7 @@
         <v>19</v>
       </c>
       <c r="AP322" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323">
@@ -44906,7 +44906,7 @@
         <v>82</v>
       </c>
       <c r="AP323" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="324">
@@ -45182,7 +45182,7 @@
         <v>7</v>
       </c>
       <c r="AP325" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326">
@@ -46140,7 +46140,7 @@
         <v>4</v>
       </c>
       <c r="AP332" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -47092,7 +47092,7 @@
         <v>36</v>
       </c>
       <c r="AP339" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="340">
@@ -47230,7 +47230,7 @@
         <v>0</v>
       </c>
       <c r="AP340" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="341">
@@ -47506,7 +47506,7 @@
         <v>29</v>
       </c>
       <c r="AP342" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="343">
@@ -48324,7 +48324,7 @@
         <v>20</v>
       </c>
       <c r="AP348" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="349">
@@ -48596,7 +48596,7 @@
         <v>55</v>
       </c>
       <c r="AP350" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="351">
@@ -48872,7 +48872,7 @@
         <v>1187</v>
       </c>
       <c r="AP352" t="n">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="353">
@@ -49008,7 +49008,7 @@
         <v>15</v>
       </c>
       <c r="AP353" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354">
@@ -49420,7 +49420,7 @@
         <v>3</v>
       </c>
       <c r="AP356" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -49834,7 +49834,7 @@
         <v>90</v>
       </c>
       <c r="AP359" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="360">
@@ -51064,7 +51064,7 @@
         <v>84</v>
       </c>
       <c r="AP368" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="369">
@@ -51478,7 +51478,7 @@
         <v>102</v>
       </c>
       <c r="AP371" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="372">
@@ -51892,7 +51892,7 @@
         <v>65</v>
       </c>
       <c r="AP374" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="375">
@@ -52164,7 +52164,7 @@
         <v>22</v>
       </c>
       <c r="AP376" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377">
@@ -53128,7 +53128,7 @@
         <v>25</v>
       </c>
       <c r="AP383" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="384">
@@ -53404,7 +53404,7 @@
         <v>39</v>
       </c>
       <c r="AP385" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="386">
@@ -53542,7 +53542,7 @@
         <v>45</v>
       </c>
       <c r="AP386" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="387">
@@ -54090,7 +54090,7 @@
         <v>90</v>
       </c>
       <c r="AP390" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="391">
@@ -54366,7 +54366,7 @@
         <v>92</v>
       </c>
       <c r="AP392" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="393">
@@ -55048,7 +55048,7 @@
         <v>120</v>
       </c>
       <c r="AP397" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="398">

--- a/base_datos/inventario/stock_ferrimac.xlsx
+++ b/base_datos/inventario/stock_ferrimac.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP407"/>
+  <dimension ref="A1:AQ407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,6 +576,9 @@
       <c r="AP1" s="2" t="n">
         <v>45595</v>
       </c>
+      <c r="AQ1" s="2" t="n">
+        <v>45596</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -714,6 +717,9 @@
       <c r="AP2" t="n">
         <v>6</v>
       </c>
+      <c r="AQ2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -852,6 +858,9 @@
       <c r="AP3" t="n">
         <v>20</v>
       </c>
+      <c r="AQ3" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -990,6 +999,9 @@
       <c r="AP4" t="n">
         <v>9</v>
       </c>
+      <c r="AQ4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1128,6 +1140,9 @@
       <c r="AP5" t="n">
         <v>2</v>
       </c>
+      <c r="AQ5" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1266,6 +1281,9 @@
       <c r="AP6" t="n">
         <v>3</v>
       </c>
+      <c r="AQ6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1404,6 +1422,9 @@
       <c r="AP7" t="n">
         <v>17</v>
       </c>
+      <c r="AQ7" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1542,6 +1563,9 @@
       <c r="AP8" t="n">
         <v>2</v>
       </c>
+      <c r="AQ8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1680,6 +1704,9 @@
       <c r="AP9" t="n">
         <v>15</v>
       </c>
+      <c r="AQ9" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1818,6 +1845,9 @@
       <c r="AP10" t="n">
         <v>11</v>
       </c>
+      <c r="AQ10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1954,6 +1984,9 @@
       <c r="AP11" t="n">
         <v>2</v>
       </c>
+      <c r="AQ11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2090,6 +2123,9 @@
       <c r="AP12" t="n">
         <v>4</v>
       </c>
+      <c r="AQ12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2226,6 +2262,9 @@
       <c r="AP13" t="n">
         <v>10</v>
       </c>
+      <c r="AQ13" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2364,6 +2403,9 @@
       <c r="AP14" t="n">
         <v>62</v>
       </c>
+      <c r="AQ14" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2502,6 +2544,9 @@
       <c r="AP15" t="n">
         <v>16</v>
       </c>
+      <c r="AQ15" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2640,6 +2685,9 @@
       <c r="AP16" t="n">
         <v>22</v>
       </c>
+      <c r="AQ16" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2778,6 +2826,9 @@
       <c r="AP17" t="n">
         <v>6</v>
       </c>
+      <c r="AQ17" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2916,6 +2967,9 @@
       <c r="AP18" t="n">
         <v>8</v>
       </c>
+      <c r="AQ18" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3054,6 +3108,9 @@
       <c r="AP19" t="n">
         <v>12</v>
       </c>
+      <c r="AQ19" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3192,6 +3249,9 @@
       <c r="AP20" t="n">
         <v>13</v>
       </c>
+      <c r="AQ20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3330,6 +3390,9 @@
       <c r="AP21" t="n">
         <v>5</v>
       </c>
+      <c r="AQ21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3468,6 +3531,9 @@
       <c r="AP22" t="n">
         <v>40</v>
       </c>
+      <c r="AQ22" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3606,6 +3672,9 @@
       <c r="AP23" t="n">
         <v>38</v>
       </c>
+      <c r="AQ23" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3740,6 +3809,9 @@
       <c r="AP24" t="n">
         <v>7</v>
       </c>
+      <c r="AQ24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3878,6 +3950,9 @@
       <c r="AP25" t="n">
         <v>28</v>
       </c>
+      <c r="AQ25" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4016,6 +4091,9 @@
       <c r="AP26" t="n">
         <v>16</v>
       </c>
+      <c r="AQ26" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4154,6 +4232,9 @@
       <c r="AP27" t="n">
         <v>5</v>
       </c>
+      <c r="AQ27" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4292,6 +4373,9 @@
       <c r="AP28" t="n">
         <v>20</v>
       </c>
+      <c r="AQ28" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4430,6 +4514,9 @@
       <c r="AP29" t="n">
         <v>40</v>
       </c>
+      <c r="AQ29" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4568,6 +4655,9 @@
       <c r="AP30" t="n">
         <v>56</v>
       </c>
+      <c r="AQ30" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4706,6 +4796,9 @@
       <c r="AP31" t="n">
         <v>46</v>
       </c>
+      <c r="AQ31" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4844,6 +4937,9 @@
       <c r="AP32" t="n">
         <v>38</v>
       </c>
+      <c r="AQ32" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4982,6 +5078,9 @@
       <c r="AP33" t="n">
         <v>16</v>
       </c>
+      <c r="AQ33" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5120,6 +5219,9 @@
       <c r="AP34" t="n">
         <v>11</v>
       </c>
+      <c r="AQ34" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5258,6 +5360,9 @@
       <c r="AP35" t="n">
         <v>12</v>
       </c>
+      <c r="AQ35" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5396,6 +5501,9 @@
       <c r="AP36" t="n">
         <v>6</v>
       </c>
+      <c r="AQ36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5534,6 +5642,9 @@
       <c r="AP37" t="n">
         <v>26</v>
       </c>
+      <c r="AQ37" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5672,6 +5783,9 @@
       <c r="AP38" t="n">
         <v>10</v>
       </c>
+      <c r="AQ38" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5810,6 +5924,9 @@
       <c r="AP39" t="n">
         <v>11</v>
       </c>
+      <c r="AQ39" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5948,6 +6065,9 @@
       <c r="AP40" t="n">
         <v>7</v>
       </c>
+      <c r="AQ40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6086,6 +6206,9 @@
       <c r="AP41" t="n">
         <v>7</v>
       </c>
+      <c r="AQ41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6224,6 +6347,9 @@
       <c r="AP42" t="n">
         <v>5</v>
       </c>
+      <c r="AQ42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6362,6 +6488,9 @@
       <c r="AP43" t="n">
         <v>10</v>
       </c>
+      <c r="AQ43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6500,6 +6629,9 @@
       <c r="AP44" t="n">
         <v>23</v>
       </c>
+      <c r="AQ44" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6638,6 +6770,9 @@
       <c r="AP45" t="n">
         <v>45</v>
       </c>
+      <c r="AQ45" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6776,6 +6911,9 @@
       <c r="AP46" t="n">
         <v>20</v>
       </c>
+      <c r="AQ46" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6914,6 +7052,9 @@
       <c r="AP47" t="n">
         <v>3</v>
       </c>
+      <c r="AQ47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7052,6 +7193,9 @@
       <c r="AP48" t="n">
         <v>31</v>
       </c>
+      <c r="AQ48" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7190,6 +7334,9 @@
       <c r="AP49" t="n">
         <v>18</v>
       </c>
+      <c r="AQ49" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7328,6 +7475,9 @@
       <c r="AP50" t="n">
         <v>9</v>
       </c>
+      <c r="AQ50" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7466,6 +7616,9 @@
       <c r="AP51" t="n">
         <v>29</v>
       </c>
+      <c r="AQ51" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7604,6 +7757,9 @@
       <c r="AP52" t="n">
         <v>25</v>
       </c>
+      <c r="AQ52" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7742,6 +7898,9 @@
       <c r="AP53" t="n">
         <v>30</v>
       </c>
+      <c r="AQ53" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7880,6 +8039,9 @@
       <c r="AP54" t="n">
         <v>17</v>
       </c>
+      <c r="AQ54" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8018,6 +8180,9 @@
       <c r="AP55" t="n">
         <v>25</v>
       </c>
+      <c r="AQ55" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8156,6 +8321,9 @@
       <c r="AP56" t="n">
         <v>27</v>
       </c>
+      <c r="AQ56" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8294,6 +8462,9 @@
       <c r="AP57" t="n">
         <v>8</v>
       </c>
+      <c r="AQ57" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8432,6 +8603,9 @@
       <c r="AP58" t="n">
         <v>35</v>
       </c>
+      <c r="AQ58" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8570,6 +8744,9 @@
       <c r="AP59" t="n">
         <v>29</v>
       </c>
+      <c r="AQ59" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8708,6 +8885,9 @@
       <c r="AP60" t="n">
         <v>9</v>
       </c>
+      <c r="AQ60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8846,6 +9026,9 @@
       <c r="AP61" t="n">
         <v>24</v>
       </c>
+      <c r="AQ61" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8984,6 +9167,9 @@
       <c r="AP62" t="n">
         <v>36</v>
       </c>
+      <c r="AQ62" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9122,6 +9308,9 @@
       <c r="AP63" t="n">
         <v>23</v>
       </c>
+      <c r="AQ63" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9260,6 +9449,9 @@
       <c r="AP64" t="n">
         <v>42</v>
       </c>
+      <c r="AQ64" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9398,6 +9590,9 @@
       <c r="AP65" t="n">
         <v>33</v>
       </c>
+      <c r="AQ65" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9536,6 +9731,9 @@
       <c r="AP66" t="n">
         <v>24</v>
       </c>
+      <c r="AQ66" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9674,6 +9872,9 @@
       <c r="AP67" t="n">
         <v>27</v>
       </c>
+      <c r="AQ67" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9812,6 +10013,9 @@
       <c r="AP68" t="n">
         <v>30</v>
       </c>
+      <c r="AQ68" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9950,6 +10154,9 @@
       <c r="AP69" t="n">
         <v>31</v>
       </c>
+      <c r="AQ69" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10088,6 +10295,9 @@
       <c r="AP70" t="n">
         <v>21</v>
       </c>
+      <c r="AQ70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10226,6 +10436,9 @@
       <c r="AP71" t="n">
         <v>27</v>
       </c>
+      <c r="AQ71" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10364,6 +10577,9 @@
       <c r="AP72" t="n">
         <v>21</v>
       </c>
+      <c r="AQ72" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10502,6 +10718,9 @@
       <c r="AP73" t="n">
         <v>20</v>
       </c>
+      <c r="AQ73" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10640,6 +10859,9 @@
       <c r="AP74" t="n">
         <v>24</v>
       </c>
+      <c r="AQ74" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10778,6 +11000,9 @@
       <c r="AP75" t="n">
         <v>10</v>
       </c>
+      <c r="AQ75" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10916,6 +11141,9 @@
       <c r="AP76" t="n">
         <v>5</v>
       </c>
+      <c r="AQ76" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11054,6 +11282,9 @@
       <c r="AP77" t="n">
         <v>16</v>
       </c>
+      <c r="AQ77" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11192,6 +11423,9 @@
       <c r="AP78" t="n">
         <v>23</v>
       </c>
+      <c r="AQ78" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11330,6 +11564,9 @@
       <c r="AP79" t="n">
         <v>1</v>
       </c>
+      <c r="AQ79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11468,6 +11705,9 @@
       <c r="AP80" t="n">
         <v>33</v>
       </c>
+      <c r="AQ80" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11606,6 +11846,9 @@
       <c r="AP81" t="n">
         <v>26</v>
       </c>
+      <c r="AQ81" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11744,6 +11987,9 @@
       <c r="AP82" t="n">
         <v>21</v>
       </c>
+      <c r="AQ82" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11882,6 +12128,9 @@
       <c r="AP83" t="n">
         <v>25</v>
       </c>
+      <c r="AQ83" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12020,6 +12269,9 @@
       <c r="AP84" t="n">
         <v>21</v>
       </c>
+      <c r="AQ84" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12158,6 +12410,9 @@
       <c r="AP85" t="n">
         <v>27</v>
       </c>
+      <c r="AQ85" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12296,6 +12551,9 @@
       <c r="AP86" t="n">
         <v>0</v>
       </c>
+      <c r="AQ86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12434,6 +12692,9 @@
       <c r="AP87" t="n">
         <v>23</v>
       </c>
+      <c r="AQ87" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12572,6 +12833,9 @@
       <c r="AP88" t="n">
         <v>14</v>
       </c>
+      <c r="AQ88" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12710,6 +12974,9 @@
       <c r="AP89" t="n">
         <v>15</v>
       </c>
+      <c r="AQ89" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12848,6 +13115,9 @@
       <c r="AP90" t="n">
         <v>8</v>
       </c>
+      <c r="AQ90" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12986,6 +13256,9 @@
       <c r="AP91" t="n">
         <v>7</v>
       </c>
+      <c r="AQ91" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13124,6 +13397,9 @@
       <c r="AP92" t="n">
         <v>15</v>
       </c>
+      <c r="AQ92" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13262,6 +13538,9 @@
       <c r="AP93" t="n">
         <v>-2</v>
       </c>
+      <c r="AQ93" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13400,6 +13679,9 @@
       <c r="AP94" t="n">
         <v>15</v>
       </c>
+      <c r="AQ94" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13538,6 +13820,9 @@
       <c r="AP95" t="n">
         <v>15</v>
       </c>
+      <c r="AQ95" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13676,6 +13961,9 @@
       <c r="AP96" t="n">
         <v>10</v>
       </c>
+      <c r="AQ96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -13814,6 +14102,9 @@
       <c r="AP97" t="n">
         <v>14</v>
       </c>
+      <c r="AQ97" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -13952,6 +14243,9 @@
       <c r="AP98" t="n">
         <v>19</v>
       </c>
+      <c r="AQ98" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14090,6 +14384,9 @@
       <c r="AP99" t="n">
         <v>6</v>
       </c>
+      <c r="AQ99" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14228,6 +14525,9 @@
       <c r="AP100" t="n">
         <v>12</v>
       </c>
+      <c r="AQ100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14366,6 +14666,9 @@
       <c r="AP101" t="n">
         <v>9</v>
       </c>
+      <c r="AQ101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14504,6 +14807,9 @@
       <c r="AP102" t="n">
         <v>11</v>
       </c>
+      <c r="AQ102" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14642,6 +14948,9 @@
       <c r="AP103" t="n">
         <v>16</v>
       </c>
+      <c r="AQ103" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -14780,6 +15089,9 @@
       <c r="AP104" t="n">
         <v>7</v>
       </c>
+      <c r="AQ104" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -14918,6 +15230,9 @@
       <c r="AP105" t="n">
         <v>2</v>
       </c>
+      <c r="AQ105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15056,6 +15371,9 @@
       <c r="AP106" t="n">
         <v>16</v>
       </c>
+      <c r="AQ106" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15194,6 +15512,9 @@
       <c r="AP107" t="n">
         <v>7</v>
       </c>
+      <c r="AQ107" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15332,6 +15653,9 @@
       <c r="AP108" t="n">
         <v>9</v>
       </c>
+      <c r="AQ108" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15470,6 +15794,9 @@
       <c r="AP109" t="n">
         <v>10</v>
       </c>
+      <c r="AQ109" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15608,6 +15935,9 @@
       <c r="AP110" t="n">
         <v>11</v>
       </c>
+      <c r="AQ110" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -15746,6 +16076,9 @@
       <c r="AP111" t="n">
         <v>13</v>
       </c>
+      <c r="AQ111" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -15884,6 +16217,9 @@
       <c r="AP112" t="n">
         <v>17</v>
       </c>
+      <c r="AQ112" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16022,6 +16358,9 @@
       <c r="AP113" t="n">
         <v>18</v>
       </c>
+      <c r="AQ113" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16160,6 +16499,9 @@
       <c r="AP114" t="n">
         <v>16</v>
       </c>
+      <c r="AQ114" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16298,6 +16640,9 @@
       <c r="AP115" t="n">
         <v>12</v>
       </c>
+      <c r="AQ115" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16436,6 +16781,9 @@
       <c r="AP116" t="n">
         <v>26</v>
       </c>
+      <c r="AQ116" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16574,6 +16922,9 @@
       <c r="AP117" t="n">
         <v>19</v>
       </c>
+      <c r="AQ117" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -16712,6 +17063,9 @@
       <c r="AP118" t="n">
         <v>-3</v>
       </c>
+      <c r="AQ118" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16850,6 +17204,9 @@
       <c r="AP119" t="n">
         <v>18</v>
       </c>
+      <c r="AQ119" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16988,6 +17345,9 @@
       <c r="AP120" t="n">
         <v>7</v>
       </c>
+      <c r="AQ120" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -17126,6 +17486,9 @@
       <c r="AP121" t="n">
         <v>20</v>
       </c>
+      <c r="AQ121" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17264,6 +17627,9 @@
       <c r="AP122" t="n">
         <v>3</v>
       </c>
+      <c r="AQ122" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17402,6 +17768,9 @@
       <c r="AP123" t="n">
         <v>16</v>
       </c>
+      <c r="AQ123" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17540,6 +17909,9 @@
       <c r="AP124" t="n">
         <v>5</v>
       </c>
+      <c r="AQ124" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -17678,6 +18050,9 @@
       <c r="AP125" t="n">
         <v>15</v>
       </c>
+      <c r="AQ125" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -17816,6 +18191,9 @@
       <c r="AP126" t="n">
         <v>2</v>
       </c>
+      <c r="AQ126" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -17954,6 +18332,9 @@
       <c r="AP127" t="n">
         <v>16</v>
       </c>
+      <c r="AQ127" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -18092,6 +18473,9 @@
       <c r="AP128" t="n">
         <v>10</v>
       </c>
+      <c r="AQ128" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -18230,6 +18614,9 @@
       <c r="AP129" t="n">
         <v>1</v>
       </c>
+      <c r="AQ129" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18368,6 +18755,9 @@
       <c r="AP130" t="n">
         <v>13</v>
       </c>
+      <c r="AQ130" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -18506,6 +18896,9 @@
       <c r="AP131" t="n">
         <v>16</v>
       </c>
+      <c r="AQ131" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -18644,6 +19037,9 @@
       <c r="AP132" t="n">
         <v>4</v>
       </c>
+      <c r="AQ132" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -18780,6 +19176,9 @@
       <c r="AP133" t="n">
         <v>10</v>
       </c>
+      <c r="AQ133" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -18916,6 +19315,9 @@
       <c r="AP134" t="n">
         <v>-1</v>
       </c>
+      <c r="AQ134" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -19054,6 +19456,9 @@
       <c r="AP135" t="n">
         <v>1</v>
       </c>
+      <c r="AQ135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -19190,6 +19595,9 @@
       <c r="AP136" t="n">
         <v>15</v>
       </c>
+      <c r="AQ136" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -19328,6 +19736,9 @@
       <c r="AP137" t="n">
         <v>10</v>
       </c>
+      <c r="AQ137" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -19466,6 +19877,9 @@
       <c r="AP138" t="n">
         <v>12</v>
       </c>
+      <c r="AQ138" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -19602,6 +20016,9 @@
       <c r="AP139" t="n">
         <v>4</v>
       </c>
+      <c r="AQ139" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -19738,6 +20155,9 @@
       <c r="AP140" t="n">
         <v>6</v>
       </c>
+      <c r="AQ140" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -19874,6 +20294,9 @@
       <c r="AP141" t="n">
         <v>13</v>
       </c>
+      <c r="AQ141" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -20010,6 +20433,9 @@
       <c r="AP142" t="n">
         <v>7</v>
       </c>
+      <c r="AQ142" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -20146,6 +20572,9 @@
       <c r="AP143" t="n">
         <v>0</v>
       </c>
+      <c r="AQ143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -20284,6 +20713,9 @@
       <c r="AP144" t="n">
         <v>12</v>
       </c>
+      <c r="AQ144" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20422,6 +20854,9 @@
       <c r="AP145" t="n">
         <v>12</v>
       </c>
+      <c r="AQ145" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -20560,6 +20995,9 @@
       <c r="AP146" t="n">
         <v>10</v>
       </c>
+      <c r="AQ146" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -20698,6 +21136,9 @@
       <c r="AP147" t="n">
         <v>23</v>
       </c>
+      <c r="AQ147" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -20836,6 +21277,9 @@
       <c r="AP148" t="n">
         <v>21</v>
       </c>
+      <c r="AQ148" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -20972,6 +21416,9 @@
       <c r="AP149" t="n">
         <v>9</v>
       </c>
+      <c r="AQ149" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -21110,6 +21557,9 @@
       <c r="AP150" t="n">
         <v>2</v>
       </c>
+      <c r="AQ150" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -21248,6 +21698,9 @@
       <c r="AP151" t="n">
         <v>7</v>
       </c>
+      <c r="AQ151" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -21386,6 +21839,9 @@
       <c r="AP152" t="n">
         <v>8</v>
       </c>
+      <c r="AQ152" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -21522,6 +21978,9 @@
       <c r="AP153" t="n">
         <v>10</v>
       </c>
+      <c r="AQ153" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -21660,6 +22119,9 @@
       <c r="AP154" t="n">
         <v>16</v>
       </c>
+      <c r="AQ154" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -21798,6 +22260,9 @@
       <c r="AP155" t="n">
         <v>18</v>
       </c>
+      <c r="AQ155" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -21936,6 +22401,9 @@
       <c r="AP156" t="n">
         <v>2</v>
       </c>
+      <c r="AQ156" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -22074,6 +22542,9 @@
       <c r="AP157" t="n">
         <v>16</v>
       </c>
+      <c r="AQ157" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -22212,6 +22683,9 @@
       <c r="AP158" t="n">
         <v>21</v>
       </c>
+      <c r="AQ158" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -22348,6 +22822,9 @@
       <c r="AP159" t="n">
         <v>3</v>
       </c>
+      <c r="AQ159" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -22484,6 +22961,9 @@
       <c r="AP160" t="n">
         <v>25</v>
       </c>
+      <c r="AQ160" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -22620,6 +23100,9 @@
       <c r="AP161" t="n">
         <v>6</v>
       </c>
+      <c r="AQ161" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -22756,6 +23239,9 @@
       <c r="AP162" t="n">
         <v>20</v>
       </c>
+      <c r="AQ162" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -22894,6 +23380,9 @@
       <c r="AP163" t="n">
         <v>9</v>
       </c>
+      <c r="AQ163" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -23032,6 +23521,9 @@
       <c r="AP164" t="n">
         <v>8</v>
       </c>
+      <c r="AQ164" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -23170,6 +23662,9 @@
       <c r="AP165" t="n">
         <v>20</v>
       </c>
+      <c r="AQ165" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -23308,6 +23803,9 @@
       <c r="AP166" t="n">
         <v>10</v>
       </c>
+      <c r="AQ166" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -23446,6 +23944,9 @@
       <c r="AP167" t="n">
         <v>11</v>
       </c>
+      <c r="AQ167" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -23584,6 +24085,9 @@
       <c r="AP168" t="n">
         <v>18</v>
       </c>
+      <c r="AQ168" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -23720,6 +24224,9 @@
       <c r="AP169" t="n">
         <v>21</v>
       </c>
+      <c r="AQ169" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -23854,6 +24361,9 @@
       <c r="AP170" t="n">
         <v>1253</v>
       </c>
+      <c r="AQ170" t="n">
+        <v>1253</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -23988,6 +24498,9 @@
       <c r="AP171" t="n">
         <v>424</v>
       </c>
+      <c r="AQ171" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -24124,6 +24637,9 @@
       <c r="AP172" t="n">
         <v>5</v>
       </c>
+      <c r="AQ172" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -24262,6 +24778,9 @@
       <c r="AP173" t="n">
         <v>22</v>
       </c>
+      <c r="AQ173" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -24400,6 +24919,9 @@
       <c r="AP174" t="n">
         <v>21</v>
       </c>
+      <c r="AQ174" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -24538,6 +25060,9 @@
       <c r="AP175" t="n">
         <v>0</v>
       </c>
+      <c r="AQ175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -24676,6 +25201,9 @@
       <c r="AP176" t="n">
         <v>10</v>
       </c>
+      <c r="AQ176" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -24814,6 +25342,9 @@
       <c r="AP177" t="n">
         <v>14</v>
       </c>
+      <c r="AQ177" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -24952,6 +25483,9 @@
       <c r="AP178" t="n">
         <v>12</v>
       </c>
+      <c r="AQ178" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -25090,6 +25624,9 @@
       <c r="AP179" t="n">
         <v>8</v>
       </c>
+      <c r="AQ179" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -25228,6 +25765,9 @@
       <c r="AP180" t="n">
         <v>20</v>
       </c>
+      <c r="AQ180" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -25366,6 +25906,9 @@
       <c r="AP181" t="n">
         <v>26</v>
       </c>
+      <c r="AQ181" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -25504,6 +26047,9 @@
       <c r="AP182" t="n">
         <v>25</v>
       </c>
+      <c r="AQ182" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -25642,6 +26188,9 @@
       <c r="AP183" t="n">
         <v>17</v>
       </c>
+      <c r="AQ183" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -25780,6 +26329,9 @@
       <c r="AP184" t="n">
         <v>16</v>
       </c>
+      <c r="AQ184" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -25918,6 +26470,9 @@
       <c r="AP185" t="n">
         <v>12</v>
       </c>
+      <c r="AQ185" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -26056,6 +26611,9 @@
       <c r="AP186" t="n">
         <v>22</v>
       </c>
+      <c r="AQ186" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -26194,6 +26752,9 @@
       <c r="AP187" t="n">
         <v>4</v>
       </c>
+      <c r="AQ187" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -26332,6 +26893,9 @@
       <c r="AP188" t="n">
         <v>26</v>
       </c>
+      <c r="AQ188" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -26468,6 +27032,9 @@
       <c r="AP189" t="n">
         <v>16</v>
       </c>
+      <c r="AQ189" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -26606,6 +27173,9 @@
       <c r="AP190" t="n">
         <v>11</v>
       </c>
+      <c r="AQ190" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -26744,6 +27314,9 @@
       <c r="AP191" t="n">
         <v>-7</v>
       </c>
+      <c r="AQ191" t="n">
+        <v>-9</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -26882,6 +27455,9 @@
       <c r="AP192" t="n">
         <v>15</v>
       </c>
+      <c r="AQ192" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -27020,6 +27596,9 @@
       <c r="AP193" t="n">
         <v>21</v>
       </c>
+      <c r="AQ193" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -27158,6 +27737,9 @@
       <c r="AP194" t="n">
         <v>6</v>
       </c>
+      <c r="AQ194" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -27296,6 +27878,9 @@
       <c r="AP195" t="n">
         <v>13</v>
       </c>
+      <c r="AQ195" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -27434,6 +28019,9 @@
       <c r="AP196" t="n">
         <v>1</v>
       </c>
+      <c r="AQ196" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -27572,6 +28160,9 @@
       <c r="AP197" t="n">
         <v>16</v>
       </c>
+      <c r="AQ197" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -27710,6 +28301,9 @@
       <c r="AP198" t="n">
         <v>37</v>
       </c>
+      <c r="AQ198" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -27848,6 +28442,9 @@
       <c r="AP199" t="n">
         <v>13</v>
       </c>
+      <c r="AQ199" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -27986,6 +28583,9 @@
       <c r="AP200" t="n">
         <v>15</v>
       </c>
+      <c r="AQ200" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -28124,6 +28724,9 @@
       <c r="AP201" t="n">
         <v>5</v>
       </c>
+      <c r="AQ201" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -28262,6 +28865,9 @@
       <c r="AP202" t="n">
         <v>20</v>
       </c>
+      <c r="AQ202" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -28400,6 +29006,9 @@
       <c r="AP203" t="n">
         <v>6</v>
       </c>
+      <c r="AQ203" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -28538,6 +29147,9 @@
       <c r="AP204" t="n">
         <v>14</v>
       </c>
+      <c r="AQ204" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -28676,6 +29288,9 @@
       <c r="AP205" t="n">
         <v>20</v>
       </c>
+      <c r="AQ205" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -28814,6 +29429,9 @@
       <c r="AP206" t="n">
         <v>11</v>
       </c>
+      <c r="AQ206" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -28952,6 +29570,9 @@
       <c r="AP207" t="n">
         <v>13</v>
       </c>
+      <c r="AQ207" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -29090,6 +29711,9 @@
       <c r="AP208" t="n">
         <v>19</v>
       </c>
+      <c r="AQ208" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -29228,6 +29852,9 @@
       <c r="AP209" t="n">
         <v>18</v>
       </c>
+      <c r="AQ209" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -29366,6 +29993,9 @@
       <c r="AP210" t="n">
         <v>13</v>
       </c>
+      <c r="AQ210" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -29504,6 +30134,9 @@
       <c r="AP211" t="n">
         <v>25</v>
       </c>
+      <c r="AQ211" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -29642,6 +30275,9 @@
       <c r="AP212" t="n">
         <v>19</v>
       </c>
+      <c r="AQ212" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -29780,6 +30416,9 @@
       <c r="AP213" t="n">
         <v>9</v>
       </c>
+      <c r="AQ213" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -29918,6 +30557,9 @@
       <c r="AP214" t="n">
         <v>24</v>
       </c>
+      <c r="AQ214" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -30056,6 +30698,9 @@
       <c r="AP215" t="n">
         <v>1</v>
       </c>
+      <c r="AQ215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -30194,6 +30839,9 @@
       <c r="AP216" t="n">
         <v>6</v>
       </c>
+      <c r="AQ216" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -30332,6 +30980,9 @@
       <c r="AP217" t="n">
         <v>14</v>
       </c>
+      <c r="AQ217" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -30470,6 +31121,9 @@
       <c r="AP218" t="n">
         <v>22</v>
       </c>
+      <c r="AQ218" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -30608,6 +31262,9 @@
       <c r="AP219" t="n">
         <v>14</v>
       </c>
+      <c r="AQ219" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -30746,6 +31403,9 @@
       <c r="AP220" t="n">
         <v>18</v>
       </c>
+      <c r="AQ220" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -30884,6 +31544,9 @@
       <c r="AP221" t="n">
         <v>14</v>
       </c>
+      <c r="AQ221" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -31022,6 +31685,9 @@
       <c r="AP222" t="n">
         <v>7</v>
       </c>
+      <c r="AQ222" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -31160,6 +31826,9 @@
       <c r="AP223" t="n">
         <v>19</v>
       </c>
+      <c r="AQ223" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -31298,6 +31967,9 @@
       <c r="AP224" t="n">
         <v>0</v>
       </c>
+      <c r="AQ224" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -31436,6 +32108,9 @@
       <c r="AP225" t="n">
         <v>17</v>
       </c>
+      <c r="AQ225" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -31574,6 +32249,9 @@
       <c r="AP226" t="n">
         <v>11</v>
       </c>
+      <c r="AQ226" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -31712,6 +32390,9 @@
       <c r="AP227" t="n">
         <v>1</v>
       </c>
+      <c r="AQ227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -31850,6 +32531,9 @@
       <c r="AP228" t="n">
         <v>14</v>
       </c>
+      <c r="AQ228" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -31988,6 +32672,9 @@
       <c r="AP229" t="n">
         <v>16</v>
       </c>
+      <c r="AQ229" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -32126,6 +32813,9 @@
       <c r="AP230" t="n">
         <v>14</v>
       </c>
+      <c r="AQ230" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -32264,6 +32954,9 @@
       <c r="AP231" t="n">
         <v>14</v>
       </c>
+      <c r="AQ231" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -32402,6 +33095,9 @@
       <c r="AP232" t="n">
         <v>3</v>
       </c>
+      <c r="AQ232" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -32540,6 +33236,9 @@
       <c r="AP233" t="n">
         <v>15</v>
       </c>
+      <c r="AQ233" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -32678,6 +33377,9 @@
       <c r="AP234" t="n">
         <v>12</v>
       </c>
+      <c r="AQ234" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -32816,6 +33518,9 @@
       <c r="AP235" t="n">
         <v>16</v>
       </c>
+      <c r="AQ235" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -32954,6 +33659,9 @@
       <c r="AP236" t="n">
         <v>5</v>
       </c>
+      <c r="AQ236" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -33092,6 +33800,9 @@
       <c r="AP237" t="n">
         <v>9</v>
       </c>
+      <c r="AQ237" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -33230,6 +33941,9 @@
       <c r="AP238" t="n">
         <v>18</v>
       </c>
+      <c r="AQ238" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -33368,6 +34082,9 @@
       <c r="AP239" t="n">
         <v>29</v>
       </c>
+      <c r="AQ239" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -33506,6 +34223,9 @@
       <c r="AP240" t="n">
         <v>23</v>
       </c>
+      <c r="AQ240" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -33644,6 +34364,9 @@
       <c r="AP241" t="n">
         <v>7</v>
       </c>
+      <c r="AQ241" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -33782,6 +34505,9 @@
       <c r="AP242" t="n">
         <v>21</v>
       </c>
+      <c r="AQ242" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -33920,6 +34646,9 @@
       <c r="AP243" t="n">
         <v>21</v>
       </c>
+      <c r="AQ243" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -34058,6 +34787,9 @@
       <c r="AP244" t="n">
         <v>20</v>
       </c>
+      <c r="AQ244" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -34196,6 +34928,9 @@
       <c r="AP245" t="n">
         <v>23</v>
       </c>
+      <c r="AQ245" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -34334,6 +35069,9 @@
       <c r="AP246" t="n">
         <v>10</v>
       </c>
+      <c r="AQ246" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -34472,6 +35210,9 @@
       <c r="AP247" t="n">
         <v>18</v>
       </c>
+      <c r="AQ247" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -34610,6 +35351,9 @@
       <c r="AP248" t="n">
         <v>11</v>
       </c>
+      <c r="AQ248" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -34748,6 +35492,9 @@
       <c r="AP249" t="n">
         <v>19</v>
       </c>
+      <c r="AQ249" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -34886,6 +35633,9 @@
       <c r="AP250" t="n">
         <v>24</v>
       </c>
+      <c r="AQ250" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -35024,6 +35774,9 @@
       <c r="AP251" t="n">
         <v>19</v>
       </c>
+      <c r="AQ251" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -35162,6 +35915,9 @@
       <c r="AP252" t="n">
         <v>40</v>
       </c>
+      <c r="AQ252" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -35300,6 +36056,9 @@
       <c r="AP253" t="n">
         <v>68</v>
       </c>
+      <c r="AQ253" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -35438,6 +36197,9 @@
       <c r="AP254" t="n">
         <v>5</v>
       </c>
+      <c r="AQ254" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -35576,6 +36338,9 @@
       <c r="AP255" t="n">
         <v>3</v>
       </c>
+      <c r="AQ255" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -35714,6 +36479,9 @@
       <c r="AP256" t="n">
         <v>23</v>
       </c>
+      <c r="AQ256" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -35852,6 +36620,9 @@
       <c r="AP257" t="n">
         <v>14</v>
       </c>
+      <c r="AQ257" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -35990,6 +36761,9 @@
       <c r="AP258" t="n">
         <v>11</v>
       </c>
+      <c r="AQ258" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -36128,6 +36902,9 @@
       <c r="AP259" t="n">
         <v>8</v>
       </c>
+      <c r="AQ259" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -36266,6 +37043,9 @@
       <c r="AP260" t="n">
         <v>6</v>
       </c>
+      <c r="AQ260" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -36404,6 +37184,9 @@
       <c r="AP261" t="n">
         <v>7</v>
       </c>
+      <c r="AQ261" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -36542,6 +37325,9 @@
       <c r="AP262" t="n">
         <v>20</v>
       </c>
+      <c r="AQ262" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -36680,6 +37466,9 @@
       <c r="AP263" t="n">
         <v>20</v>
       </c>
+      <c r="AQ263" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -36818,6 +37607,9 @@
       <c r="AP264" t="n">
         <v>16</v>
       </c>
+      <c r="AQ264" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -36956,6 +37748,9 @@
       <c r="AP265" t="n">
         <v>14</v>
       </c>
+      <c r="AQ265" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -37094,6 +37889,9 @@
       <c r="AP266" t="n">
         <v>16</v>
       </c>
+      <c r="AQ266" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -37232,6 +38030,9 @@
       <c r="AP267" t="n">
         <v>12</v>
       </c>
+      <c r="AQ267" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -37370,6 +38171,9 @@
       <c r="AP268" t="n">
         <v>8</v>
       </c>
+      <c r="AQ268" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -37508,6 +38312,9 @@
       <c r="AP269" t="n">
         <v>2</v>
       </c>
+      <c r="AQ269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -37646,6 +38453,9 @@
       <c r="AP270" t="n">
         <v>8</v>
       </c>
+      <c r="AQ270" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -37784,6 +38594,9 @@
       <c r="AP271" t="n">
         <v>10</v>
       </c>
+      <c r="AQ271" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -37922,6 +38735,9 @@
       <c r="AP272" t="n">
         <v>-1</v>
       </c>
+      <c r="AQ272" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -38060,6 +38876,9 @@
       <c r="AP273" t="n">
         <v>15</v>
       </c>
+      <c r="AQ273" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -38198,6 +39017,9 @@
       <c r="AP274" t="n">
         <v>19</v>
       </c>
+      <c r="AQ274" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -38336,6 +39158,9 @@
       <c r="AP275" t="n">
         <v>8</v>
       </c>
+      <c r="AQ275" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -38474,6 +39299,9 @@
       <c r="AP276" t="n">
         <v>20</v>
       </c>
+      <c r="AQ276" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -38612,6 +39440,9 @@
       <c r="AP277" t="n">
         <v>3</v>
       </c>
+      <c r="AQ277" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -38750,6 +39581,9 @@
       <c r="AP278" t="n">
         <v>21</v>
       </c>
+      <c r="AQ278" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -38888,6 +39722,9 @@
       <c r="AP279" t="n">
         <v>8</v>
       </c>
+      <c r="AQ279" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -39024,6 +39861,9 @@
       <c r="AP280" t="n">
         <v>9</v>
       </c>
+      <c r="AQ280" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -39160,6 +40000,9 @@
       <c r="AP281" t="n">
         <v>16</v>
       </c>
+      <c r="AQ281" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -39296,6 +40139,9 @@
       <c r="AP282" t="n">
         <v>30</v>
       </c>
+      <c r="AQ282" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -39434,6 +40280,9 @@
       <c r="AP283" t="n">
         <v>5</v>
       </c>
+      <c r="AQ283" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -39572,6 +40421,9 @@
       <c r="AP284" t="n">
         <v>10</v>
       </c>
+      <c r="AQ284" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -39708,6 +40560,9 @@
       <c r="AP285" t="n">
         <v>2</v>
       </c>
+      <c r="AQ285" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -39846,6 +40701,9 @@
       <c r="AP286" t="n">
         <v>4</v>
       </c>
+      <c r="AQ286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -39984,6 +40842,9 @@
       <c r="AP287" t="n">
         <v>11</v>
       </c>
+      <c r="AQ287" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -40122,6 +40983,9 @@
       <c r="AP288" t="n">
         <v>296</v>
       </c>
+      <c r="AQ288" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -40260,6 +41124,9 @@
       <c r="AP289" t="n">
         <v>1124</v>
       </c>
+      <c r="AQ289" t="n">
+        <v>1124</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -40396,6 +41263,9 @@
       <c r="AP290" t="n">
         <v>1737</v>
       </c>
+      <c r="AQ290" t="n">
+        <v>1737</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -40532,6 +41402,9 @@
       <c r="AP291" t="n">
         <v>16</v>
       </c>
+      <c r="AQ291" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -40668,6 +41541,9 @@
       <c r="AP292" t="n">
         <v>12</v>
       </c>
+      <c r="AQ292" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -40804,6 +41680,9 @@
       <c r="AP293" t="n">
         <v>7</v>
       </c>
+      <c r="AQ293" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -40940,6 +41819,9 @@
       <c r="AP294" t="n">
         <v>2</v>
       </c>
+      <c r="AQ294" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -41076,6 +41958,9 @@
       <c r="AP295" t="n">
         <v>-1</v>
       </c>
+      <c r="AQ295" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -41212,6 +42097,9 @@
       <c r="AP296" t="n">
         <v>17</v>
       </c>
+      <c r="AQ296" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -41350,6 +42238,9 @@
       <c r="AP297" t="n">
         <v>41</v>
       </c>
+      <c r="AQ297" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -41486,6 +42377,9 @@
       <c r="AP298" t="n">
         <v>49</v>
       </c>
+      <c r="AQ298" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -41622,6 +42516,9 @@
       <c r="AP299" t="n">
         <v>25</v>
       </c>
+      <c r="AQ299" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -41760,6 +42657,9 @@
       <c r="AP300" t="n">
         <v>18</v>
       </c>
+      <c r="AQ300" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -41896,6 +42796,9 @@
       <c r="AP301" t="n">
         <v>25</v>
       </c>
+      <c r="AQ301" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -42034,6 +42937,9 @@
       <c r="AP302" t="n">
         <v>53</v>
       </c>
+      <c r="AQ302" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -42172,6 +43078,9 @@
       <c r="AP303" t="n">
         <v>10</v>
       </c>
+      <c r="AQ303" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -42310,6 +43219,9 @@
       <c r="AP304" t="n">
         <v>11</v>
       </c>
+      <c r="AQ304" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -42448,6 +43360,9 @@
       <c r="AP305" t="n">
         <v>25</v>
       </c>
+      <c r="AQ305" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -42586,6 +43501,9 @@
       <c r="AP306" t="n">
         <v>-3</v>
       </c>
+      <c r="AQ306" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -42724,6 +43642,9 @@
       <c r="AP307" t="n">
         <v>322</v>
       </c>
+      <c r="AQ307" t="n">
+        <v>322</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -42860,6 +43781,9 @@
       <c r="AP308" t="n">
         <v>18.76</v>
       </c>
+      <c r="AQ308" t="n">
+        <v>18.76</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -42998,6 +43922,9 @@
       <c r="AP309" t="n">
         <v>9</v>
       </c>
+      <c r="AQ309" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -43134,6 +44061,9 @@
       <c r="AP310" t="n">
         <v>141</v>
       </c>
+      <c r="AQ310" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -43270,6 +44200,9 @@
       <c r="AP311" t="n">
         <v>77.89999999999999</v>
       </c>
+      <c r="AQ311" t="n">
+        <v>77.89999999999999</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -43408,6 +44341,9 @@
       <c r="AP312" t="n">
         <v>61</v>
       </c>
+      <c r="AQ312" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -43544,6 +44480,9 @@
       <c r="AP313" t="n">
         <v>12</v>
       </c>
+      <c r="AQ313" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -43680,6 +44619,9 @@
       <c r="AP314" t="n">
         <v>15</v>
       </c>
+      <c r="AQ314" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -43816,6 +44758,9 @@
       <c r="AP315" t="n">
         <v>1</v>
       </c>
+      <c r="AQ315" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -43952,6 +44897,9 @@
       <c r="AP316" t="n">
         <v>1</v>
       </c>
+      <c r="AQ316" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -44088,6 +45036,9 @@
       <c r="AP317" t="n">
         <v>9</v>
       </c>
+      <c r="AQ317" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -44222,6 +45173,9 @@
       <c r="AP318" t="n">
         <v>40</v>
       </c>
+      <c r="AQ318" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -44358,6 +45312,9 @@
       <c r="AP319" t="n">
         <v>96</v>
       </c>
+      <c r="AQ319" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -44496,6 +45453,9 @@
       <c r="AP320" t="n">
         <v>55</v>
       </c>
+      <c r="AQ320" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -44632,6 +45592,9 @@
       <c r="AP321" t="n">
         <v>9</v>
       </c>
+      <c r="AQ321" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -44770,6 +45733,9 @@
       <c r="AP322" t="n">
         <v>18</v>
       </c>
+      <c r="AQ322" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -44908,6 +45874,9 @@
       <c r="AP323" t="n">
         <v>82</v>
       </c>
+      <c r="AQ323" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -45046,6 +46015,9 @@
       <c r="AP324" t="n">
         <v>29</v>
       </c>
+      <c r="AQ324" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -45184,6 +46156,9 @@
       <c r="AP325" t="n">
         <v>5</v>
       </c>
+      <c r="AQ325" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -45322,6 +46297,9 @@
       <c r="AP326" t="n">
         <v>17</v>
       </c>
+      <c r="AQ326" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -45460,6 +46438,9 @@
       <c r="AP327" t="n">
         <v>51</v>
       </c>
+      <c r="AQ327" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -45596,6 +46577,9 @@
       <c r="AP328" t="n">
         <v>95</v>
       </c>
+      <c r="AQ328" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -45734,6 +46718,9 @@
       <c r="AP329" t="n">
         <v>9</v>
       </c>
+      <c r="AQ329" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -45872,6 +46859,9 @@
       <c r="AP330" t="n">
         <v>15</v>
       </c>
+      <c r="AQ330" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -46008,6 +46998,9 @@
       <c r="AP331" t="n">
         <v>53</v>
       </c>
+      <c r="AQ331" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -46142,6 +47135,9 @@
       <c r="AP332" t="n">
         <v>3</v>
       </c>
+      <c r="AQ332" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -46276,6 +47272,9 @@
       <c r="AP333" t="n">
         <v>9</v>
       </c>
+      <c r="AQ333" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -46410,6 +47409,9 @@
       <c r="AP334" t="n">
         <v>8</v>
       </c>
+      <c r="AQ334" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -46548,6 +47550,9 @@
       <c r="AP335" t="n">
         <v>84</v>
       </c>
+      <c r="AQ335" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -46684,6 +47689,9 @@
       <c r="AP336" t="n">
         <v>5</v>
       </c>
+      <c r="AQ336" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -46822,6 +47830,9 @@
       <c r="AP337" t="n">
         <v>3</v>
       </c>
+      <c r="AQ337" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -46956,6 +47967,9 @@
       <c r="AP338" t="n">
         <v>-4</v>
       </c>
+      <c r="AQ338" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -47094,6 +48108,9 @@
       <c r="AP339" t="n">
         <v>35</v>
       </c>
+      <c r="AQ339" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -47232,6 +48249,9 @@
       <c r="AP340" t="n">
         <v>-2</v>
       </c>
+      <c r="AQ340" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -47370,6 +48390,9 @@
       <c r="AP341" t="n">
         <v>11</v>
       </c>
+      <c r="AQ341" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -47508,6 +48531,9 @@
       <c r="AP342" t="n">
         <v>28</v>
       </c>
+      <c r="AQ342" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -47644,6 +48670,9 @@
       <c r="AP343" t="n">
         <v>7</v>
       </c>
+      <c r="AQ343" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -47780,6 +48809,9 @@
       <c r="AP344" t="n">
         <v>15</v>
       </c>
+      <c r="AQ344" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -47916,6 +48948,9 @@
       <c r="AP345" t="n">
         <v>-2</v>
       </c>
+      <c r="AQ345" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -48052,6 +49087,9 @@
       <c r="AP346" t="n">
         <v>19</v>
       </c>
+      <c r="AQ346" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -48188,6 +49226,9 @@
       <c r="AP347" t="n">
         <v>7</v>
       </c>
+      <c r="AQ347" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -48326,6 +49367,9 @@
       <c r="AP348" t="n">
         <v>19</v>
       </c>
+      <c r="AQ348" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -48460,6 +49504,9 @@
       <c r="AP349" t="n">
         <v>54</v>
       </c>
+      <c r="AQ349" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -48598,6 +49645,9 @@
       <c r="AP350" t="n">
         <v>52</v>
       </c>
+      <c r="AQ350" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -48736,6 +49786,9 @@
       <c r="AP351" t="n">
         <v>150</v>
       </c>
+      <c r="AQ351" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -48874,6 +49927,9 @@
       <c r="AP352" t="n">
         <v>1187</v>
       </c>
+      <c r="AQ352" t="n">
+        <v>1186</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -49010,6 +50066,9 @@
       <c r="AP353" t="n">
         <v>12</v>
       </c>
+      <c r="AQ353" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -49148,6 +50207,9 @@
       <c r="AP354" t="n">
         <v>307</v>
       </c>
+      <c r="AQ354" t="n">
+        <v>307</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -49284,6 +50346,9 @@
       <c r="AP355" t="n">
         <v>660</v>
       </c>
+      <c r="AQ355" t="n">
+        <v>658</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -49422,6 +50487,9 @@
       <c r="AP356" t="n">
         <v>1</v>
       </c>
+      <c r="AQ356" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -49560,6 +50628,9 @@
       <c r="AP357" t="n">
         <v>9</v>
       </c>
+      <c r="AQ357" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -49698,6 +50769,9 @@
       <c r="AP358" t="n">
         <v>1113</v>
       </c>
+      <c r="AQ358" t="n">
+        <v>1113</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -49836,6 +50910,9 @@
       <c r="AP359" t="n">
         <v>87</v>
       </c>
+      <c r="AQ359" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -49972,6 +51049,9 @@
       <c r="AP360" t="n">
         <v>48</v>
       </c>
+      <c r="AQ360" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -50108,6 +51188,9 @@
       <c r="AP361" t="n">
         <v>33</v>
       </c>
+      <c r="AQ361" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -50244,6 +51327,9 @@
       <c r="AP362" t="n">
         <v>20</v>
       </c>
+      <c r="AQ362" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -50380,6 +51466,9 @@
       <c r="AP363" t="n">
         <v>15</v>
       </c>
+      <c r="AQ363" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -50518,6 +51607,9 @@
       <c r="AP364" t="n">
         <v>49</v>
       </c>
+      <c r="AQ364" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -50654,6 +51746,9 @@
       <c r="AP365" t="n">
         <v>110</v>
       </c>
+      <c r="AQ365" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -50792,6 +51887,9 @@
       <c r="AP366" t="n">
         <v>84</v>
       </c>
+      <c r="AQ366" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -50930,6 +52028,9 @@
       <c r="AP367" t="n">
         <v>15</v>
       </c>
+      <c r="AQ367" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -51066,6 +52167,9 @@
       <c r="AP368" t="n">
         <v>84</v>
       </c>
+      <c r="AQ368" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -51204,6 +52308,9 @@
       <c r="AP369" t="n">
         <v>10</v>
       </c>
+      <c r="AQ369" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -51342,6 +52449,9 @@
       <c r="AP370" t="n">
         <v>54</v>
       </c>
+      <c r="AQ370" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -51480,6 +52590,9 @@
       <c r="AP371" t="n">
         <v>100</v>
       </c>
+      <c r="AQ371" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -51618,6 +52731,9 @@
       <c r="AP372" t="n">
         <v>50</v>
       </c>
+      <c r="AQ372" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -51756,6 +52872,9 @@
       <c r="AP373" t="n">
         <v>2</v>
       </c>
+      <c r="AQ373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -51894,6 +53013,9 @@
       <c r="AP374" t="n">
         <v>62</v>
       </c>
+      <c r="AQ374" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -52030,6 +53152,9 @@
       <c r="AP375" t="n">
         <v>44</v>
       </c>
+      <c r="AQ375" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -52166,6 +53291,9 @@
       <c r="AP376" t="n">
         <v>20</v>
       </c>
+      <c r="AQ376" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -52304,6 +53432,9 @@
       <c r="AP377" t="n">
         <v>28</v>
       </c>
+      <c r="AQ377" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -52440,6 +53571,9 @@
       <c r="AP378" t="n">
         <v>45</v>
       </c>
+      <c r="AQ378" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -52578,6 +53712,9 @@
       <c r="AP379" t="n">
         <v>67</v>
       </c>
+      <c r="AQ379" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -52716,6 +53853,9 @@
       <c r="AP380" t="n">
         <v>15</v>
       </c>
+      <c r="AQ380" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -52854,6 +53994,9 @@
       <c r="AP381" t="n">
         <v>23</v>
       </c>
+      <c r="AQ381" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -52992,6 +54135,9 @@
       <c r="AP382" t="n">
         <v>28</v>
       </c>
+      <c r="AQ382" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -53130,6 +54276,9 @@
       <c r="AP383" t="n">
         <v>22</v>
       </c>
+      <c r="AQ383" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -53268,6 +54417,9 @@
       <c r="AP384" t="n">
         <v>37</v>
       </c>
+      <c r="AQ384" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -53406,6 +54558,9 @@
       <c r="AP385" t="n">
         <v>37</v>
       </c>
+      <c r="AQ385" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -53544,6 +54699,9 @@
       <c r="AP386" t="n">
         <v>43</v>
       </c>
+      <c r="AQ386" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -53680,6 +54838,9 @@
       <c r="AP387" t="n">
         <v>53</v>
       </c>
+      <c r="AQ387" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -53816,6 +54977,9 @@
       <c r="AP388" t="n">
         <v>29</v>
       </c>
+      <c r="AQ388" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -53954,6 +55118,9 @@
       <c r="AP389" t="n">
         <v>96</v>
       </c>
+      <c r="AQ389" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -54092,6 +55259,9 @@
       <c r="AP390" t="n">
         <v>87</v>
       </c>
+      <c r="AQ390" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -54230,6 +55400,9 @@
       <c r="AP391" t="n">
         <v>32</v>
       </c>
+      <c r="AQ391" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -54368,6 +55541,9 @@
       <c r="AP392" t="n">
         <v>91</v>
       </c>
+      <c r="AQ392" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -54502,6 +55678,9 @@
       <c r="AP393" t="n">
         <v>97</v>
       </c>
+      <c r="AQ393" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -54640,6 +55819,9 @@
       <c r="AP394" t="n">
         <v>121</v>
       </c>
+      <c r="AQ394" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -54778,6 +55960,9 @@
       <c r="AP395" t="n">
         <v>97</v>
       </c>
+      <c r="AQ395" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -54914,6 +56099,9 @@
       <c r="AP396" t="n">
         <v>6</v>
       </c>
+      <c r="AQ396" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -55050,6 +56238,9 @@
       <c r="AP397" t="n">
         <v>120</v>
       </c>
+      <c r="AQ397" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -55188,6 +56379,9 @@
       <c r="AP398" t="n">
         <v>13</v>
       </c>
+      <c r="AQ398" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -55326,6 +56520,9 @@
       <c r="AP399" t="n">
         <v>25</v>
       </c>
+      <c r="AQ399" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -55462,6 +56659,9 @@
       <c r="AP400" t="n">
         <v>24</v>
       </c>
+      <c r="AQ400" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -55598,6 +56798,9 @@
       <c r="AP401" t="n">
         <v>31</v>
       </c>
+      <c r="AQ401" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -55736,6 +56939,9 @@
       <c r="AP402" t="n">
         <v>24</v>
       </c>
+      <c r="AQ402" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -55872,6 +57078,9 @@
       <c r="AP403" t="n">
         <v>41</v>
       </c>
+      <c r="AQ403" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -56010,6 +57219,9 @@
       <c r="AP404" t="n">
         <v>30</v>
       </c>
+      <c r="AQ404" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -56148,6 +57360,9 @@
       <c r="AP405" t="n">
         <v>38</v>
       </c>
+      <c r="AQ405" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -56284,6 +57499,9 @@
       <c r="AP406" t="n">
         <v>-2</v>
       </c>
+      <c r="AQ406" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -56418,6 +57636,9 @@
         <v>0</v>
       </c>
       <c r="AP407" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ407" t="n">
         <v>0</v>
       </c>
     </row>

--- a/base_datos/inventario/stock_ferrimac.xlsx
+++ b/base_datos/inventario/stock_ferrimac.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ407"/>
+  <dimension ref="A1:AS407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,12 @@
       <c r="AQ1" s="2" t="n">
         <v>45596</v>
       </c>
+      <c r="AR1" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="AS1" s="2" t="n">
+        <v>45598</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -720,6 +726,8 @@
       <c r="AQ2" t="n">
         <v>6</v>
       </c>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -859,8 +867,10 @@
         <v>20</v>
       </c>
       <c r="AQ3" t="n">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1002,6 +1012,8 @@
       <c r="AQ4" t="n">
         <v>9</v>
       </c>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1143,6 +1155,8 @@
       <c r="AQ5" t="n">
         <v>-1</v>
       </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1284,6 +1298,8 @@
       <c r="AQ6" t="n">
         <v>3</v>
       </c>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1425,6 +1441,8 @@
       <c r="AQ7" t="n">
         <v>17</v>
       </c>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1566,6 +1584,8 @@
       <c r="AQ8" t="n">
         <v>2</v>
       </c>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1705,8 +1725,10 @@
         <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1848,6 +1870,8 @@
       <c r="AQ10" t="n">
         <v>11</v>
       </c>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1987,6 +2011,8 @@
       <c r="AQ11" t="n">
         <v>2</v>
       </c>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2126,6 +2152,8 @@
       <c r="AQ12" t="n">
         <v>4</v>
       </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2263,8 +2291,10 @@
         <v>10</v>
       </c>
       <c r="AQ13" t="n">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2406,6 +2436,8 @@
       <c r="AQ14" t="n">
         <v>62</v>
       </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2547,6 +2579,8 @@
       <c r="AQ15" t="n">
         <v>16</v>
       </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2688,6 +2722,8 @@
       <c r="AQ16" t="n">
         <v>22</v>
       </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2829,6 +2865,8 @@
       <c r="AQ17" t="n">
         <v>6</v>
       </c>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2970,6 +3008,8 @@
       <c r="AQ18" t="n">
         <v>8</v>
       </c>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3111,6 +3151,8 @@
       <c r="AQ19" t="n">
         <v>12</v>
       </c>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3250,8 +3292,10 @@
         <v>13</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3393,6 +3437,8 @@
       <c r="AQ21" t="n">
         <v>5</v>
       </c>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3534,6 +3580,8 @@
       <c r="AQ22" t="n">
         <v>40</v>
       </c>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3673,8 +3721,10 @@
         <v>38</v>
       </c>
       <c r="AQ23" t="n">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3810,8 +3860,10 @@
         <v>7</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3951,8 +4003,10 @@
         <v>28</v>
       </c>
       <c r="AQ25" t="n">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4092,8 +4146,10 @@
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4235,6 +4291,8 @@
       <c r="AQ27" t="n">
         <v>5</v>
       </c>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4376,6 +4434,8 @@
       <c r="AQ28" t="n">
         <v>20</v>
       </c>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4515,8 +4575,10 @@
         <v>40</v>
       </c>
       <c r="AQ29" t="n">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4656,8 +4718,10 @@
         <v>56</v>
       </c>
       <c r="AQ30" t="n">
-        <v>56</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4797,8 +4861,10 @@
         <v>46</v>
       </c>
       <c r="AQ31" t="n">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4938,8 +5004,10 @@
         <v>38</v>
       </c>
       <c r="AQ32" t="n">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5079,8 +5147,10 @@
         <v>16</v>
       </c>
       <c r="AQ33" t="n">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5222,6 +5292,8 @@
       <c r="AQ34" t="n">
         <v>11</v>
       </c>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5363,6 +5435,8 @@
       <c r="AQ35" t="n">
         <v>12</v>
       </c>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5504,6 +5578,8 @@
       <c r="AQ36" t="n">
         <v>6</v>
       </c>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5645,6 +5721,8 @@
       <c r="AQ37" t="n">
         <v>26</v>
       </c>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5786,6 +5864,8 @@
       <c r="AQ38" t="n">
         <v>10</v>
       </c>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5927,6 +6007,8 @@
       <c r="AQ39" t="n">
         <v>11</v>
       </c>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6068,6 +6150,8 @@
       <c r="AQ40" t="n">
         <v>7</v>
       </c>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6207,8 +6291,10 @@
         <v>7</v>
       </c>
       <c r="AQ41" t="n">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6350,6 +6436,8 @@
       <c r="AQ42" t="n">
         <v>5</v>
       </c>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6491,6 +6579,8 @@
       <c r="AQ43" t="n">
         <v>10</v>
       </c>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6632,6 +6722,8 @@
       <c r="AQ44" t="n">
         <v>23</v>
       </c>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6773,6 +6865,8 @@
       <c r="AQ45" t="n">
         <v>45</v>
       </c>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6912,8 +7006,10 @@
         <v>20</v>
       </c>
       <c r="AQ46" t="n">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7055,6 +7151,8 @@
       <c r="AQ47" t="n">
         <v>3</v>
       </c>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7196,6 +7294,8 @@
       <c r="AQ48" t="n">
         <v>31</v>
       </c>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7337,6 +7437,8 @@
       <c r="AQ49" t="n">
         <v>18</v>
       </c>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7476,8 +7578,10 @@
         <v>9</v>
       </c>
       <c r="AQ50" t="n">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7619,6 +7723,8 @@
       <c r="AQ51" t="n">
         <v>29</v>
       </c>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7760,6 +7866,8 @@
       <c r="AQ52" t="n">
         <v>25</v>
       </c>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7899,8 +8007,10 @@
         <v>30</v>
       </c>
       <c r="AQ53" t="n">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8042,6 +8152,8 @@
       <c r="AQ54" t="n">
         <v>17</v>
       </c>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8183,6 +8295,8 @@
       <c r="AQ55" t="n">
         <v>25</v>
       </c>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8324,6 +8438,8 @@
       <c r="AQ56" t="n">
         <v>27</v>
       </c>
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8465,6 +8581,8 @@
       <c r="AQ57" t="n">
         <v>8</v>
       </c>
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8604,8 +8722,10 @@
         <v>35</v>
       </c>
       <c r="AQ58" t="n">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8747,6 +8867,8 @@
       <c r="AQ59" t="n">
         <v>26</v>
       </c>
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8886,8 +9008,10 @@
         <v>9</v>
       </c>
       <c r="AQ60" t="n">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9027,8 +9151,10 @@
         <v>24</v>
       </c>
       <c r="AQ61" t="n">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9168,8 +9294,10 @@
         <v>36</v>
       </c>
       <c r="AQ62" t="n">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9309,8 +9437,10 @@
         <v>23</v>
       </c>
       <c r="AQ63" t="n">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="AR63" t="inlineStr"/>
+      <c r="AS63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9452,6 +9582,8 @@
       <c r="AQ64" t="n">
         <v>42</v>
       </c>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9593,6 +9725,8 @@
       <c r="AQ65" t="n">
         <v>33</v>
       </c>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9732,8 +9866,10 @@
         <v>24</v>
       </c>
       <c r="AQ66" t="n">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9875,6 +10011,8 @@
       <c r="AQ67" t="n">
         <v>27</v>
       </c>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10014,8 +10152,10 @@
         <v>30</v>
       </c>
       <c r="AQ68" t="n">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AR68" t="inlineStr"/>
+      <c r="AS68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10157,6 +10297,8 @@
       <c r="AQ69" t="n">
         <v>31</v>
       </c>
+      <c r="AR69" t="inlineStr"/>
+      <c r="AS69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10296,8 +10438,10 @@
         <v>21</v>
       </c>
       <c r="AQ70" t="n">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AR70" t="inlineStr"/>
+      <c r="AS70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -10437,8 +10581,10 @@
         <v>27</v>
       </c>
       <c r="AQ71" t="n">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AR71" t="inlineStr"/>
+      <c r="AS71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -10580,6 +10726,8 @@
       <c r="AQ72" t="n">
         <v>21</v>
       </c>
+      <c r="AR72" t="inlineStr"/>
+      <c r="AS72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -10721,6 +10869,8 @@
       <c r="AQ73" t="n">
         <v>20</v>
       </c>
+      <c r="AR73" t="inlineStr"/>
+      <c r="AS73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10860,8 +11010,10 @@
         <v>24</v>
       </c>
       <c r="AQ74" t="n">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="AR74" t="inlineStr"/>
+      <c r="AS74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11003,6 +11155,8 @@
       <c r="AQ75" t="n">
         <v>10</v>
       </c>
+      <c r="AR75" t="inlineStr"/>
+      <c r="AS75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11142,8 +11296,10 @@
         <v>5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AR76" t="inlineStr"/>
+      <c r="AS76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11285,6 +11441,8 @@
       <c r="AQ77" t="n">
         <v>16</v>
       </c>
+      <c r="AR77" t="inlineStr"/>
+      <c r="AS77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -11424,8 +11582,10 @@
         <v>23</v>
       </c>
       <c r="AQ78" t="n">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="AR78" t="inlineStr"/>
+      <c r="AS78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -11567,6 +11727,8 @@
       <c r="AQ79" t="n">
         <v>1</v>
       </c>
+      <c r="AR79" t="inlineStr"/>
+      <c r="AS79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -11708,6 +11870,8 @@
       <c r="AQ80" t="n">
         <v>33</v>
       </c>
+      <c r="AR80" t="inlineStr"/>
+      <c r="AS80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -11849,6 +12013,8 @@
       <c r="AQ81" t="n">
         <v>26</v>
       </c>
+      <c r="AR81" t="inlineStr"/>
+      <c r="AS81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -11990,6 +12156,8 @@
       <c r="AQ82" t="n">
         <v>21</v>
       </c>
+      <c r="AR82" t="inlineStr"/>
+      <c r="AS82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12129,8 +12297,10 @@
         <v>25</v>
       </c>
       <c r="AQ83" t="n">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AR83" t="inlineStr"/>
+      <c r="AS83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -12272,6 +12442,8 @@
       <c r="AQ84" t="n">
         <v>21</v>
       </c>
+      <c r="AR84" t="inlineStr"/>
+      <c r="AS84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -12413,6 +12585,8 @@
       <c r="AQ85" t="n">
         <v>27</v>
       </c>
+      <c r="AR85" t="inlineStr"/>
+      <c r="AS85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12554,6 +12728,8 @@
       <c r="AQ86" t="n">
         <v>0</v>
       </c>
+      <c r="AR86" t="inlineStr"/>
+      <c r="AS86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -12693,8 +12869,10 @@
         <v>23</v>
       </c>
       <c r="AQ87" t="n">
-        <v>20</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="AR87" t="inlineStr"/>
+      <c r="AS87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -12834,8 +13012,10 @@
         <v>14</v>
       </c>
       <c r="AQ88" t="n">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="AR88" t="inlineStr"/>
+      <c r="AS88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -12977,6 +13157,8 @@
       <c r="AQ89" t="n">
         <v>15</v>
       </c>
+      <c r="AR89" t="inlineStr"/>
+      <c r="AS89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -13116,8 +13298,10 @@
         <v>8</v>
       </c>
       <c r="AQ90" t="n">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AR90" t="inlineStr"/>
+      <c r="AS90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -13259,6 +13443,8 @@
       <c r="AQ91" t="n">
         <v>7</v>
       </c>
+      <c r="AR91" t="inlineStr"/>
+      <c r="AS91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13398,8 +13584,10 @@
         <v>15</v>
       </c>
       <c r="AQ92" t="n">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AR92" t="inlineStr"/>
+      <c r="AS92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -13539,8 +13727,10 @@
         <v>-2</v>
       </c>
       <c r="AQ93" t="n">
-        <v>-2</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="AR93" t="inlineStr"/>
+      <c r="AS93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -13682,6 +13872,8 @@
       <c r="AQ94" t="n">
         <v>15</v>
       </c>
+      <c r="AR94" t="inlineStr"/>
+      <c r="AS94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -13821,8 +14013,10 @@
         <v>15</v>
       </c>
       <c r="AQ95" t="n">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AR95" t="inlineStr"/>
+      <c r="AS95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -13964,6 +14158,8 @@
       <c r="AQ96" t="n">
         <v>9</v>
       </c>
+      <c r="AR96" t="inlineStr"/>
+      <c r="AS96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -14103,8 +14299,10 @@
         <v>14</v>
       </c>
       <c r="AQ97" t="n">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AR97" t="inlineStr"/>
+      <c r="AS97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -14246,6 +14444,8 @@
       <c r="AQ98" t="n">
         <v>19</v>
       </c>
+      <c r="AR98" t="inlineStr"/>
+      <c r="AS98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14385,8 +14585,10 @@
         <v>6</v>
       </c>
       <c r="AQ99" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AR99" t="inlineStr"/>
+      <c r="AS99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -14528,6 +14730,8 @@
       <c r="AQ100" t="n">
         <v>12</v>
       </c>
+      <c r="AR100" t="inlineStr"/>
+      <c r="AS100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -14669,6 +14873,8 @@
       <c r="AQ101" t="n">
         <v>9</v>
       </c>
+      <c r="AR101" t="inlineStr"/>
+      <c r="AS101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -14810,6 +15016,8 @@
       <c r="AQ102" t="n">
         <v>11</v>
       </c>
+      <c r="AR102" t="inlineStr"/>
+      <c r="AS102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -14949,8 +15157,10 @@
         <v>16</v>
       </c>
       <c r="AQ103" t="n">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="AR103" t="inlineStr"/>
+      <c r="AS103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -15092,6 +15302,8 @@
       <c r="AQ104" t="n">
         <v>7</v>
       </c>
+      <c r="AR104" t="inlineStr"/>
+      <c r="AS104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -15231,8 +15443,10 @@
         <v>2</v>
       </c>
       <c r="AQ105" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AR105" t="inlineStr"/>
+      <c r="AS105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -15372,8 +15586,10 @@
         <v>16</v>
       </c>
       <c r="AQ106" t="n">
-        <v>13</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AR106" t="inlineStr"/>
+      <c r="AS106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -15515,6 +15731,8 @@
       <c r="AQ107" t="n">
         <v>7</v>
       </c>
+      <c r="AR107" t="inlineStr"/>
+      <c r="AS107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -15656,6 +15874,8 @@
       <c r="AQ108" t="n">
         <v>9</v>
       </c>
+      <c r="AR108" t="inlineStr"/>
+      <c r="AS108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -15795,8 +16015,10 @@
         <v>10</v>
       </c>
       <c r="AQ109" t="n">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AR109" t="inlineStr"/>
+      <c r="AS109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -15938,6 +16160,8 @@
       <c r="AQ110" t="n">
         <v>11</v>
       </c>
+      <c r="AR110" t="inlineStr"/>
+      <c r="AS110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -16079,6 +16303,8 @@
       <c r="AQ111" t="n">
         <v>13</v>
       </c>
+      <c r="AR111" t="inlineStr"/>
+      <c r="AS111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -16218,8 +16444,10 @@
         <v>17</v>
       </c>
       <c r="AQ112" t="n">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AR112" t="inlineStr"/>
+      <c r="AS112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16361,6 +16589,8 @@
       <c r="AQ113" t="n">
         <v>18</v>
       </c>
+      <c r="AR113" t="inlineStr"/>
+      <c r="AS113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16500,8 +16730,10 @@
         <v>16</v>
       </c>
       <c r="AQ114" t="n">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="AR114" t="inlineStr"/>
+      <c r="AS114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16641,8 +16873,10 @@
         <v>12</v>
       </c>
       <c r="AQ115" t="n">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AR115" t="inlineStr"/>
+      <c r="AS115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16784,6 +17018,8 @@
       <c r="AQ116" t="n">
         <v>26</v>
       </c>
+      <c r="AR116" t="inlineStr"/>
+      <c r="AS116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16923,8 +17159,10 @@
         <v>19</v>
       </c>
       <c r="AQ117" t="n">
-        <v>16</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AR117" t="inlineStr"/>
+      <c r="AS117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -17064,8 +17302,10 @@
         <v>-3</v>
       </c>
       <c r="AQ118" t="n">
-        <v>-3</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="AR118" t="inlineStr"/>
+      <c r="AS118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -17205,8 +17445,10 @@
         <v>18</v>
       </c>
       <c r="AQ119" t="n">
-        <v>15</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AR119" t="inlineStr"/>
+      <c r="AS119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -17348,6 +17590,8 @@
       <c r="AQ120" t="n">
         <v>7</v>
       </c>
+      <c r="AR120" t="inlineStr"/>
+      <c r="AS120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -17487,8 +17731,10 @@
         <v>20</v>
       </c>
       <c r="AQ121" t="n">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AR121" t="inlineStr"/>
+      <c r="AS121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17630,6 +17876,8 @@
       <c r="AQ122" t="n">
         <v>3</v>
       </c>
+      <c r="AR122" t="inlineStr"/>
+      <c r="AS122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -17769,8 +18017,10 @@
         <v>16</v>
       </c>
       <c r="AQ123" t="n">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AR123" t="inlineStr"/>
+      <c r="AS123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -17912,6 +18162,8 @@
       <c r="AQ124" t="n">
         <v>5</v>
       </c>
+      <c r="AR124" t="inlineStr"/>
+      <c r="AS124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -18053,6 +18305,8 @@
       <c r="AQ125" t="n">
         <v>15</v>
       </c>
+      <c r="AR125" t="inlineStr"/>
+      <c r="AS125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -18194,6 +18448,8 @@
       <c r="AQ126" t="n">
         <v>2</v>
       </c>
+      <c r="AR126" t="inlineStr"/>
+      <c r="AS126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -18335,6 +18591,8 @@
       <c r="AQ127" t="n">
         <v>16</v>
       </c>
+      <c r="AR127" t="inlineStr"/>
+      <c r="AS127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -18476,6 +18734,8 @@
       <c r="AQ128" t="n">
         <v>10</v>
       </c>
+      <c r="AR128" t="inlineStr"/>
+      <c r="AS128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -18615,8 +18875,10 @@
         <v>1</v>
       </c>
       <c r="AQ129" t="n">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AR129" t="inlineStr"/>
+      <c r="AS129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -18758,6 +19020,8 @@
       <c r="AQ130" t="n">
         <v>13</v>
       </c>
+      <c r="AR130" t="inlineStr"/>
+      <c r="AS130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -18899,6 +19163,8 @@
       <c r="AQ131" t="n">
         <v>16</v>
       </c>
+      <c r="AR131" t="inlineStr"/>
+      <c r="AS131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -19038,8 +19304,10 @@
         <v>4</v>
       </c>
       <c r="AQ132" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AR132" t="inlineStr"/>
+      <c r="AS132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -19179,6 +19447,8 @@
       <c r="AQ133" t="n">
         <v>10</v>
       </c>
+      <c r="AR133" t="inlineStr"/>
+      <c r="AS133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -19316,8 +19586,10 @@
         <v>-1</v>
       </c>
       <c r="AQ134" t="n">
-        <v>-1</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="AR134" t="inlineStr"/>
+      <c r="AS134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -19459,6 +19731,8 @@
       <c r="AQ135" t="n">
         <v>1</v>
       </c>
+      <c r="AR135" t="inlineStr"/>
+      <c r="AS135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -19596,8 +19870,10 @@
         <v>15</v>
       </c>
       <c r="AQ136" t="n">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AR136" t="inlineStr"/>
+      <c r="AS136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -19739,6 +20015,8 @@
       <c r="AQ137" t="n">
         <v>10</v>
       </c>
+      <c r="AR137" t="inlineStr"/>
+      <c r="AS137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -19880,6 +20158,8 @@
       <c r="AQ138" t="n">
         <v>9</v>
       </c>
+      <c r="AR138" t="inlineStr"/>
+      <c r="AS138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -20019,6 +20299,8 @@
       <c r="AQ139" t="n">
         <v>4</v>
       </c>
+      <c r="AR139" t="inlineStr"/>
+      <c r="AS139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -20158,6 +20440,8 @@
       <c r="AQ140" t="n">
         <v>6</v>
       </c>
+      <c r="AR140" t="inlineStr"/>
+      <c r="AS140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -20297,6 +20581,8 @@
       <c r="AQ141" t="n">
         <v>13</v>
       </c>
+      <c r="AR141" t="inlineStr"/>
+      <c r="AS141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -20436,6 +20722,8 @@
       <c r="AQ142" t="n">
         <v>7</v>
       </c>
+      <c r="AR142" t="inlineStr"/>
+      <c r="AS142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -20575,6 +20863,8 @@
       <c r="AQ143" t="n">
         <v>0</v>
       </c>
+      <c r="AR143" t="inlineStr"/>
+      <c r="AS143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -20714,8 +21004,10 @@
         <v>12</v>
       </c>
       <c r="AQ144" t="n">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AR144" t="inlineStr"/>
+      <c r="AS144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -20857,6 +21149,8 @@
       <c r="AQ145" t="n">
         <v>12</v>
       </c>
+      <c r="AR145" t="inlineStr"/>
+      <c r="AS145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -20998,6 +21292,8 @@
       <c r="AQ146" t="n">
         <v>10</v>
       </c>
+      <c r="AR146" t="inlineStr"/>
+      <c r="AS146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -21137,8 +21433,10 @@
         <v>23</v>
       </c>
       <c r="AQ147" t="n">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AR147" t="inlineStr"/>
+      <c r="AS147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -21280,6 +21578,8 @@
       <c r="AQ148" t="n">
         <v>21</v>
       </c>
+      <c r="AR148" t="inlineStr"/>
+      <c r="AS148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -21417,8 +21717,10 @@
         <v>9</v>
       </c>
       <c r="AQ149" t="n">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AR149" t="inlineStr"/>
+      <c r="AS149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -21560,6 +21862,8 @@
       <c r="AQ150" t="n">
         <v>2</v>
       </c>
+      <c r="AR150" t="inlineStr"/>
+      <c r="AS150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -21701,6 +22005,8 @@
       <c r="AQ151" t="n">
         <v>7</v>
       </c>
+      <c r="AR151" t="inlineStr"/>
+      <c r="AS151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -21840,8 +22146,10 @@
         <v>8</v>
       </c>
       <c r="AQ152" t="n">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AR152" t="inlineStr"/>
+      <c r="AS152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -21979,8 +22287,10 @@
         <v>10</v>
       </c>
       <c r="AQ153" t="n">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AR153" t="inlineStr"/>
+      <c r="AS153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -22122,6 +22432,8 @@
       <c r="AQ154" t="n">
         <v>16</v>
       </c>
+      <c r="AR154" t="inlineStr"/>
+      <c r="AS154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -22263,6 +22575,8 @@
       <c r="AQ155" t="n">
         <v>18</v>
       </c>
+      <c r="AR155" t="inlineStr"/>
+      <c r="AS155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -22402,8 +22716,10 @@
         <v>2</v>
       </c>
       <c r="AQ156" t="n">
-        <v>-1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AR156" t="inlineStr"/>
+      <c r="AS156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -22545,6 +22861,8 @@
       <c r="AQ157" t="n">
         <v>16</v>
       </c>
+      <c r="AR157" t="inlineStr"/>
+      <c r="AS157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -22686,6 +23004,8 @@
       <c r="AQ158" t="n">
         <v>21</v>
       </c>
+      <c r="AR158" t="inlineStr"/>
+      <c r="AS158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -22825,6 +23145,8 @@
       <c r="AQ159" t="n">
         <v>3</v>
       </c>
+      <c r="AR159" t="inlineStr"/>
+      <c r="AS159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -22964,6 +23286,8 @@
       <c r="AQ160" t="n">
         <v>25</v>
       </c>
+      <c r="AR160" t="inlineStr"/>
+      <c r="AS160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -23103,6 +23427,8 @@
       <c r="AQ161" t="n">
         <v>6</v>
       </c>
+      <c r="AR161" t="inlineStr"/>
+      <c r="AS161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -23240,8 +23566,10 @@
         <v>20</v>
       </c>
       <c r="AQ162" t="n">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AR162" t="inlineStr"/>
+      <c r="AS162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -23381,8 +23709,10 @@
         <v>9</v>
       </c>
       <c r="AQ163" t="n">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AR163" t="inlineStr"/>
+      <c r="AS163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -23524,6 +23854,8 @@
       <c r="AQ164" t="n">
         <v>8</v>
       </c>
+      <c r="AR164" t="inlineStr"/>
+      <c r="AS164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -23663,8 +23995,10 @@
         <v>20</v>
       </c>
       <c r="AQ165" t="n">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AR165" t="inlineStr"/>
+      <c r="AS165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -23804,8 +24138,10 @@
         <v>10</v>
       </c>
       <c r="AQ166" t="n">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AR166" t="inlineStr"/>
+      <c r="AS166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -23945,8 +24281,10 @@
         <v>11</v>
       </c>
       <c r="AQ167" t="n">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AR167" t="inlineStr"/>
+      <c r="AS167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -24086,8 +24424,10 @@
         <v>18</v>
       </c>
       <c r="AQ168" t="n">
-        <v>16</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AR168" t="inlineStr"/>
+      <c r="AS168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -24227,6 +24567,8 @@
       <c r="AQ169" t="n">
         <v>21</v>
       </c>
+      <c r="AR169" t="inlineStr"/>
+      <c r="AS169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -24364,6 +24706,8 @@
       <c r="AQ170" t="n">
         <v>1253</v>
       </c>
+      <c r="AR170" t="inlineStr"/>
+      <c r="AS170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -24501,6 +24845,8 @@
       <c r="AQ171" t="n">
         <v>424</v>
       </c>
+      <c r="AR171" t="inlineStr"/>
+      <c r="AS171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -24638,8 +24984,10 @@
         <v>5</v>
       </c>
       <c r="AQ172" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AR172" t="inlineStr"/>
+      <c r="AS172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -24781,6 +25129,8 @@
       <c r="AQ173" t="n">
         <v>22</v>
       </c>
+      <c r="AR173" t="inlineStr"/>
+      <c r="AS173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -24922,6 +25272,8 @@
       <c r="AQ174" t="n">
         <v>21</v>
       </c>
+      <c r="AR174" t="inlineStr"/>
+      <c r="AS174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -25061,8 +25413,10 @@
         <v>0</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AR175" t="inlineStr"/>
+      <c r="AS175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -25204,6 +25558,8 @@
       <c r="AQ176" t="n">
         <v>10</v>
       </c>
+      <c r="AR176" t="inlineStr"/>
+      <c r="AS176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -25345,6 +25701,8 @@
       <c r="AQ177" t="n">
         <v>14</v>
       </c>
+      <c r="AR177" t="inlineStr"/>
+      <c r="AS177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -25486,6 +25844,8 @@
       <c r="AQ178" t="n">
         <v>12</v>
       </c>
+      <c r="AR178" t="inlineStr"/>
+      <c r="AS178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -25627,6 +25987,8 @@
       <c r="AQ179" t="n">
         <v>8</v>
       </c>
+      <c r="AR179" t="inlineStr"/>
+      <c r="AS179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -25766,8 +26128,10 @@
         <v>20</v>
       </c>
       <c r="AQ180" t="n">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AR180" t="inlineStr"/>
+      <c r="AS180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -25907,8 +26271,10 @@
         <v>26</v>
       </c>
       <c r="AQ181" t="n">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="AR181" t="inlineStr"/>
+      <c r="AS181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -26050,6 +26416,8 @@
       <c r="AQ182" t="n">
         <v>25</v>
       </c>
+      <c r="AR182" t="inlineStr"/>
+      <c r="AS182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -26191,6 +26559,8 @@
       <c r="AQ183" t="n">
         <v>17</v>
       </c>
+      <c r="AR183" t="inlineStr"/>
+      <c r="AS183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -26330,8 +26700,10 @@
         <v>16</v>
       </c>
       <c r="AQ184" t="n">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AR184" t="inlineStr"/>
+      <c r="AS184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -26473,6 +26845,8 @@
       <c r="AQ185" t="n">
         <v>12</v>
       </c>
+      <c r="AR185" t="inlineStr"/>
+      <c r="AS185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -26614,6 +26988,8 @@
       <c r="AQ186" t="n">
         <v>22</v>
       </c>
+      <c r="AR186" t="inlineStr"/>
+      <c r="AS186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -26755,6 +27131,8 @@
       <c r="AQ187" t="n">
         <v>4</v>
       </c>
+      <c r="AR187" t="inlineStr"/>
+      <c r="AS187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -26894,8 +27272,10 @@
         <v>26</v>
       </c>
       <c r="AQ188" t="n">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="AR188" t="inlineStr"/>
+      <c r="AS188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -27033,8 +27413,10 @@
         <v>16</v>
       </c>
       <c r="AQ189" t="n">
-        <v>16</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AR189" t="inlineStr"/>
+      <c r="AS189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -27176,6 +27558,8 @@
       <c r="AQ190" t="n">
         <v>11</v>
       </c>
+      <c r="AR190" t="inlineStr"/>
+      <c r="AS190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -27315,8 +27699,10 @@
         <v>-7</v>
       </c>
       <c r="AQ191" t="n">
-        <v>-9</v>
-      </c>
+        <v>-7</v>
+      </c>
+      <c r="AR191" t="inlineStr"/>
+      <c r="AS191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -27456,8 +27842,10 @@
         <v>15</v>
       </c>
       <c r="AQ192" t="n">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AR192" t="inlineStr"/>
+      <c r="AS192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -27597,8 +27985,10 @@
         <v>21</v>
       </c>
       <c r="AQ193" t="n">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="AR193" t="inlineStr"/>
+      <c r="AS193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -27740,6 +28130,8 @@
       <c r="AQ194" t="n">
         <v>6</v>
       </c>
+      <c r="AR194" t="inlineStr"/>
+      <c r="AS194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -27881,6 +28273,8 @@
       <c r="AQ195" t="n">
         <v>13</v>
       </c>
+      <c r="AR195" t="inlineStr"/>
+      <c r="AS195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -28020,8 +28414,10 @@
         <v>1</v>
       </c>
       <c r="AQ196" t="n">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AR196" t="inlineStr"/>
+      <c r="AS196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -28163,6 +28559,8 @@
       <c r="AQ197" t="n">
         <v>16</v>
       </c>
+      <c r="AR197" t="inlineStr"/>
+      <c r="AS197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -28302,8 +28700,10 @@
         <v>37</v>
       </c>
       <c r="AQ198" t="n">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AR198" t="inlineStr"/>
+      <c r="AS198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -28443,8 +28843,10 @@
         <v>13</v>
       </c>
       <c r="AQ199" t="n">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AR199" t="inlineStr"/>
+      <c r="AS199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -28586,6 +28988,8 @@
       <c r="AQ200" t="n">
         <v>15</v>
       </c>
+      <c r="AR200" t="inlineStr"/>
+      <c r="AS200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -28725,8 +29129,10 @@
         <v>5</v>
       </c>
       <c r="AQ201" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AR201" t="inlineStr"/>
+      <c r="AS201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -28868,6 +29274,8 @@
       <c r="AQ202" t="n">
         <v>20</v>
       </c>
+      <c r="AR202" t="inlineStr"/>
+      <c r="AS202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -29009,6 +29417,8 @@
       <c r="AQ203" t="n">
         <v>6</v>
       </c>
+      <c r="AR203" t="inlineStr"/>
+      <c r="AS203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -29150,6 +29560,8 @@
       <c r="AQ204" t="n">
         <v>12</v>
       </c>
+      <c r="AR204" t="inlineStr"/>
+      <c r="AS204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -29291,6 +29703,8 @@
       <c r="AQ205" t="n">
         <v>20</v>
       </c>
+      <c r="AR205" t="inlineStr"/>
+      <c r="AS205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -29432,6 +29846,8 @@
       <c r="AQ206" t="n">
         <v>11</v>
       </c>
+      <c r="AR206" t="inlineStr"/>
+      <c r="AS206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -29573,6 +29989,8 @@
       <c r="AQ207" t="n">
         <v>13</v>
       </c>
+      <c r="AR207" t="inlineStr"/>
+      <c r="AS207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -29712,8 +30130,10 @@
         <v>19</v>
       </c>
       <c r="AQ208" t="n">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AR208" t="inlineStr"/>
+      <c r="AS208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -29855,6 +30275,8 @@
       <c r="AQ209" t="n">
         <v>18</v>
       </c>
+      <c r="AR209" t="inlineStr"/>
+      <c r="AS209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -29996,6 +30418,8 @@
       <c r="AQ210" t="n">
         <v>13</v>
       </c>
+      <c r="AR210" t="inlineStr"/>
+      <c r="AS210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -30137,6 +30561,8 @@
       <c r="AQ211" t="n">
         <v>25</v>
       </c>
+      <c r="AR211" t="inlineStr"/>
+      <c r="AS211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -30276,8 +30702,10 @@
         <v>19</v>
       </c>
       <c r="AQ212" t="n">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AR212" t="inlineStr"/>
+      <c r="AS212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -30419,6 +30847,8 @@
       <c r="AQ213" t="n">
         <v>9</v>
       </c>
+      <c r="AR213" t="inlineStr"/>
+      <c r="AS213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -30558,8 +30988,10 @@
         <v>24</v>
       </c>
       <c r="AQ214" t="n">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="AR214" t="inlineStr"/>
+      <c r="AS214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -30701,6 +31133,8 @@
       <c r="AQ215" t="n">
         <v>1</v>
       </c>
+      <c r="AR215" t="inlineStr"/>
+      <c r="AS215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -30840,8 +31274,10 @@
         <v>6</v>
       </c>
       <c r="AQ216" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AR216" t="inlineStr"/>
+      <c r="AS216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -30983,6 +31419,8 @@
       <c r="AQ217" t="n">
         <v>14</v>
       </c>
+      <c r="AR217" t="inlineStr"/>
+      <c r="AS217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -31124,6 +31562,8 @@
       <c r="AQ218" t="n">
         <v>22</v>
       </c>
+      <c r="AR218" t="inlineStr"/>
+      <c r="AS218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -31265,6 +31705,8 @@
       <c r="AQ219" t="n">
         <v>14</v>
       </c>
+      <c r="AR219" t="inlineStr"/>
+      <c r="AS219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -31404,8 +31846,10 @@
         <v>18</v>
       </c>
       <c r="AQ220" t="n">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AR220" t="inlineStr"/>
+      <c r="AS220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -31547,6 +31991,8 @@
       <c r="AQ221" t="n">
         <v>14</v>
       </c>
+      <c r="AR221" t="inlineStr"/>
+      <c r="AS221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -31688,6 +32134,8 @@
       <c r="AQ222" t="n">
         <v>7</v>
       </c>
+      <c r="AR222" t="inlineStr"/>
+      <c r="AS222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -31829,6 +32277,8 @@
       <c r="AQ223" t="n">
         <v>19</v>
       </c>
+      <c r="AR223" t="inlineStr"/>
+      <c r="AS223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -31968,8 +32418,10 @@
         <v>0</v>
       </c>
       <c r="AQ224" t="n">
-        <v>-2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AR224" t="inlineStr"/>
+      <c r="AS224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -32111,6 +32563,8 @@
       <c r="AQ225" t="n">
         <v>17</v>
       </c>
+      <c r="AR225" t="inlineStr"/>
+      <c r="AS225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -32252,6 +32706,8 @@
       <c r="AQ226" t="n">
         <v>11</v>
       </c>
+      <c r="AR226" t="inlineStr"/>
+      <c r="AS226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -32391,8 +32847,10 @@
         <v>1</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AR227" t="inlineStr"/>
+      <c r="AS227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -32534,6 +32992,8 @@
       <c r="AQ228" t="n">
         <v>14</v>
       </c>
+      <c r="AR228" t="inlineStr"/>
+      <c r="AS228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -32675,6 +33135,8 @@
       <c r="AQ229" t="n">
         <v>16</v>
       </c>
+      <c r="AR229" t="inlineStr"/>
+      <c r="AS229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -32816,6 +33278,8 @@
       <c r="AQ230" t="n">
         <v>14</v>
       </c>
+      <c r="AR230" t="inlineStr"/>
+      <c r="AS230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -32957,6 +33421,8 @@
       <c r="AQ231" t="n">
         <v>14</v>
       </c>
+      <c r="AR231" t="inlineStr"/>
+      <c r="AS231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -33098,6 +33564,8 @@
       <c r="AQ232" t="n">
         <v>3</v>
       </c>
+      <c r="AR232" t="inlineStr"/>
+      <c r="AS232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -33239,6 +33707,8 @@
       <c r="AQ233" t="n">
         <v>15</v>
       </c>
+      <c r="AR233" t="inlineStr"/>
+      <c r="AS233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -33380,6 +33850,8 @@
       <c r="AQ234" t="n">
         <v>12</v>
       </c>
+      <c r="AR234" t="inlineStr"/>
+      <c r="AS234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -33521,6 +33993,8 @@
       <c r="AQ235" t="n">
         <v>16</v>
       </c>
+      <c r="AR235" t="inlineStr"/>
+      <c r="AS235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -33662,6 +34136,8 @@
       <c r="AQ236" t="n">
         <v>5</v>
       </c>
+      <c r="AR236" t="inlineStr"/>
+      <c r="AS236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -33803,6 +34279,8 @@
       <c r="AQ237" t="n">
         <v>9</v>
       </c>
+      <c r="AR237" t="inlineStr"/>
+      <c r="AS237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -33942,8 +34420,10 @@
         <v>18</v>
       </c>
       <c r="AQ238" t="n">
-        <v>16</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AR238" t="inlineStr"/>
+      <c r="AS238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -34085,6 +34565,8 @@
       <c r="AQ239" t="n">
         <v>29</v>
       </c>
+      <c r="AR239" t="inlineStr"/>
+      <c r="AS239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -34226,6 +34708,8 @@
       <c r="AQ240" t="n">
         <v>23</v>
       </c>
+      <c r="AR240" t="inlineStr"/>
+      <c r="AS240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -34365,8 +34849,10 @@
         <v>7</v>
       </c>
       <c r="AQ241" t="n">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AR241" t="inlineStr"/>
+      <c r="AS241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -34508,6 +34994,8 @@
       <c r="AQ242" t="n">
         <v>21</v>
       </c>
+      <c r="AR242" t="inlineStr"/>
+      <c r="AS242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -34649,6 +35137,8 @@
       <c r="AQ243" t="n">
         <v>21</v>
       </c>
+      <c r="AR243" t="inlineStr"/>
+      <c r="AS243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -34790,6 +35280,8 @@
       <c r="AQ244" t="n">
         <v>20</v>
       </c>
+      <c r="AR244" t="inlineStr"/>
+      <c r="AS244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -34931,6 +35423,8 @@
       <c r="AQ245" t="n">
         <v>23</v>
       </c>
+      <c r="AR245" t="inlineStr"/>
+      <c r="AS245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -35072,6 +35566,8 @@
       <c r="AQ246" t="n">
         <v>10</v>
       </c>
+      <c r="AR246" t="inlineStr"/>
+      <c r="AS246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -35213,6 +35709,8 @@
       <c r="AQ247" t="n">
         <v>18</v>
       </c>
+      <c r="AR247" t="inlineStr"/>
+      <c r="AS247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -35354,6 +35852,8 @@
       <c r="AQ248" t="n">
         <v>11</v>
       </c>
+      <c r="AR248" t="inlineStr"/>
+      <c r="AS248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -35495,6 +35995,8 @@
       <c r="AQ249" t="n">
         <v>19</v>
       </c>
+      <c r="AR249" t="inlineStr"/>
+      <c r="AS249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -35636,6 +36138,8 @@
       <c r="AQ250" t="n">
         <v>24</v>
       </c>
+      <c r="AR250" t="inlineStr"/>
+      <c r="AS250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -35777,6 +36281,8 @@
       <c r="AQ251" t="n">
         <v>19</v>
       </c>
+      <c r="AR251" t="inlineStr"/>
+      <c r="AS251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -35918,6 +36424,8 @@
       <c r="AQ252" t="n">
         <v>40</v>
       </c>
+      <c r="AR252" t="inlineStr"/>
+      <c r="AS252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -36057,8 +36565,10 @@
         <v>68</v>
       </c>
       <c r="AQ253" t="n">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AR253" t="inlineStr"/>
+      <c r="AS253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -36200,6 +36710,8 @@
       <c r="AQ254" t="n">
         <v>5</v>
       </c>
+      <c r="AR254" t="inlineStr"/>
+      <c r="AS254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -36341,6 +36853,8 @@
       <c r="AQ255" t="n">
         <v>3</v>
       </c>
+      <c r="AR255" t="inlineStr"/>
+      <c r="AS255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -36480,8 +36994,10 @@
         <v>23</v>
       </c>
       <c r="AQ256" t="n">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="AR256" t="inlineStr"/>
+      <c r="AS256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -36621,8 +37137,10 @@
         <v>14</v>
       </c>
       <c r="AQ257" t="n">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AR257" t="inlineStr"/>
+      <c r="AS257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -36762,8 +37280,10 @@
         <v>11</v>
       </c>
       <c r="AQ258" t="n">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AR258" t="inlineStr"/>
+      <c r="AS258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -36905,6 +37425,8 @@
       <c r="AQ259" t="n">
         <v>8</v>
       </c>
+      <c r="AR259" t="inlineStr"/>
+      <c r="AS259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -37046,6 +37568,8 @@
       <c r="AQ260" t="n">
         <v>6</v>
       </c>
+      <c r="AR260" t="inlineStr"/>
+      <c r="AS260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -37185,8 +37709,10 @@
         <v>7</v>
       </c>
       <c r="AQ261" t="n">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AR261" t="inlineStr"/>
+      <c r="AS261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -37326,8 +37852,10 @@
         <v>20</v>
       </c>
       <c r="AQ262" t="n">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AR262" t="inlineStr"/>
+      <c r="AS262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -37469,6 +37997,8 @@
       <c r="AQ263" t="n">
         <v>20</v>
       </c>
+      <c r="AR263" t="inlineStr"/>
+      <c r="AS263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -37608,8 +38138,10 @@
         <v>16</v>
       </c>
       <c r="AQ264" t="n">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AR264" t="inlineStr"/>
+      <c r="AS264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -37751,6 +38283,8 @@
       <c r="AQ265" t="n">
         <v>14</v>
       </c>
+      <c r="AR265" t="inlineStr"/>
+      <c r="AS265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -37890,8 +38424,10 @@
         <v>16</v>
       </c>
       <c r="AQ266" t="n">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AR266" t="inlineStr"/>
+      <c r="AS266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -38033,6 +38569,8 @@
       <c r="AQ267" t="n">
         <v>12</v>
       </c>
+      <c r="AR267" t="inlineStr"/>
+      <c r="AS267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -38172,8 +38710,10 @@
         <v>8</v>
       </c>
       <c r="AQ268" t="n">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AR268" t="inlineStr"/>
+      <c r="AS268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -38313,8 +38853,10 @@
         <v>2</v>
       </c>
       <c r="AQ269" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AR269" t="inlineStr"/>
+      <c r="AS269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -38454,8 +38996,10 @@
         <v>8</v>
       </c>
       <c r="AQ270" t="n">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AR270" t="inlineStr"/>
+      <c r="AS270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -38597,6 +39141,8 @@
       <c r="AQ271" t="n">
         <v>10</v>
       </c>
+      <c r="AR271" t="inlineStr"/>
+      <c r="AS271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -38738,6 +39284,8 @@
       <c r="AQ272" t="n">
         <v>-1</v>
       </c>
+      <c r="AR272" t="inlineStr"/>
+      <c r="AS272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -38879,6 +39427,8 @@
       <c r="AQ273" t="n">
         <v>15</v>
       </c>
+      <c r="AR273" t="inlineStr"/>
+      <c r="AS273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -39020,6 +39570,8 @@
       <c r="AQ274" t="n">
         <v>19</v>
       </c>
+      <c r="AR274" t="inlineStr"/>
+      <c r="AS274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -39159,8 +39711,10 @@
         <v>8</v>
       </c>
       <c r="AQ275" t="n">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AR275" t="inlineStr"/>
+      <c r="AS275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -39302,6 +39856,8 @@
       <c r="AQ276" t="n">
         <v>20</v>
       </c>
+      <c r="AR276" t="inlineStr"/>
+      <c r="AS276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -39443,6 +39999,8 @@
       <c r="AQ277" t="n">
         <v>3</v>
       </c>
+      <c r="AR277" t="inlineStr"/>
+      <c r="AS277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -39584,6 +40142,8 @@
       <c r="AQ278" t="n">
         <v>21</v>
       </c>
+      <c r="AR278" t="inlineStr"/>
+      <c r="AS278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -39725,6 +40285,8 @@
       <c r="AQ279" t="n">
         <v>8</v>
       </c>
+      <c r="AR279" t="inlineStr"/>
+      <c r="AS279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -39864,6 +40426,8 @@
       <c r="AQ280" t="n">
         <v>9</v>
       </c>
+      <c r="AR280" t="inlineStr"/>
+      <c r="AS280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -40001,8 +40565,10 @@
         <v>16</v>
       </c>
       <c r="AQ281" t="n">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="AR281" t="inlineStr"/>
+      <c r="AS281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -40140,8 +40706,10 @@
         <v>30</v>
       </c>
       <c r="AQ282" t="n">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AR282" t="inlineStr"/>
+      <c r="AS282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -40283,6 +40851,8 @@
       <c r="AQ283" t="n">
         <v>5</v>
       </c>
+      <c r="AR283" t="inlineStr"/>
+      <c r="AS283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -40424,6 +40994,8 @@
       <c r="AQ284" t="n">
         <v>9</v>
       </c>
+      <c r="AR284" t="inlineStr"/>
+      <c r="AS284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -40563,6 +41135,8 @@
       <c r="AQ285" t="n">
         <v>2</v>
       </c>
+      <c r="AR285" t="inlineStr"/>
+      <c r="AS285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -40704,6 +41278,8 @@
       <c r="AQ286" t="n">
         <v>4</v>
       </c>
+      <c r="AR286" t="inlineStr"/>
+      <c r="AS286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -40845,6 +41421,8 @@
       <c r="AQ287" t="n">
         <v>11</v>
       </c>
+      <c r="AR287" t="inlineStr"/>
+      <c r="AS287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -40986,6 +41564,8 @@
       <c r="AQ288" t="n">
         <v>296</v>
       </c>
+      <c r="AR288" t="inlineStr"/>
+      <c r="AS288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -41127,6 +41707,8 @@
       <c r="AQ289" t="n">
         <v>1124</v>
       </c>
+      <c r="AR289" t="inlineStr"/>
+      <c r="AS289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -41266,6 +41848,8 @@
       <c r="AQ290" t="n">
         <v>1737</v>
       </c>
+      <c r="AR290" t="inlineStr"/>
+      <c r="AS290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -41403,8 +41987,10 @@
         <v>16</v>
       </c>
       <c r="AQ291" t="n">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="AR291" t="inlineStr"/>
+      <c r="AS291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -41544,6 +42130,8 @@
       <c r="AQ292" t="n">
         <v>12</v>
       </c>
+      <c r="AR292" t="inlineStr"/>
+      <c r="AS292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -41681,8 +42269,10 @@
         <v>7</v>
       </c>
       <c r="AQ293" t="n">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AR293" t="inlineStr"/>
+      <c r="AS293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -41820,8 +42410,10 @@
         <v>2</v>
       </c>
       <c r="AQ294" t="n">
-        <v>2</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AR294" t="inlineStr"/>
+      <c r="AS294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -41961,6 +42553,8 @@
       <c r="AQ295" t="n">
         <v>-1</v>
       </c>
+      <c r="AR295" t="inlineStr"/>
+      <c r="AS295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -42098,8 +42692,10 @@
         <v>17</v>
       </c>
       <c r="AQ296" t="n">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="AR296" t="inlineStr"/>
+      <c r="AS296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -42239,8 +42835,10 @@
         <v>41</v>
       </c>
       <c r="AQ297" t="n">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AR297" t="inlineStr"/>
+      <c r="AS297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -42380,6 +42978,8 @@
       <c r="AQ298" t="n">
         <v>49</v>
       </c>
+      <c r="AR298" t="inlineStr"/>
+      <c r="AS298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -42519,6 +43119,8 @@
       <c r="AQ299" t="n">
         <v>25</v>
       </c>
+      <c r="AR299" t="inlineStr"/>
+      <c r="AS299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -42660,6 +43262,8 @@
       <c r="AQ300" t="n">
         <v>18</v>
       </c>
+      <c r="AR300" t="inlineStr"/>
+      <c r="AS300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -42799,6 +43403,8 @@
       <c r="AQ301" t="n">
         <v>25</v>
       </c>
+      <c r="AR301" t="inlineStr"/>
+      <c r="AS301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -42940,6 +43546,8 @@
       <c r="AQ302" t="n">
         <v>53</v>
       </c>
+      <c r="AR302" t="inlineStr"/>
+      <c r="AS302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -43081,6 +43689,8 @@
       <c r="AQ303" t="n">
         <v>10</v>
       </c>
+      <c r="AR303" t="inlineStr"/>
+      <c r="AS303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -43220,8 +43830,10 @@
         <v>11</v>
       </c>
       <c r="AQ304" t="n">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AR304" t="inlineStr"/>
+      <c r="AS304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -43361,8 +43973,10 @@
         <v>25</v>
       </c>
       <c r="AQ305" t="n">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="AR305" t="inlineStr"/>
+      <c r="AS305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -43504,6 +44118,8 @@
       <c r="AQ306" t="n">
         <v>-3</v>
       </c>
+      <c r="AR306" t="inlineStr"/>
+      <c r="AS306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -43645,6 +44261,8 @@
       <c r="AQ307" t="n">
         <v>322</v>
       </c>
+      <c r="AR307" t="inlineStr"/>
+      <c r="AS307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -43782,8 +44400,10 @@
         <v>18.76</v>
       </c>
       <c r="AQ308" t="n">
-        <v>18.76</v>
-      </c>
+        <v>16.76</v>
+      </c>
+      <c r="AR308" t="inlineStr"/>
+      <c r="AS308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -43925,6 +44545,8 @@
       <c r="AQ309" t="n">
         <v>9</v>
       </c>
+      <c r="AR309" t="inlineStr"/>
+      <c r="AS309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -44064,6 +44686,8 @@
       <c r="AQ310" t="n">
         <v>141</v>
       </c>
+      <c r="AR310" t="inlineStr"/>
+      <c r="AS310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -44203,6 +44827,8 @@
       <c r="AQ311" t="n">
         <v>77.89999999999999</v>
       </c>
+      <c r="AR311" t="inlineStr"/>
+      <c r="AS311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -44342,8 +44968,10 @@
         <v>61</v>
       </c>
       <c r="AQ312" t="n">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AR312" t="inlineStr"/>
+      <c r="AS312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -44483,6 +45111,8 @@
       <c r="AQ313" t="n">
         <v>12</v>
       </c>
+      <c r="AR313" t="inlineStr"/>
+      <c r="AS313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -44622,6 +45252,8 @@
       <c r="AQ314" t="n">
         <v>15</v>
       </c>
+      <c r="AR314" t="inlineStr"/>
+      <c r="AS314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -44759,8 +45391,10 @@
         <v>1</v>
       </c>
       <c r="AQ315" t="n">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AR315" t="inlineStr"/>
+      <c r="AS315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -44900,6 +45534,8 @@
       <c r="AQ316" t="n">
         <v>1</v>
       </c>
+      <c r="AR316" t="inlineStr"/>
+      <c r="AS316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -45037,8 +45673,10 @@
         <v>9</v>
       </c>
       <c r="AQ317" t="n">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AR317" t="inlineStr"/>
+      <c r="AS317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -45174,8 +45812,10 @@
         <v>40</v>
       </c>
       <c r="AQ318" t="n">
-        <v>40</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="AR318" t="inlineStr"/>
+      <c r="AS318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -45315,6 +45955,8 @@
       <c r="AQ319" t="n">
         <v>96</v>
       </c>
+      <c r="AR319" t="inlineStr"/>
+      <c r="AS319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -45456,6 +46098,8 @@
       <c r="AQ320" t="n">
         <v>55</v>
       </c>
+      <c r="AR320" t="inlineStr"/>
+      <c r="AS320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -45593,8 +46237,10 @@
         <v>9</v>
       </c>
       <c r="AQ321" t="n">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AR321" t="inlineStr"/>
+      <c r="AS321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -45736,6 +46382,8 @@
       <c r="AQ322" t="n">
         <v>18</v>
       </c>
+      <c r="AR322" t="inlineStr"/>
+      <c r="AS322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -45877,6 +46525,8 @@
       <c r="AQ323" t="n">
         <v>82</v>
       </c>
+      <c r="AR323" t="inlineStr"/>
+      <c r="AS323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -46018,6 +46668,8 @@
       <c r="AQ324" t="n">
         <v>29</v>
       </c>
+      <c r="AR324" t="inlineStr"/>
+      <c r="AS324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -46157,8 +46809,10 @@
         <v>5</v>
       </c>
       <c r="AQ325" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AR325" t="inlineStr"/>
+      <c r="AS325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -46300,6 +46954,8 @@
       <c r="AQ326" t="n">
         <v>17</v>
       </c>
+      <c r="AR326" t="inlineStr"/>
+      <c r="AS326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -46441,6 +47097,8 @@
       <c r="AQ327" t="n">
         <v>51</v>
       </c>
+      <c r="AR327" t="inlineStr"/>
+      <c r="AS327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -46580,6 +47238,8 @@
       <c r="AQ328" t="n">
         <v>95</v>
       </c>
+      <c r="AR328" t="inlineStr"/>
+      <c r="AS328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -46719,8 +47379,10 @@
         <v>9</v>
       </c>
       <c r="AQ329" t="n">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AR329" t="inlineStr"/>
+      <c r="AS329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -46860,8 +47522,10 @@
         <v>15</v>
       </c>
       <c r="AQ330" t="n">
-        <v>12</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="AR330" t="inlineStr"/>
+      <c r="AS330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -47001,6 +47665,8 @@
       <c r="AQ331" t="n">
         <v>53</v>
       </c>
+      <c r="AR331" t="inlineStr"/>
+      <c r="AS331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -47136,8 +47802,10 @@
         <v>3</v>
       </c>
       <c r="AQ332" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AR332" t="inlineStr"/>
+      <c r="AS332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -47275,6 +47943,8 @@
       <c r="AQ333" t="n">
         <v>9</v>
       </c>
+      <c r="AR333" t="inlineStr"/>
+      <c r="AS333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -47412,6 +48082,8 @@
       <c r="AQ334" t="n">
         <v>8</v>
       </c>
+      <c r="AR334" t="inlineStr"/>
+      <c r="AS334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -47551,8 +48223,10 @@
         <v>84</v>
       </c>
       <c r="AQ335" t="n">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AR335" t="inlineStr"/>
+      <c r="AS335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -47692,6 +48366,8 @@
       <c r="AQ336" t="n">
         <v>5</v>
       </c>
+      <c r="AR336" t="inlineStr"/>
+      <c r="AS336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -47833,6 +48509,8 @@
       <c r="AQ337" t="n">
         <v>3</v>
       </c>
+      <c r="AR337" t="inlineStr"/>
+      <c r="AS337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -47970,6 +48648,8 @@
       <c r="AQ338" t="n">
         <v>-4</v>
       </c>
+      <c r="AR338" t="inlineStr"/>
+      <c r="AS338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -48109,8 +48789,10 @@
         <v>35</v>
       </c>
       <c r="AQ339" t="n">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AR339" t="inlineStr"/>
+      <c r="AS339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -48252,6 +48934,8 @@
       <c r="AQ340" t="n">
         <v>-2</v>
       </c>
+      <c r="AR340" t="inlineStr"/>
+      <c r="AS340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -48393,6 +49077,8 @@
       <c r="AQ341" t="n">
         <v>11</v>
       </c>
+      <c r="AR341" t="inlineStr"/>
+      <c r="AS341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -48534,6 +49220,8 @@
       <c r="AQ342" t="n">
         <v>28</v>
       </c>
+      <c r="AR342" t="inlineStr"/>
+      <c r="AS342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -48673,6 +49361,8 @@
       <c r="AQ343" t="n">
         <v>7</v>
       </c>
+      <c r="AR343" t="inlineStr"/>
+      <c r="AS343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -48812,6 +49502,8 @@
       <c r="AQ344" t="n">
         <v>15</v>
       </c>
+      <c r="AR344" t="inlineStr"/>
+      <c r="AS344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -48949,8 +49641,10 @@
         <v>-2</v>
       </c>
       <c r="AQ345" t="n">
-        <v>-2</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="AR345" t="inlineStr"/>
+      <c r="AS345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -49090,6 +49784,8 @@
       <c r="AQ346" t="n">
         <v>19</v>
       </c>
+      <c r="AR346" t="inlineStr"/>
+      <c r="AS346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -49229,6 +49925,8 @@
       <c r="AQ347" t="n">
         <v>7</v>
       </c>
+      <c r="AR347" t="inlineStr"/>
+      <c r="AS347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -49368,8 +50066,10 @@
         <v>19</v>
       </c>
       <c r="AQ348" t="n">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="AR348" t="inlineStr"/>
+      <c r="AS348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -49505,8 +50205,10 @@
         <v>54</v>
       </c>
       <c r="AQ349" t="n">
-        <v>54</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AR349" t="inlineStr"/>
+      <c r="AS349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -49648,6 +50350,8 @@
       <c r="AQ350" t="n">
         <v>52</v>
       </c>
+      <c r="AR350" t="inlineStr"/>
+      <c r="AS350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -49789,6 +50493,8 @@
       <c r="AQ351" t="n">
         <v>150</v>
       </c>
+      <c r="AR351" t="inlineStr"/>
+      <c r="AS351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -49928,8 +50634,10 @@
         <v>1187</v>
       </c>
       <c r="AQ352" t="n">
-        <v>1186</v>
-      </c>
+        <v>1187</v>
+      </c>
+      <c r="AR352" t="inlineStr"/>
+      <c r="AS352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -50067,8 +50775,10 @@
         <v>12</v>
       </c>
       <c r="AQ353" t="n">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AR353" t="inlineStr"/>
+      <c r="AS353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -50210,6 +50920,8 @@
       <c r="AQ354" t="n">
         <v>307</v>
       </c>
+      <c r="AR354" t="inlineStr"/>
+      <c r="AS354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -50347,8 +51059,10 @@
         <v>660</v>
       </c>
       <c r="AQ355" t="n">
-        <v>658</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="AR355" t="inlineStr"/>
+      <c r="AS355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -50490,6 +51204,8 @@
       <c r="AQ356" t="n">
         <v>1</v>
       </c>
+      <c r="AR356" t="inlineStr"/>
+      <c r="AS356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -50629,8 +51345,10 @@
         <v>9</v>
       </c>
       <c r="AQ357" t="n">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AR357" t="inlineStr"/>
+      <c r="AS357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -50770,8 +51488,10 @@
         <v>1113</v>
       </c>
       <c r="AQ358" t="n">
-        <v>1113</v>
-      </c>
+        <v>1110</v>
+      </c>
+      <c r="AR358" t="inlineStr"/>
+      <c r="AS358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -50911,8 +51631,10 @@
         <v>87</v>
       </c>
       <c r="AQ359" t="n">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AR359" t="inlineStr"/>
+      <c r="AS359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -51050,8 +51772,10 @@
         <v>48</v>
       </c>
       <c r="AQ360" t="n">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AR360" t="inlineStr"/>
+      <c r="AS360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -51189,8 +51913,10 @@
         <v>33</v>
       </c>
       <c r="AQ361" t="n">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AR361" t="inlineStr"/>
+      <c r="AS361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -51330,6 +52056,8 @@
       <c r="AQ362" t="n">
         <v>20</v>
       </c>
+      <c r="AR362" t="inlineStr"/>
+      <c r="AS362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -51469,6 +52197,8 @@
       <c r="AQ363" t="n">
         <v>15</v>
       </c>
+      <c r="AR363" t="inlineStr"/>
+      <c r="AS363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -51610,6 +52340,8 @@
       <c r="AQ364" t="n">
         <v>49</v>
       </c>
+      <c r="AR364" t="inlineStr"/>
+      <c r="AS364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -51747,8 +52479,10 @@
         <v>110</v>
       </c>
       <c r="AQ365" t="n">
-        <v>110</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="AR365" t="inlineStr"/>
+      <c r="AS365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -51888,8 +52622,10 @@
         <v>84</v>
       </c>
       <c r="AQ366" t="n">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AR366" t="inlineStr"/>
+      <c r="AS366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -52031,6 +52767,8 @@
       <c r="AQ367" t="n">
         <v>15</v>
       </c>
+      <c r="AR367" t="inlineStr"/>
+      <c r="AS367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -52168,8 +52906,10 @@
         <v>84</v>
       </c>
       <c r="AQ368" t="n">
-        <v>83</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AR368" t="inlineStr"/>
+      <c r="AS368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -52309,8 +53049,10 @@
         <v>10</v>
       </c>
       <c r="AQ369" t="n">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AR369" t="inlineStr"/>
+      <c r="AS369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -52450,8 +53192,10 @@
         <v>54</v>
       </c>
       <c r="AQ370" t="n">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AR370" t="inlineStr"/>
+      <c r="AS370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -52593,6 +53337,8 @@
       <c r="AQ371" t="n">
         <v>100</v>
       </c>
+      <c r="AR371" t="inlineStr"/>
+      <c r="AS371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -52734,6 +53480,8 @@
       <c r="AQ372" t="n">
         <v>50</v>
       </c>
+      <c r="AR372" t="inlineStr"/>
+      <c r="AS372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -52873,8 +53621,10 @@
         <v>2</v>
       </c>
       <c r="AQ373" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AR373" t="inlineStr"/>
+      <c r="AS373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -53016,6 +53766,8 @@
       <c r="AQ374" t="n">
         <v>62</v>
       </c>
+      <c r="AR374" t="inlineStr"/>
+      <c r="AS374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -53155,6 +53907,8 @@
       <c r="AQ375" t="n">
         <v>44</v>
       </c>
+      <c r="AR375" t="inlineStr"/>
+      <c r="AS375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -53294,6 +54048,8 @@
       <c r="AQ376" t="n">
         <v>20</v>
       </c>
+      <c r="AR376" t="inlineStr"/>
+      <c r="AS376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -53435,6 +54191,8 @@
       <c r="AQ377" t="n">
         <v>28</v>
       </c>
+      <c r="AR377" t="inlineStr"/>
+      <c r="AS377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -53572,8 +54330,10 @@
         <v>45</v>
       </c>
       <c r="AQ378" t="n">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AR378" t="inlineStr"/>
+      <c r="AS378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -53715,6 +54475,8 @@
       <c r="AQ379" t="n">
         <v>67</v>
       </c>
+      <c r="AR379" t="inlineStr"/>
+      <c r="AS379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -53856,6 +54618,8 @@
       <c r="AQ380" t="n">
         <v>15</v>
       </c>
+      <c r="AR380" t="inlineStr"/>
+      <c r="AS380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -53997,6 +54761,8 @@
       <c r="AQ381" t="n">
         <v>23</v>
       </c>
+      <c r="AR381" t="inlineStr"/>
+      <c r="AS381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -54138,6 +54904,8 @@
       <c r="AQ382" t="n">
         <v>28</v>
       </c>
+      <c r="AR382" t="inlineStr"/>
+      <c r="AS382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -54279,6 +55047,8 @@
       <c r="AQ383" t="n">
         <v>22</v>
       </c>
+      <c r="AR383" t="inlineStr"/>
+      <c r="AS383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -54418,8 +55188,10 @@
         <v>37</v>
       </c>
       <c r="AQ384" t="n">
-        <v>34</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AR384" t="inlineStr"/>
+      <c r="AS384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -54561,6 +55333,8 @@
       <c r="AQ385" t="n">
         <v>37</v>
       </c>
+      <c r="AR385" t="inlineStr"/>
+      <c r="AS385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -54700,8 +55474,10 @@
         <v>43</v>
       </c>
       <c r="AQ386" t="n">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AR386" t="inlineStr"/>
+      <c r="AS386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -54841,6 +55617,8 @@
       <c r="AQ387" t="n">
         <v>53</v>
       </c>
+      <c r="AR387" t="inlineStr"/>
+      <c r="AS387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -54980,6 +55758,8 @@
       <c r="AQ388" t="n">
         <v>29</v>
       </c>
+      <c r="AR388" t="inlineStr"/>
+      <c r="AS388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -55121,6 +55901,8 @@
       <c r="AQ389" t="n">
         <v>96</v>
       </c>
+      <c r="AR389" t="inlineStr"/>
+      <c r="AS389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -55260,8 +56042,10 @@
         <v>87</v>
       </c>
       <c r="AQ390" t="n">
-        <v>87</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AR390" t="inlineStr"/>
+      <c r="AS390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -55403,6 +56187,8 @@
       <c r="AQ391" t="n">
         <v>32</v>
       </c>
+      <c r="AR391" t="inlineStr"/>
+      <c r="AS391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -55544,6 +56330,8 @@
       <c r="AQ392" t="n">
         <v>91</v>
       </c>
+      <c r="AR392" t="inlineStr"/>
+      <c r="AS392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -55681,6 +56469,8 @@
       <c r="AQ393" t="n">
         <v>94</v>
       </c>
+      <c r="AR393" t="inlineStr"/>
+      <c r="AS393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -55822,6 +56612,8 @@
       <c r="AQ394" t="n">
         <v>121</v>
       </c>
+      <c r="AR394" t="inlineStr"/>
+      <c r="AS394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -55963,6 +56755,8 @@
       <c r="AQ395" t="n">
         <v>97</v>
       </c>
+      <c r="AR395" t="inlineStr"/>
+      <c r="AS395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -56102,6 +56896,8 @@
       <c r="AQ396" t="n">
         <v>6</v>
       </c>
+      <c r="AR396" t="inlineStr"/>
+      <c r="AS396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -56239,8 +57035,10 @@
         <v>120</v>
       </c>
       <c r="AQ397" t="n">
-        <v>120</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="AR397" t="inlineStr"/>
+      <c r="AS397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -56380,8 +57178,10 @@
         <v>13</v>
       </c>
       <c r="AQ398" t="n">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="AR398" t="inlineStr"/>
+      <c r="AS398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -56523,6 +57323,8 @@
       <c r="AQ399" t="n">
         <v>25</v>
       </c>
+      <c r="AR399" t="inlineStr"/>
+      <c r="AS399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -56662,6 +57464,8 @@
       <c r="AQ400" t="n">
         <v>24</v>
       </c>
+      <c r="AR400" t="inlineStr"/>
+      <c r="AS400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -56799,8 +57603,10 @@
         <v>31</v>
       </c>
       <c r="AQ401" t="n">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AR401" t="inlineStr"/>
+      <c r="AS401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -56942,6 +57748,8 @@
       <c r="AQ402" t="n">
         <v>24</v>
       </c>
+      <c r="AR402" t="inlineStr"/>
+      <c r="AS402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -57081,6 +57889,8 @@
       <c r="AQ403" t="n">
         <v>41</v>
       </c>
+      <c r="AR403" t="inlineStr"/>
+      <c r="AS403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -57220,8 +58030,10 @@
         <v>30</v>
       </c>
       <c r="AQ404" t="n">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AR404" t="inlineStr"/>
+      <c r="AS404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -57363,6 +58175,8 @@
       <c r="AQ405" t="n">
         <v>38</v>
       </c>
+      <c r="AR405" t="inlineStr"/>
+      <c r="AS405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -57500,8 +58314,10 @@
         <v>-2</v>
       </c>
       <c r="AQ406" t="n">
-        <v>-5</v>
-      </c>
+        <v>-3</v>
+      </c>
+      <c r="AR406" t="inlineStr"/>
+      <c r="AS406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -57639,8 +58455,10 @@
         <v>0</v>
       </c>
       <c r="AQ407" t="n">
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="AR407" t="inlineStr"/>
+      <c r="AS407" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base_datos/inventario/stock_ferrimac.xlsx
+++ b/base_datos/inventario/stock_ferrimac.xlsx
@@ -726,7 +726,9 @@
       <c r="AQ2" t="n">
         <v>6</v>
       </c>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AR2" t="n">
+        <v>6</v>
+      </c>
       <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -869,7 +871,9 @@
       <c r="AQ3" t="n">
         <v>18</v>
       </c>
-      <c r="AR3" t="inlineStr"/>
+      <c r="AR3" t="n">
+        <v>18</v>
+      </c>
       <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1012,7 +1016,9 @@
       <c r="AQ4" t="n">
         <v>9</v>
       </c>
-      <c r="AR4" t="inlineStr"/>
+      <c r="AR4" t="n">
+        <v>9</v>
+      </c>
       <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1155,7 +1161,9 @@
       <c r="AQ5" t="n">
         <v>-1</v>
       </c>
-      <c r="AR5" t="inlineStr"/>
+      <c r="AR5" t="n">
+        <v>-1</v>
+      </c>
       <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1298,7 +1306,9 @@
       <c r="AQ6" t="n">
         <v>3</v>
       </c>
-      <c r="AR6" t="inlineStr"/>
+      <c r="AR6" t="n">
+        <v>3</v>
+      </c>
       <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1441,7 +1451,9 @@
       <c r="AQ7" t="n">
         <v>17</v>
       </c>
-      <c r="AR7" t="inlineStr"/>
+      <c r="AR7" t="n">
+        <v>17</v>
+      </c>
       <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1584,7 +1596,9 @@
       <c r="AQ8" t="n">
         <v>2</v>
       </c>
-      <c r="AR8" t="inlineStr"/>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
       <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1727,7 +1741,9 @@
       <c r="AQ9" t="n">
         <v>15</v>
       </c>
-      <c r="AR9" t="inlineStr"/>
+      <c r="AR9" t="n">
+        <v>15</v>
+      </c>
       <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1870,7 +1886,9 @@
       <c r="AQ10" t="n">
         <v>11</v>
       </c>
-      <c r="AR10" t="inlineStr"/>
+      <c r="AR10" t="n">
+        <v>8</v>
+      </c>
       <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -2011,7 +2029,9 @@
       <c r="AQ11" t="n">
         <v>2</v>
       </c>
-      <c r="AR11" t="inlineStr"/>
+      <c r="AR11" t="n">
+        <v>2</v>
+      </c>
       <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2152,7 +2172,9 @@
       <c r="AQ12" t="n">
         <v>4</v>
       </c>
-      <c r="AR12" t="inlineStr"/>
+      <c r="AR12" t="n">
+        <v>1</v>
+      </c>
       <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2293,7 +2315,9 @@
       <c r="AQ13" t="n">
         <v>7</v>
       </c>
-      <c r="AR13" t="inlineStr"/>
+      <c r="AR13" t="n">
+        <v>6</v>
+      </c>
       <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -2436,7 +2460,9 @@
       <c r="AQ14" t="n">
         <v>62</v>
       </c>
-      <c r="AR14" t="inlineStr"/>
+      <c r="AR14" t="n">
+        <v>60</v>
+      </c>
       <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2579,7 +2605,9 @@
       <c r="AQ15" t="n">
         <v>16</v>
       </c>
-      <c r="AR15" t="inlineStr"/>
+      <c r="AR15" t="n">
+        <v>16</v>
+      </c>
       <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -2722,7 +2750,9 @@
       <c r="AQ16" t="n">
         <v>22</v>
       </c>
-      <c r="AR16" t="inlineStr"/>
+      <c r="AR16" t="n">
+        <v>22</v>
+      </c>
       <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -2865,7 +2895,9 @@
       <c r="AQ17" t="n">
         <v>6</v>
       </c>
-      <c r="AR17" t="inlineStr"/>
+      <c r="AR17" t="n">
+        <v>6</v>
+      </c>
       <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3008,7 +3040,9 @@
       <c r="AQ18" t="n">
         <v>8</v>
       </c>
-      <c r="AR18" t="inlineStr"/>
+      <c r="AR18" t="n">
+        <v>8</v>
+      </c>
       <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3151,7 +3185,9 @@
       <c r="AQ19" t="n">
         <v>12</v>
       </c>
-      <c r="AR19" t="inlineStr"/>
+      <c r="AR19" t="n">
+        <v>12</v>
+      </c>
       <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3294,7 +3330,9 @@
       <c r="AQ20" t="n">
         <v>11</v>
       </c>
-      <c r="AR20" t="inlineStr"/>
+      <c r="AR20" t="n">
+        <v>11</v>
+      </c>
       <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3437,7 +3475,9 @@
       <c r="AQ21" t="n">
         <v>5</v>
       </c>
-      <c r="AR21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v>5</v>
+      </c>
       <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -3580,7 +3620,9 @@
       <c r="AQ22" t="n">
         <v>40</v>
       </c>
-      <c r="AR22" t="inlineStr"/>
+      <c r="AR22" t="n">
+        <v>40</v>
+      </c>
       <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3723,7 +3765,9 @@
       <c r="AQ23" t="n">
         <v>38</v>
       </c>
-      <c r="AR23" t="inlineStr"/>
+      <c r="AR23" t="n">
+        <v>38</v>
+      </c>
       <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3862,7 +3906,9 @@
       <c r="AQ24" t="n">
         <v>7</v>
       </c>
-      <c r="AR24" t="inlineStr"/>
+      <c r="AR24" t="n">
+        <v>4</v>
+      </c>
       <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -4005,7 +4051,9 @@
       <c r="AQ25" t="n">
         <v>28</v>
       </c>
-      <c r="AR25" t="inlineStr"/>
+      <c r="AR25" t="n">
+        <v>28</v>
+      </c>
       <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -4148,7 +4196,9 @@
       <c r="AQ26" t="n">
         <v>13</v>
       </c>
-      <c r="AR26" t="inlineStr"/>
+      <c r="AR26" t="n">
+        <v>10</v>
+      </c>
       <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -4291,7 +4341,9 @@
       <c r="AQ27" t="n">
         <v>5</v>
       </c>
-      <c r="AR27" t="inlineStr"/>
+      <c r="AR27" t="n">
+        <v>2</v>
+      </c>
       <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -4434,7 +4486,9 @@
       <c r="AQ28" t="n">
         <v>20</v>
       </c>
-      <c r="AR28" t="inlineStr"/>
+      <c r="AR28" t="n">
+        <v>20</v>
+      </c>
       <c r="AS28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -4577,7 +4631,9 @@
       <c r="AQ29" t="n">
         <v>40</v>
       </c>
-      <c r="AR29" t="inlineStr"/>
+      <c r="AR29" t="n">
+        <v>37</v>
+      </c>
       <c r="AS29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -4720,7 +4776,9 @@
       <c r="AQ30" t="n">
         <v>54</v>
       </c>
-      <c r="AR30" t="inlineStr"/>
+      <c r="AR30" t="n">
+        <v>54</v>
+      </c>
       <c r="AS30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -4863,7 +4921,9 @@
       <c r="AQ31" t="n">
         <v>43</v>
       </c>
-      <c r="AR31" t="inlineStr"/>
+      <c r="AR31" t="n">
+        <v>41</v>
+      </c>
       <c r="AS31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -5006,7 +5066,9 @@
       <c r="AQ32" t="n">
         <v>38</v>
       </c>
-      <c r="AR32" t="inlineStr"/>
+      <c r="AR32" t="n">
+        <v>38</v>
+      </c>
       <c r="AS32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -5149,7 +5211,9 @@
       <c r="AQ33" t="n">
         <v>15</v>
       </c>
-      <c r="AR33" t="inlineStr"/>
+      <c r="AR33" t="n">
+        <v>15</v>
+      </c>
       <c r="AS33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -5292,7 +5356,9 @@
       <c r="AQ34" t="n">
         <v>11</v>
       </c>
-      <c r="AR34" t="inlineStr"/>
+      <c r="AR34" t="n">
+        <v>10</v>
+      </c>
       <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -5435,7 +5501,9 @@
       <c r="AQ35" t="n">
         <v>12</v>
       </c>
-      <c r="AR35" t="inlineStr"/>
+      <c r="AR35" t="n">
+        <v>12</v>
+      </c>
       <c r="AS35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -5578,7 +5646,9 @@
       <c r="AQ36" t="n">
         <v>6</v>
       </c>
-      <c r="AR36" t="inlineStr"/>
+      <c r="AR36" t="n">
+        <v>6</v>
+      </c>
       <c r="AS36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -5721,7 +5791,9 @@
       <c r="AQ37" t="n">
         <v>26</v>
       </c>
-      <c r="AR37" t="inlineStr"/>
+      <c r="AR37" t="n">
+        <v>26</v>
+      </c>
       <c r="AS37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -5864,7 +5936,9 @@
       <c r="AQ38" t="n">
         <v>10</v>
       </c>
-      <c r="AR38" t="inlineStr"/>
+      <c r="AR38" t="n">
+        <v>7</v>
+      </c>
       <c r="AS38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -6007,7 +6081,9 @@
       <c r="AQ39" t="n">
         <v>11</v>
       </c>
-      <c r="AR39" t="inlineStr"/>
+      <c r="AR39" t="n">
+        <v>11</v>
+      </c>
       <c r="AS39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -6150,7 +6226,9 @@
       <c r="AQ40" t="n">
         <v>7</v>
       </c>
-      <c r="AR40" t="inlineStr"/>
+      <c r="AR40" t="n">
+        <v>6</v>
+      </c>
       <c r="AS40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -6293,7 +6371,9 @@
       <c r="AQ41" t="n">
         <v>5</v>
       </c>
-      <c r="AR41" t="inlineStr"/>
+      <c r="AR41" t="n">
+        <v>5</v>
+      </c>
       <c r="AS41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -6436,7 +6516,9 @@
       <c r="AQ42" t="n">
         <v>5</v>
       </c>
-      <c r="AR42" t="inlineStr"/>
+      <c r="AR42" t="n">
+        <v>5</v>
+      </c>
       <c r="AS42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -6579,7 +6661,9 @@
       <c r="AQ43" t="n">
         <v>10</v>
       </c>
-      <c r="AR43" t="inlineStr"/>
+      <c r="AR43" t="n">
+        <v>10</v>
+      </c>
       <c r="AS43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -6722,7 +6806,9 @@
       <c r="AQ44" t="n">
         <v>23</v>
       </c>
-      <c r="AR44" t="inlineStr"/>
+      <c r="AR44" t="n">
+        <v>23</v>
+      </c>
       <c r="AS44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -6865,7 +6951,9 @@
       <c r="AQ45" t="n">
         <v>45</v>
       </c>
-      <c r="AR45" t="inlineStr"/>
+      <c r="AR45" t="n">
+        <v>45</v>
+      </c>
       <c r="AS45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -7008,7 +7096,9 @@
       <c r="AQ46" t="n">
         <v>17</v>
       </c>
-      <c r="AR46" t="inlineStr"/>
+      <c r="AR46" t="n">
+        <v>17</v>
+      </c>
       <c r="AS46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -7151,7 +7241,9 @@
       <c r="AQ47" t="n">
         <v>3</v>
       </c>
-      <c r="AR47" t="inlineStr"/>
+      <c r="AR47" t="n">
+        <v>0</v>
+      </c>
       <c r="AS47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -7294,7 +7386,9 @@
       <c r="AQ48" t="n">
         <v>31</v>
       </c>
-      <c r="AR48" t="inlineStr"/>
+      <c r="AR48" t="n">
+        <v>31</v>
+      </c>
       <c r="AS48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -7437,7 +7531,9 @@
       <c r="AQ49" t="n">
         <v>18</v>
       </c>
-      <c r="AR49" t="inlineStr"/>
+      <c r="AR49" t="n">
+        <v>18</v>
+      </c>
       <c r="AS49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -7580,7 +7676,9 @@
       <c r="AQ50" t="n">
         <v>8</v>
       </c>
-      <c r="AR50" t="inlineStr"/>
+      <c r="AR50" t="n">
+        <v>8</v>
+      </c>
       <c r="AS50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -7723,7 +7821,9 @@
       <c r="AQ51" t="n">
         <v>29</v>
       </c>
-      <c r="AR51" t="inlineStr"/>
+      <c r="AR51" t="n">
+        <v>29</v>
+      </c>
       <c r="AS51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -7866,7 +7966,9 @@
       <c r="AQ52" t="n">
         <v>25</v>
       </c>
-      <c r="AR52" t="inlineStr"/>
+      <c r="AR52" t="n">
+        <v>25</v>
+      </c>
       <c r="AS52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -8009,7 +8111,9 @@
       <c r="AQ53" t="n">
         <v>28</v>
       </c>
-      <c r="AR53" t="inlineStr"/>
+      <c r="AR53" t="n">
+        <v>28</v>
+      </c>
       <c r="AS53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -8152,7 +8256,9 @@
       <c r="AQ54" t="n">
         <v>17</v>
       </c>
-      <c r="AR54" t="inlineStr"/>
+      <c r="AR54" t="n">
+        <v>17</v>
+      </c>
       <c r="AS54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -8295,7 +8401,9 @@
       <c r="AQ55" t="n">
         <v>25</v>
       </c>
-      <c r="AR55" t="inlineStr"/>
+      <c r="AR55" t="n">
+        <v>25</v>
+      </c>
       <c r="AS55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -8438,7 +8546,9 @@
       <c r="AQ56" t="n">
         <v>27</v>
       </c>
-      <c r="AR56" t="inlineStr"/>
+      <c r="AR56" t="n">
+        <v>27</v>
+      </c>
       <c r="AS56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -8581,7 +8691,9 @@
       <c r="AQ57" t="n">
         <v>8</v>
       </c>
-      <c r="AR57" t="inlineStr"/>
+      <c r="AR57" t="n">
+        <v>8</v>
+      </c>
       <c r="AS57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -8724,7 +8836,9 @@
       <c r="AQ58" t="n">
         <v>34</v>
       </c>
-      <c r="AR58" t="inlineStr"/>
+      <c r="AR58" t="n">
+        <v>34</v>
+      </c>
       <c r="AS58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -8867,7 +8981,9 @@
       <c r="AQ59" t="n">
         <v>26</v>
       </c>
-      <c r="AR59" t="inlineStr"/>
+      <c r="AR59" t="n">
+        <v>26</v>
+      </c>
       <c r="AS59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -9010,7 +9126,9 @@
       <c r="AQ60" t="n">
         <v>9</v>
       </c>
-      <c r="AR60" t="inlineStr"/>
+      <c r="AR60" t="n">
+        <v>7</v>
+      </c>
       <c r="AS60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -9153,7 +9271,9 @@
       <c r="AQ61" t="n">
         <v>24</v>
       </c>
-      <c r="AR61" t="inlineStr"/>
+      <c r="AR61" t="n">
+        <v>24</v>
+      </c>
       <c r="AS61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -9296,7 +9416,9 @@
       <c r="AQ62" t="n">
         <v>36</v>
       </c>
-      <c r="AR62" t="inlineStr"/>
+      <c r="AR62" t="n">
+        <v>36</v>
+      </c>
       <c r="AS62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -9439,7 +9561,9 @@
       <c r="AQ63" t="n">
         <v>23</v>
       </c>
-      <c r="AR63" t="inlineStr"/>
+      <c r="AR63" t="n">
+        <v>23</v>
+      </c>
       <c r="AS63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -9582,7 +9706,9 @@
       <c r="AQ64" t="n">
         <v>42</v>
       </c>
-      <c r="AR64" t="inlineStr"/>
+      <c r="AR64" t="n">
+        <v>42</v>
+      </c>
       <c r="AS64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -9725,7 +9851,9 @@
       <c r="AQ65" t="n">
         <v>33</v>
       </c>
-      <c r="AR65" t="inlineStr"/>
+      <c r="AR65" t="n">
+        <v>31</v>
+      </c>
       <c r="AS65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -9868,7 +9996,9 @@
       <c r="AQ66" t="n">
         <v>21</v>
       </c>
-      <c r="AR66" t="inlineStr"/>
+      <c r="AR66" t="n">
+        <v>21</v>
+      </c>
       <c r="AS66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -10011,7 +10141,9 @@
       <c r="AQ67" t="n">
         <v>27</v>
       </c>
-      <c r="AR67" t="inlineStr"/>
+      <c r="AR67" t="n">
+        <v>26</v>
+      </c>
       <c r="AS67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -10154,7 +10286,9 @@
       <c r="AQ68" t="n">
         <v>29</v>
       </c>
-      <c r="AR68" t="inlineStr"/>
+      <c r="AR68" t="n">
+        <v>29</v>
+      </c>
       <c r="AS68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -10297,7 +10431,9 @@
       <c r="AQ69" t="n">
         <v>31</v>
       </c>
-      <c r="AR69" t="inlineStr"/>
+      <c r="AR69" t="n">
+        <v>31</v>
+      </c>
       <c r="AS69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -10440,7 +10576,9 @@
       <c r="AQ70" t="n">
         <v>19</v>
       </c>
-      <c r="AR70" t="inlineStr"/>
+      <c r="AR70" t="n">
+        <v>19</v>
+      </c>
       <c r="AS70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -10583,7 +10721,9 @@
       <c r="AQ71" t="n">
         <v>27</v>
       </c>
-      <c r="AR71" t="inlineStr"/>
+      <c r="AR71" t="n">
+        <v>27</v>
+      </c>
       <c r="AS71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -10726,7 +10866,9 @@
       <c r="AQ72" t="n">
         <v>21</v>
       </c>
-      <c r="AR72" t="inlineStr"/>
+      <c r="AR72" t="n">
+        <v>21</v>
+      </c>
       <c r="AS72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -10869,7 +11011,9 @@
       <c r="AQ73" t="n">
         <v>20</v>
       </c>
-      <c r="AR73" t="inlineStr"/>
+      <c r="AR73" t="n">
+        <v>20</v>
+      </c>
       <c r="AS73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -11012,7 +11156,9 @@
       <c r="AQ74" t="n">
         <v>24</v>
       </c>
-      <c r="AR74" t="inlineStr"/>
+      <c r="AR74" t="n">
+        <v>24</v>
+      </c>
       <c r="AS74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -11155,7 +11301,9 @@
       <c r="AQ75" t="n">
         <v>10</v>
       </c>
-      <c r="AR75" t="inlineStr"/>
+      <c r="AR75" t="n">
+        <v>7</v>
+      </c>
       <c r="AS75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -11298,7 +11446,9 @@
       <c r="AQ76" t="n">
         <v>5</v>
       </c>
-      <c r="AR76" t="inlineStr"/>
+      <c r="AR76" t="n">
+        <v>5</v>
+      </c>
       <c r="AS76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -11441,7 +11591,9 @@
       <c r="AQ77" t="n">
         <v>16</v>
       </c>
-      <c r="AR77" t="inlineStr"/>
+      <c r="AR77" t="n">
+        <v>16</v>
+      </c>
       <c r="AS77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -11584,7 +11736,9 @@
       <c r="AQ78" t="n">
         <v>23</v>
       </c>
-      <c r="AR78" t="inlineStr"/>
+      <c r="AR78" t="n">
+        <v>23</v>
+      </c>
       <c r="AS78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -11727,7 +11881,9 @@
       <c r="AQ79" t="n">
         <v>1</v>
       </c>
-      <c r="AR79" t="inlineStr"/>
+      <c r="AR79" t="n">
+        <v>1</v>
+      </c>
       <c r="AS79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -11870,7 +12026,9 @@
       <c r="AQ80" t="n">
         <v>33</v>
       </c>
-      <c r="AR80" t="inlineStr"/>
+      <c r="AR80" t="n">
+        <v>33</v>
+      </c>
       <c r="AS80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -12013,7 +12171,9 @@
       <c r="AQ81" t="n">
         <v>26</v>
       </c>
-      <c r="AR81" t="inlineStr"/>
+      <c r="AR81" t="n">
+        <v>26</v>
+      </c>
       <c r="AS81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -12156,7 +12316,9 @@
       <c r="AQ82" t="n">
         <v>21</v>
       </c>
-      <c r="AR82" t="inlineStr"/>
+      <c r="AR82" t="n">
+        <v>21</v>
+      </c>
       <c r="AS82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -12299,7 +12461,9 @@
       <c r="AQ83" t="n">
         <v>22</v>
       </c>
-      <c r="AR83" t="inlineStr"/>
+      <c r="AR83" t="n">
+        <v>22</v>
+      </c>
       <c r="AS83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -12442,7 +12606,9 @@
       <c r="AQ84" t="n">
         <v>21</v>
       </c>
-      <c r="AR84" t="inlineStr"/>
+      <c r="AR84" t="n">
+        <v>21</v>
+      </c>
       <c r="AS84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -12585,7 +12751,9 @@
       <c r="AQ85" t="n">
         <v>27</v>
       </c>
-      <c r="AR85" t="inlineStr"/>
+      <c r="AR85" t="n">
+        <v>25</v>
+      </c>
       <c r="AS85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -12728,7 +12896,9 @@
       <c r="AQ86" t="n">
         <v>0</v>
       </c>
-      <c r="AR86" t="inlineStr"/>
+      <c r="AR86" t="n">
+        <v>0</v>
+      </c>
       <c r="AS86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -12871,7 +13041,9 @@
       <c r="AQ87" t="n">
         <v>23</v>
       </c>
-      <c r="AR87" t="inlineStr"/>
+      <c r="AR87" t="n">
+        <v>23</v>
+      </c>
       <c r="AS87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -13014,7 +13186,9 @@
       <c r="AQ88" t="n">
         <v>14</v>
       </c>
-      <c r="AR88" t="inlineStr"/>
+      <c r="AR88" t="n">
+        <v>14</v>
+      </c>
       <c r="AS88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -13157,7 +13331,9 @@
       <c r="AQ89" t="n">
         <v>15</v>
       </c>
-      <c r="AR89" t="inlineStr"/>
+      <c r="AR89" t="n">
+        <v>15</v>
+      </c>
       <c r="AS89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -13300,7 +13476,9 @@
       <c r="AQ90" t="n">
         <v>7</v>
       </c>
-      <c r="AR90" t="inlineStr"/>
+      <c r="AR90" t="n">
+        <v>7</v>
+      </c>
       <c r="AS90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -13443,7 +13621,9 @@
       <c r="AQ91" t="n">
         <v>7</v>
       </c>
-      <c r="AR91" t="inlineStr"/>
+      <c r="AR91" t="n">
+        <v>7</v>
+      </c>
       <c r="AS91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -13586,7 +13766,9 @@
       <c r="AQ92" t="n">
         <v>13</v>
       </c>
-      <c r="AR92" t="inlineStr"/>
+      <c r="AR92" t="n">
+        <v>13</v>
+      </c>
       <c r="AS92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -13729,7 +13911,9 @@
       <c r="AQ93" t="n">
         <v>-4</v>
       </c>
-      <c r="AR93" t="inlineStr"/>
+      <c r="AR93" t="n">
+        <v>-4</v>
+      </c>
       <c r="AS93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -13872,7 +14056,9 @@
       <c r="AQ94" t="n">
         <v>15</v>
       </c>
-      <c r="AR94" t="inlineStr"/>
+      <c r="AR94" t="n">
+        <v>15</v>
+      </c>
       <c r="AS94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -14015,7 +14201,9 @@
       <c r="AQ95" t="n">
         <v>15</v>
       </c>
-      <c r="AR95" t="inlineStr"/>
+      <c r="AR95" t="n">
+        <v>15</v>
+      </c>
       <c r="AS95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -14158,7 +14346,9 @@
       <c r="AQ96" t="n">
         <v>9</v>
       </c>
-      <c r="AR96" t="inlineStr"/>
+      <c r="AR96" t="n">
+        <v>9</v>
+      </c>
       <c r="AS96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -14301,7 +14491,9 @@
       <c r="AQ97" t="n">
         <v>11</v>
       </c>
-      <c r="AR97" t="inlineStr"/>
+      <c r="AR97" t="n">
+        <v>8</v>
+      </c>
       <c r="AS97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -14444,7 +14636,9 @@
       <c r="AQ98" t="n">
         <v>19</v>
       </c>
-      <c r="AR98" t="inlineStr"/>
+      <c r="AR98" t="n">
+        <v>16</v>
+      </c>
       <c r="AS98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -14587,7 +14781,9 @@
       <c r="AQ99" t="n">
         <v>6</v>
       </c>
-      <c r="AR99" t="inlineStr"/>
+      <c r="AR99" t="n">
+        <v>6</v>
+      </c>
       <c r="AS99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -14730,7 +14926,9 @@
       <c r="AQ100" t="n">
         <v>12</v>
       </c>
-      <c r="AR100" t="inlineStr"/>
+      <c r="AR100" t="n">
+        <v>12</v>
+      </c>
       <c r="AS100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -14873,7 +15071,9 @@
       <c r="AQ101" t="n">
         <v>9</v>
       </c>
-      <c r="AR101" t="inlineStr"/>
+      <c r="AR101" t="n">
+        <v>7</v>
+      </c>
       <c r="AS101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -15016,7 +15216,9 @@
       <c r="AQ102" t="n">
         <v>11</v>
       </c>
-      <c r="AR102" t="inlineStr"/>
+      <c r="AR102" t="n">
+        <v>11</v>
+      </c>
       <c r="AS102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -15159,7 +15361,9 @@
       <c r="AQ103" t="n">
         <v>14</v>
       </c>
-      <c r="AR103" t="inlineStr"/>
+      <c r="AR103" t="n">
+        <v>14</v>
+      </c>
       <c r="AS103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -15302,7 +15506,9 @@
       <c r="AQ104" t="n">
         <v>7</v>
       </c>
-      <c r="AR104" t="inlineStr"/>
+      <c r="AR104" t="n">
+        <v>7</v>
+      </c>
       <c r="AS104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -15445,7 +15651,9 @@
       <c r="AQ105" t="n">
         <v>1</v>
       </c>
-      <c r="AR105" t="inlineStr"/>
+      <c r="AR105" t="n">
+        <v>1</v>
+      </c>
       <c r="AS105" t="inlineStr"/>
     </row>
     <row r="106">
@@ -15588,7 +15796,9 @@
       <c r="AQ106" t="n">
         <v>16</v>
       </c>
-      <c r="AR106" t="inlineStr"/>
+      <c r="AR106" t="n">
+        <v>16</v>
+      </c>
       <c r="AS106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -15731,7 +15941,9 @@
       <c r="AQ107" t="n">
         <v>7</v>
       </c>
-      <c r="AR107" t="inlineStr"/>
+      <c r="AR107" t="n">
+        <v>7</v>
+      </c>
       <c r="AS107" t="inlineStr"/>
     </row>
     <row r="108">
@@ -15874,7 +16086,9 @@
       <c r="AQ108" t="n">
         <v>9</v>
       </c>
-      <c r="AR108" t="inlineStr"/>
+      <c r="AR108" t="n">
+        <v>9</v>
+      </c>
       <c r="AS108" t="inlineStr"/>
     </row>
     <row r="109">
@@ -16017,7 +16231,9 @@
       <c r="AQ109" t="n">
         <v>7</v>
       </c>
-      <c r="AR109" t="inlineStr"/>
+      <c r="AR109" t="n">
+        <v>6</v>
+      </c>
       <c r="AS109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -16160,7 +16376,9 @@
       <c r="AQ110" t="n">
         <v>11</v>
       </c>
-      <c r="AR110" t="inlineStr"/>
+      <c r="AR110" t="n">
+        <v>10</v>
+      </c>
       <c r="AS110" t="inlineStr"/>
     </row>
     <row r="111">
@@ -16303,7 +16521,9 @@
       <c r="AQ111" t="n">
         <v>13</v>
       </c>
-      <c r="AR111" t="inlineStr"/>
+      <c r="AR111" t="n">
+        <v>13</v>
+      </c>
       <c r="AS111" t="inlineStr"/>
     </row>
     <row r="112">
@@ -16446,7 +16666,9 @@
       <c r="AQ112" t="n">
         <v>15</v>
       </c>
-      <c r="AR112" t="inlineStr"/>
+      <c r="AR112" t="n">
+        <v>15</v>
+      </c>
       <c r="AS112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -16589,7 +16811,9 @@
       <c r="AQ113" t="n">
         <v>18</v>
       </c>
-      <c r="AR113" t="inlineStr"/>
+      <c r="AR113" t="n">
+        <v>18</v>
+      </c>
       <c r="AS113" t="inlineStr"/>
     </row>
     <row r="114">
@@ -16732,7 +16956,9 @@
       <c r="AQ114" t="n">
         <v>14</v>
       </c>
-      <c r="AR114" t="inlineStr"/>
+      <c r="AR114" t="n">
+        <v>14</v>
+      </c>
       <c r="AS114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -16875,7 +17101,9 @@
       <c r="AQ115" t="n">
         <v>12</v>
       </c>
-      <c r="AR115" t="inlineStr"/>
+      <c r="AR115" t="n">
+        <v>12</v>
+      </c>
       <c r="AS115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -17018,7 +17246,9 @@
       <c r="AQ116" t="n">
         <v>26</v>
       </c>
-      <c r="AR116" t="inlineStr"/>
+      <c r="AR116" t="n">
+        <v>26</v>
+      </c>
       <c r="AS116" t="inlineStr"/>
     </row>
     <row r="117">
@@ -17161,7 +17391,9 @@
       <c r="AQ117" t="n">
         <v>19</v>
       </c>
-      <c r="AR117" t="inlineStr"/>
+      <c r="AR117" t="n">
+        <v>19</v>
+      </c>
       <c r="AS117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -17304,7 +17536,9 @@
       <c r="AQ118" t="n">
         <v>-5</v>
       </c>
-      <c r="AR118" t="inlineStr"/>
+      <c r="AR118" t="n">
+        <v>-5</v>
+      </c>
       <c r="AS118" t="inlineStr"/>
     </row>
     <row r="119">
@@ -17447,7 +17681,9 @@
       <c r="AQ119" t="n">
         <v>18</v>
       </c>
-      <c r="AR119" t="inlineStr"/>
+      <c r="AR119" t="n">
+        <v>18</v>
+      </c>
       <c r="AS119" t="inlineStr"/>
     </row>
     <row r="120">
@@ -17590,7 +17826,9 @@
       <c r="AQ120" t="n">
         <v>7</v>
       </c>
-      <c r="AR120" t="inlineStr"/>
+      <c r="AR120" t="n">
+        <v>6</v>
+      </c>
       <c r="AS120" t="inlineStr"/>
     </row>
     <row r="121">
@@ -17733,7 +17971,9 @@
       <c r="AQ121" t="n">
         <v>20</v>
       </c>
-      <c r="AR121" t="inlineStr"/>
+      <c r="AR121" t="n">
+        <v>20</v>
+      </c>
       <c r="AS121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -17876,7 +18116,9 @@
       <c r="AQ122" t="n">
         <v>3</v>
       </c>
-      <c r="AR122" t="inlineStr"/>
+      <c r="AR122" t="n">
+        <v>3</v>
+      </c>
       <c r="AS122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -18019,7 +18261,9 @@
       <c r="AQ123" t="n">
         <v>13</v>
       </c>
-      <c r="AR123" t="inlineStr"/>
+      <c r="AR123" t="n">
+        <v>13</v>
+      </c>
       <c r="AS123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -18162,7 +18406,9 @@
       <c r="AQ124" t="n">
         <v>5</v>
       </c>
-      <c r="AR124" t="inlineStr"/>
+      <c r="AR124" t="n">
+        <v>5</v>
+      </c>
       <c r="AS124" t="inlineStr"/>
     </row>
     <row r="125">
@@ -18305,7 +18551,9 @@
       <c r="AQ125" t="n">
         <v>15</v>
       </c>
-      <c r="AR125" t="inlineStr"/>
+      <c r="AR125" t="n">
+        <v>15</v>
+      </c>
       <c r="AS125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -18448,7 +18696,9 @@
       <c r="AQ126" t="n">
         <v>2</v>
       </c>
-      <c r="AR126" t="inlineStr"/>
+      <c r="AR126" t="n">
+        <v>2</v>
+      </c>
       <c r="AS126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -18591,7 +18841,9 @@
       <c r="AQ127" t="n">
         <v>16</v>
       </c>
-      <c r="AR127" t="inlineStr"/>
+      <c r="AR127" t="n">
+        <v>16</v>
+      </c>
       <c r="AS127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -18734,7 +18986,9 @@
       <c r="AQ128" t="n">
         <v>10</v>
       </c>
-      <c r="AR128" t="inlineStr"/>
+      <c r="AR128" t="n">
+        <v>10</v>
+      </c>
       <c r="AS128" t="inlineStr"/>
     </row>
     <row r="129">
@@ -18877,7 +19131,9 @@
       <c r="AQ129" t="n">
         <v>0</v>
       </c>
-      <c r="AR129" t="inlineStr"/>
+      <c r="AR129" t="n">
+        <v>0</v>
+      </c>
       <c r="AS129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -19020,7 +19276,9 @@
       <c r="AQ130" t="n">
         <v>13</v>
       </c>
-      <c r="AR130" t="inlineStr"/>
+      <c r="AR130" t="n">
+        <v>12</v>
+      </c>
       <c r="AS130" t="inlineStr"/>
     </row>
     <row r="131">
@@ -19163,7 +19421,9 @@
       <c r="AQ131" t="n">
         <v>16</v>
       </c>
-      <c r="AR131" t="inlineStr"/>
+      <c r="AR131" t="n">
+        <v>16</v>
+      </c>
       <c r="AS131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -19306,7 +19566,9 @@
       <c r="AQ132" t="n">
         <v>4</v>
       </c>
-      <c r="AR132" t="inlineStr"/>
+      <c r="AR132" t="n">
+        <v>4</v>
+      </c>
       <c r="AS132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -19447,7 +19709,9 @@
       <c r="AQ133" t="n">
         <v>10</v>
       </c>
-      <c r="AR133" t="inlineStr"/>
+      <c r="AR133" t="n">
+        <v>9</v>
+      </c>
       <c r="AS133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -19588,7 +19852,9 @@
       <c r="AQ134" t="n">
         <v>-4</v>
       </c>
-      <c r="AR134" t="inlineStr"/>
+      <c r="AR134" t="n">
+        <v>-4</v>
+      </c>
       <c r="AS134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -19731,7 +19997,9 @@
       <c r="AQ135" t="n">
         <v>1</v>
       </c>
-      <c r="AR135" t="inlineStr"/>
+      <c r="AR135" t="n">
+        <v>0</v>
+      </c>
       <c r="AS135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -19872,7 +20140,9 @@
       <c r="AQ136" t="n">
         <v>13</v>
       </c>
-      <c r="AR136" t="inlineStr"/>
+      <c r="AR136" t="n">
+        <v>11</v>
+      </c>
       <c r="AS136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -20015,7 +20285,9 @@
       <c r="AQ137" t="n">
         <v>10</v>
       </c>
-      <c r="AR137" t="inlineStr"/>
+      <c r="AR137" t="n">
+        <v>10</v>
+      </c>
       <c r="AS137" t="inlineStr"/>
     </row>
     <row r="138">
@@ -20158,7 +20430,9 @@
       <c r="AQ138" t="n">
         <v>9</v>
       </c>
-      <c r="AR138" t="inlineStr"/>
+      <c r="AR138" t="n">
+        <v>9</v>
+      </c>
       <c r="AS138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -20299,7 +20573,9 @@
       <c r="AQ139" t="n">
         <v>4</v>
       </c>
-      <c r="AR139" t="inlineStr"/>
+      <c r="AR139" t="n">
+        <v>4</v>
+      </c>
       <c r="AS139" t="inlineStr"/>
     </row>
     <row r="140">
@@ -20440,7 +20716,9 @@
       <c r="AQ140" t="n">
         <v>6</v>
       </c>
-      <c r="AR140" t="inlineStr"/>
+      <c r="AR140" t="n">
+        <v>4</v>
+      </c>
       <c r="AS140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -20581,7 +20859,9 @@
       <c r="AQ141" t="n">
         <v>13</v>
       </c>
-      <c r="AR141" t="inlineStr"/>
+      <c r="AR141" t="n">
+        <v>13</v>
+      </c>
       <c r="AS141" t="inlineStr"/>
     </row>
     <row r="142">
@@ -20722,7 +21002,9 @@
       <c r="AQ142" t="n">
         <v>7</v>
       </c>
-      <c r="AR142" t="inlineStr"/>
+      <c r="AR142" t="n">
+        <v>7</v>
+      </c>
       <c r="AS142" t="inlineStr"/>
     </row>
     <row r="143">
@@ -20863,7 +21145,9 @@
       <c r="AQ143" t="n">
         <v>0</v>
       </c>
-      <c r="AR143" t="inlineStr"/>
+      <c r="AR143" t="n">
+        <v>0</v>
+      </c>
       <c r="AS143" t="inlineStr"/>
     </row>
     <row r="144">
@@ -21006,7 +21290,9 @@
       <c r="AQ144" t="n">
         <v>9</v>
       </c>
-      <c r="AR144" t="inlineStr"/>
+      <c r="AR144" t="n">
+        <v>9</v>
+      </c>
       <c r="AS144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -21149,7 +21435,9 @@
       <c r="AQ145" t="n">
         <v>12</v>
       </c>
-      <c r="AR145" t="inlineStr"/>
+      <c r="AR145" t="n">
+        <v>12</v>
+      </c>
       <c r="AS145" t="inlineStr"/>
     </row>
     <row r="146">
@@ -21292,7 +21580,9 @@
       <c r="AQ146" t="n">
         <v>10</v>
       </c>
-      <c r="AR146" t="inlineStr"/>
+      <c r="AR146" t="n">
+        <v>10</v>
+      </c>
       <c r="AS146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -21435,7 +21725,9 @@
       <c r="AQ147" t="n">
         <v>22</v>
       </c>
-      <c r="AR147" t="inlineStr"/>
+      <c r="AR147" t="n">
+        <v>22</v>
+      </c>
       <c r="AS147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -21578,7 +21870,9 @@
       <c r="AQ148" t="n">
         <v>21</v>
       </c>
-      <c r="AR148" t="inlineStr"/>
+      <c r="AR148" t="n">
+        <v>21</v>
+      </c>
       <c r="AS148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -21719,7 +22013,9 @@
       <c r="AQ149" t="n">
         <v>8</v>
       </c>
-      <c r="AR149" t="inlineStr"/>
+      <c r="AR149" t="n">
+        <v>8</v>
+      </c>
       <c r="AS149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -21862,7 +22158,9 @@
       <c r="AQ150" t="n">
         <v>2</v>
       </c>
-      <c r="AR150" t="inlineStr"/>
+      <c r="AR150" t="n">
+        <v>2</v>
+      </c>
       <c r="AS150" t="inlineStr"/>
     </row>
     <row r="151">
@@ -22005,7 +22303,9 @@
       <c r="AQ151" t="n">
         <v>7</v>
       </c>
-      <c r="AR151" t="inlineStr"/>
+      <c r="AR151" t="n">
+        <v>4</v>
+      </c>
       <c r="AS151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -22148,7 +22448,9 @@
       <c r="AQ152" t="n">
         <v>5</v>
       </c>
-      <c r="AR152" t="inlineStr"/>
+      <c r="AR152" t="n">
+        <v>5</v>
+      </c>
       <c r="AS152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -22289,7 +22591,9 @@
       <c r="AQ153" t="n">
         <v>10</v>
       </c>
-      <c r="AR153" t="inlineStr"/>
+      <c r="AR153" t="n">
+        <v>10</v>
+      </c>
       <c r="AS153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -22432,7 +22736,9 @@
       <c r="AQ154" t="n">
         <v>16</v>
       </c>
-      <c r="AR154" t="inlineStr"/>
+      <c r="AR154" t="n">
+        <v>16</v>
+      </c>
       <c r="AS154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -22575,7 +22881,9 @@
       <c r="AQ155" t="n">
         <v>18</v>
       </c>
-      <c r="AR155" t="inlineStr"/>
+      <c r="AR155" t="n">
+        <v>18</v>
+      </c>
       <c r="AS155" t="inlineStr"/>
     </row>
     <row r="156">
@@ -22718,7 +23026,9 @@
       <c r="AQ156" t="n">
         <v>2</v>
       </c>
-      <c r="AR156" t="inlineStr"/>
+      <c r="AR156" t="n">
+        <v>2</v>
+      </c>
       <c r="AS156" t="inlineStr"/>
     </row>
     <row r="157">
@@ -22861,7 +23171,9 @@
       <c r="AQ157" t="n">
         <v>16</v>
       </c>
-      <c r="AR157" t="inlineStr"/>
+      <c r="AR157" t="n">
+        <v>16</v>
+      </c>
       <c r="AS157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -23004,7 +23316,9 @@
       <c r="AQ158" t="n">
         <v>21</v>
       </c>
-      <c r="AR158" t="inlineStr"/>
+      <c r="AR158" t="n">
+        <v>21</v>
+      </c>
       <c r="AS158" t="inlineStr"/>
     </row>
     <row r="159">
@@ -23145,7 +23459,9 @@
       <c r="AQ159" t="n">
         <v>3</v>
       </c>
-      <c r="AR159" t="inlineStr"/>
+      <c r="AR159" t="n">
+        <v>3</v>
+      </c>
       <c r="AS159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -23286,7 +23602,9 @@
       <c r="AQ160" t="n">
         <v>25</v>
       </c>
-      <c r="AR160" t="inlineStr"/>
+      <c r="AR160" t="n">
+        <v>25</v>
+      </c>
       <c r="AS160" t="inlineStr"/>
     </row>
     <row r="161">
@@ -23427,7 +23745,9 @@
       <c r="AQ161" t="n">
         <v>6</v>
       </c>
-      <c r="AR161" t="inlineStr"/>
+      <c r="AR161" t="n">
+        <v>6</v>
+      </c>
       <c r="AS161" t="inlineStr"/>
     </row>
     <row r="162">
@@ -23568,7 +23888,9 @@
       <c r="AQ162" t="n">
         <v>18</v>
       </c>
-      <c r="AR162" t="inlineStr"/>
+      <c r="AR162" t="n">
+        <v>18</v>
+      </c>
       <c r="AS162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -23711,7 +24033,9 @@
       <c r="AQ163" t="n">
         <v>9</v>
       </c>
-      <c r="AR163" t="inlineStr"/>
+      <c r="AR163" t="n">
+        <v>9</v>
+      </c>
       <c r="AS163" t="inlineStr"/>
     </row>
     <row r="164">
@@ -23854,7 +24178,9 @@
       <c r="AQ164" t="n">
         <v>8</v>
       </c>
-      <c r="AR164" t="inlineStr"/>
+      <c r="AR164" t="n">
+        <v>7</v>
+      </c>
       <c r="AS164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -23997,7 +24323,9 @@
       <c r="AQ165" t="n">
         <v>20</v>
       </c>
-      <c r="AR165" t="inlineStr"/>
+      <c r="AR165" t="n">
+        <v>20</v>
+      </c>
       <c r="AS165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -24140,7 +24468,9 @@
       <c r="AQ166" t="n">
         <v>9</v>
       </c>
-      <c r="AR166" t="inlineStr"/>
+      <c r="AR166" t="n">
+        <v>9</v>
+      </c>
       <c r="AS166" t="inlineStr"/>
     </row>
     <row r="167">
@@ -24283,7 +24613,9 @@
       <c r="AQ167" t="n">
         <v>11</v>
       </c>
-      <c r="AR167" t="inlineStr"/>
+      <c r="AR167" t="n">
+        <v>8</v>
+      </c>
       <c r="AS167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -24426,7 +24758,9 @@
       <c r="AQ168" t="n">
         <v>18</v>
       </c>
-      <c r="AR168" t="inlineStr"/>
+      <c r="AR168" t="n">
+        <v>18</v>
+      </c>
       <c r="AS168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -24567,7 +24901,9 @@
       <c r="AQ169" t="n">
         <v>21</v>
       </c>
-      <c r="AR169" t="inlineStr"/>
+      <c r="AR169" t="n">
+        <v>21</v>
+      </c>
       <c r="AS169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -24706,7 +25042,9 @@
       <c r="AQ170" t="n">
         <v>1253</v>
       </c>
-      <c r="AR170" t="inlineStr"/>
+      <c r="AR170" t="n">
+        <v>1253</v>
+      </c>
       <c r="AS170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -24845,7 +25183,9 @@
       <c r="AQ171" t="n">
         <v>424</v>
       </c>
-      <c r="AR171" t="inlineStr"/>
+      <c r="AR171" t="n">
+        <v>423</v>
+      </c>
       <c r="AS171" t="inlineStr"/>
     </row>
     <row r="172">
@@ -24986,7 +25326,9 @@
       <c r="AQ172" t="n">
         <v>3</v>
       </c>
-      <c r="AR172" t="inlineStr"/>
+      <c r="AR172" t="n">
+        <v>3</v>
+      </c>
       <c r="AS172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -25129,7 +25471,9 @@
       <c r="AQ173" t="n">
         <v>22</v>
       </c>
-      <c r="AR173" t="inlineStr"/>
+      <c r="AR173" t="n">
+        <v>22</v>
+      </c>
       <c r="AS173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -25272,7 +25616,9 @@
       <c r="AQ174" t="n">
         <v>21</v>
       </c>
-      <c r="AR174" t="inlineStr"/>
+      <c r="AR174" t="n">
+        <v>21</v>
+      </c>
       <c r="AS174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -25415,7 +25761,9 @@
       <c r="AQ175" t="n">
         <v>-1</v>
       </c>
-      <c r="AR175" t="inlineStr"/>
+      <c r="AR175" t="n">
+        <v>-1</v>
+      </c>
       <c r="AS175" t="inlineStr"/>
     </row>
     <row r="176">
@@ -25558,7 +25906,9 @@
       <c r="AQ176" t="n">
         <v>10</v>
       </c>
-      <c r="AR176" t="inlineStr"/>
+      <c r="AR176" t="n">
+        <v>10</v>
+      </c>
       <c r="AS176" t="inlineStr"/>
     </row>
     <row r="177">
@@ -25701,7 +26051,9 @@
       <c r="AQ177" t="n">
         <v>14</v>
       </c>
-      <c r="AR177" t="inlineStr"/>
+      <c r="AR177" t="n">
+        <v>13</v>
+      </c>
       <c r="AS177" t="inlineStr"/>
     </row>
     <row r="178">
@@ -25844,7 +26196,9 @@
       <c r="AQ178" t="n">
         <v>12</v>
       </c>
-      <c r="AR178" t="inlineStr"/>
+      <c r="AR178" t="n">
+        <v>12</v>
+      </c>
       <c r="AS178" t="inlineStr"/>
     </row>
     <row r="179">
@@ -25987,7 +26341,9 @@
       <c r="AQ179" t="n">
         <v>8</v>
       </c>
-      <c r="AR179" t="inlineStr"/>
+      <c r="AR179" t="n">
+        <v>8</v>
+      </c>
       <c r="AS179" t="inlineStr"/>
     </row>
     <row r="180">
@@ -26130,7 +26486,9 @@
       <c r="AQ180" t="n">
         <v>20</v>
       </c>
-      <c r="AR180" t="inlineStr"/>
+      <c r="AR180" t="n">
+        <v>20</v>
+      </c>
       <c r="AS180" t="inlineStr"/>
     </row>
     <row r="181">
@@ -26273,7 +26631,9 @@
       <c r="AQ181" t="n">
         <v>24</v>
       </c>
-      <c r="AR181" t="inlineStr"/>
+      <c r="AR181" t="n">
+        <v>24</v>
+      </c>
       <c r="AS181" t="inlineStr"/>
     </row>
     <row r="182">
@@ -26416,7 +26776,9 @@
       <c r="AQ182" t="n">
         <v>25</v>
       </c>
-      <c r="AR182" t="inlineStr"/>
+      <c r="AR182" t="n">
+        <v>25</v>
+      </c>
       <c r="AS182" t="inlineStr"/>
     </row>
     <row r="183">
@@ -26559,7 +26921,9 @@
       <c r="AQ183" t="n">
         <v>17</v>
       </c>
-      <c r="AR183" t="inlineStr"/>
+      <c r="AR183" t="n">
+        <v>17</v>
+      </c>
       <c r="AS183" t="inlineStr"/>
     </row>
     <row r="184">
@@ -26702,7 +27066,9 @@
       <c r="AQ184" t="n">
         <v>16</v>
       </c>
-      <c r="AR184" t="inlineStr"/>
+      <c r="AR184" t="n">
+        <v>16</v>
+      </c>
       <c r="AS184" t="inlineStr"/>
     </row>
     <row r="185">
@@ -26845,7 +27211,9 @@
       <c r="AQ185" t="n">
         <v>12</v>
       </c>
-      <c r="AR185" t="inlineStr"/>
+      <c r="AR185" t="n">
+        <v>12</v>
+      </c>
       <c r="AS185" t="inlineStr"/>
     </row>
     <row r="186">
@@ -26988,7 +27356,9 @@
       <c r="AQ186" t="n">
         <v>22</v>
       </c>
-      <c r="AR186" t="inlineStr"/>
+      <c r="AR186" t="n">
+        <v>22</v>
+      </c>
       <c r="AS186" t="inlineStr"/>
     </row>
     <row r="187">
@@ -27131,7 +27501,9 @@
       <c r="AQ187" t="n">
         <v>4</v>
       </c>
-      <c r="AR187" t="inlineStr"/>
+      <c r="AR187" t="n">
+        <v>4</v>
+      </c>
       <c r="AS187" t="inlineStr"/>
     </row>
     <row r="188">
@@ -27274,7 +27646,9 @@
       <c r="AQ188" t="n">
         <v>25</v>
       </c>
-      <c r="AR188" t="inlineStr"/>
+      <c r="AR188" t="n">
+        <v>25</v>
+      </c>
       <c r="AS188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -27415,7 +27789,9 @@
       <c r="AQ189" t="n">
         <v>15</v>
       </c>
-      <c r="AR189" t="inlineStr"/>
+      <c r="AR189" t="n">
+        <v>14</v>
+      </c>
       <c r="AS189" t="inlineStr"/>
     </row>
     <row r="190">
@@ -27558,7 +27934,9 @@
       <c r="AQ190" t="n">
         <v>11</v>
       </c>
-      <c r="AR190" t="inlineStr"/>
+      <c r="AR190" t="n">
+        <v>11</v>
+      </c>
       <c r="AS190" t="inlineStr"/>
     </row>
     <row r="191">
@@ -27701,7 +28079,9 @@
       <c r="AQ191" t="n">
         <v>-7</v>
       </c>
-      <c r="AR191" t="inlineStr"/>
+      <c r="AR191" t="n">
+        <v>-10</v>
+      </c>
       <c r="AS191" t="inlineStr"/>
     </row>
     <row r="192">
@@ -27844,7 +28224,9 @@
       <c r="AQ192" t="n">
         <v>13</v>
       </c>
-      <c r="AR192" t="inlineStr"/>
+      <c r="AR192" t="n">
+        <v>13</v>
+      </c>
       <c r="AS192" t="inlineStr"/>
     </row>
     <row r="193">
@@ -27987,7 +28369,9 @@
       <c r="AQ193" t="n">
         <v>21</v>
       </c>
-      <c r="AR193" t="inlineStr"/>
+      <c r="AR193" t="n">
+        <v>20</v>
+      </c>
       <c r="AS193" t="inlineStr"/>
     </row>
     <row r="194">
@@ -28130,7 +28514,9 @@
       <c r="AQ194" t="n">
         <v>6</v>
       </c>
-      <c r="AR194" t="inlineStr"/>
+      <c r="AR194" t="n">
+        <v>6</v>
+      </c>
       <c r="AS194" t="inlineStr"/>
     </row>
     <row r="195">
@@ -28273,7 +28659,9 @@
       <c r="AQ195" t="n">
         <v>13</v>
       </c>
-      <c r="AR195" t="inlineStr"/>
+      <c r="AR195" t="n">
+        <v>13</v>
+      </c>
       <c r="AS195" t="inlineStr"/>
     </row>
     <row r="196">
@@ -28416,7 +28804,9 @@
       <c r="AQ196" t="n">
         <v>1</v>
       </c>
-      <c r="AR196" t="inlineStr"/>
+      <c r="AR196" t="n">
+        <v>1</v>
+      </c>
       <c r="AS196" t="inlineStr"/>
     </row>
     <row r="197">
@@ -28559,7 +28949,9 @@
       <c r="AQ197" t="n">
         <v>16</v>
       </c>
-      <c r="AR197" t="inlineStr"/>
+      <c r="AR197" t="n">
+        <v>16</v>
+      </c>
       <c r="AS197" t="inlineStr"/>
     </row>
     <row r="198">
@@ -28702,7 +29094,9 @@
       <c r="AQ198" t="n">
         <v>34</v>
       </c>
-      <c r="AR198" t="inlineStr"/>
+      <c r="AR198" t="n">
+        <v>34</v>
+      </c>
       <c r="AS198" t="inlineStr"/>
     </row>
     <row r="199">
@@ -28845,7 +29239,9 @@
       <c r="AQ199" t="n">
         <v>10</v>
       </c>
-      <c r="AR199" t="inlineStr"/>
+      <c r="AR199" t="n">
+        <v>10</v>
+      </c>
       <c r="AS199" t="inlineStr"/>
     </row>
     <row r="200">
@@ -28988,7 +29384,9 @@
       <c r="AQ200" t="n">
         <v>15</v>
       </c>
-      <c r="AR200" t="inlineStr"/>
+      <c r="AR200" t="n">
+        <v>15</v>
+      </c>
       <c r="AS200" t="inlineStr"/>
     </row>
     <row r="201">
@@ -29131,7 +29529,9 @@
       <c r="AQ201" t="n">
         <v>5</v>
       </c>
-      <c r="AR201" t="inlineStr"/>
+      <c r="AR201" t="n">
+        <v>5</v>
+      </c>
       <c r="AS201" t="inlineStr"/>
     </row>
     <row r="202">
@@ -29274,7 +29674,9 @@
       <c r="AQ202" t="n">
         <v>20</v>
       </c>
-      <c r="AR202" t="inlineStr"/>
+      <c r="AR202" t="n">
+        <v>20</v>
+      </c>
       <c r="AS202" t="inlineStr"/>
     </row>
     <row r="203">
@@ -29417,7 +29819,9 @@
       <c r="AQ203" t="n">
         <v>6</v>
       </c>
-      <c r="AR203" t="inlineStr"/>
+      <c r="AR203" t="n">
+        <v>6</v>
+      </c>
       <c r="AS203" t="inlineStr"/>
     </row>
     <row r="204">
@@ -29560,7 +29964,9 @@
       <c r="AQ204" t="n">
         <v>12</v>
       </c>
-      <c r="AR204" t="inlineStr"/>
+      <c r="AR204" t="n">
+        <v>12</v>
+      </c>
       <c r="AS204" t="inlineStr"/>
     </row>
     <row r="205">
@@ -29703,7 +30109,9 @@
       <c r="AQ205" t="n">
         <v>20</v>
       </c>
-      <c r="AR205" t="inlineStr"/>
+      <c r="AR205" t="n">
+        <v>20</v>
+      </c>
       <c r="AS205" t="inlineStr"/>
     </row>
     <row r="206">
@@ -29846,7 +30254,9 @@
       <c r="AQ206" t="n">
         <v>11</v>
       </c>
-      <c r="AR206" t="inlineStr"/>
+      <c r="AR206" t="n">
+        <v>11</v>
+      </c>
       <c r="AS206" t="inlineStr"/>
     </row>
     <row r="207">
@@ -29989,7 +30399,9 @@
       <c r="AQ207" t="n">
         <v>13</v>
       </c>
-      <c r="AR207" t="inlineStr"/>
+      <c r="AR207" t="n">
+        <v>10</v>
+      </c>
       <c r="AS207" t="inlineStr"/>
     </row>
     <row r="208">
@@ -30132,7 +30544,9 @@
       <c r="AQ208" t="n">
         <v>19</v>
       </c>
-      <c r="AR208" t="inlineStr"/>
+      <c r="AR208" t="n">
+        <v>19</v>
+      </c>
       <c r="AS208" t="inlineStr"/>
     </row>
     <row r="209">
@@ -30275,7 +30689,9 @@
       <c r="AQ209" t="n">
         <v>18</v>
       </c>
-      <c r="AR209" t="inlineStr"/>
+      <c r="AR209" t="n">
+        <v>16</v>
+      </c>
       <c r="AS209" t="inlineStr"/>
     </row>
     <row r="210">
@@ -30418,7 +30834,9 @@
       <c r="AQ210" t="n">
         <v>13</v>
       </c>
-      <c r="AR210" t="inlineStr"/>
+      <c r="AR210" t="n">
+        <v>10</v>
+      </c>
       <c r="AS210" t="inlineStr"/>
     </row>
     <row r="211">
@@ -30561,7 +30979,9 @@
       <c r="AQ211" t="n">
         <v>25</v>
       </c>
-      <c r="AR211" t="inlineStr"/>
+      <c r="AR211" t="n">
+        <v>25</v>
+      </c>
       <c r="AS211" t="inlineStr"/>
     </row>
     <row r="212">
@@ -30704,7 +31124,9 @@
       <c r="AQ212" t="n">
         <v>16</v>
       </c>
-      <c r="AR212" t="inlineStr"/>
+      <c r="AR212" t="n">
+        <v>16</v>
+      </c>
       <c r="AS212" t="inlineStr"/>
     </row>
     <row r="213">
@@ -30847,7 +31269,9 @@
       <c r="AQ213" t="n">
         <v>9</v>
       </c>
-      <c r="AR213" t="inlineStr"/>
+      <c r="AR213" t="n">
+        <v>9</v>
+      </c>
       <c r="AS213" t="inlineStr"/>
     </row>
     <row r="214">
@@ -30990,7 +31414,9 @@
       <c r="AQ214" t="n">
         <v>22</v>
       </c>
-      <c r="AR214" t="inlineStr"/>
+      <c r="AR214" t="n">
+        <v>20</v>
+      </c>
       <c r="AS214" t="inlineStr"/>
     </row>
     <row r="215">
@@ -31133,7 +31559,9 @@
       <c r="AQ215" t="n">
         <v>1</v>
       </c>
-      <c r="AR215" t="inlineStr"/>
+      <c r="AR215" t="n">
+        <v>1</v>
+      </c>
       <c r="AS215" t="inlineStr"/>
     </row>
     <row r="216">
@@ -31276,7 +31704,9 @@
       <c r="AQ216" t="n">
         <v>6</v>
       </c>
-      <c r="AR216" t="inlineStr"/>
+      <c r="AR216" t="n">
+        <v>3</v>
+      </c>
       <c r="AS216" t="inlineStr"/>
     </row>
     <row r="217">
@@ -31419,7 +31849,9 @@
       <c r="AQ217" t="n">
         <v>14</v>
       </c>
-      <c r="AR217" t="inlineStr"/>
+      <c r="AR217" t="n">
+        <v>14</v>
+      </c>
       <c r="AS217" t="inlineStr"/>
     </row>
     <row r="218">
@@ -31562,7 +31994,9 @@
       <c r="AQ218" t="n">
         <v>22</v>
       </c>
-      <c r="AR218" t="inlineStr"/>
+      <c r="AR218" t="n">
+        <v>22</v>
+      </c>
       <c r="AS218" t="inlineStr"/>
     </row>
     <row r="219">
@@ -31705,7 +32139,9 @@
       <c r="AQ219" t="n">
         <v>14</v>
       </c>
-      <c r="AR219" t="inlineStr"/>
+      <c r="AR219" t="n">
+        <v>14</v>
+      </c>
       <c r="AS219" t="inlineStr"/>
     </row>
     <row r="220">
@@ -31848,7 +32284,9 @@
       <c r="AQ220" t="n">
         <v>15</v>
       </c>
-      <c r="AR220" t="inlineStr"/>
+      <c r="AR220" t="n">
+        <v>15</v>
+      </c>
       <c r="AS220" t="inlineStr"/>
     </row>
     <row r="221">
@@ -31991,7 +32429,9 @@
       <c r="AQ221" t="n">
         <v>14</v>
       </c>
-      <c r="AR221" t="inlineStr"/>
+      <c r="AR221" t="n">
+        <v>14</v>
+      </c>
       <c r="AS221" t="inlineStr"/>
     </row>
     <row r="222">
@@ -32134,7 +32574,9 @@
       <c r="AQ222" t="n">
         <v>7</v>
       </c>
-      <c r="AR222" t="inlineStr"/>
+      <c r="AR222" t="n">
+        <v>7</v>
+      </c>
       <c r="AS222" t="inlineStr"/>
     </row>
     <row r="223">
@@ -32277,7 +32719,9 @@
       <c r="AQ223" t="n">
         <v>19</v>
       </c>
-      <c r="AR223" t="inlineStr"/>
+      <c r="AR223" t="n">
+        <v>19</v>
+      </c>
       <c r="AS223" t="inlineStr"/>
     </row>
     <row r="224">
@@ -32420,7 +32864,9 @@
       <c r="AQ224" t="n">
         <v>0</v>
       </c>
-      <c r="AR224" t="inlineStr"/>
+      <c r="AR224" t="n">
+        <v>0</v>
+      </c>
       <c r="AS224" t="inlineStr"/>
     </row>
     <row r="225">
@@ -32563,7 +33009,9 @@
       <c r="AQ225" t="n">
         <v>17</v>
       </c>
-      <c r="AR225" t="inlineStr"/>
+      <c r="AR225" t="n">
+        <v>17</v>
+      </c>
       <c r="AS225" t="inlineStr"/>
     </row>
     <row r="226">
@@ -32706,7 +33154,9 @@
       <c r="AQ226" t="n">
         <v>11</v>
       </c>
-      <c r="AR226" t="inlineStr"/>
+      <c r="AR226" t="n">
+        <v>11</v>
+      </c>
       <c r="AS226" t="inlineStr"/>
     </row>
     <row r="227">
@@ -32849,7 +33299,9 @@
       <c r="AQ227" t="n">
         <v>0</v>
       </c>
-      <c r="AR227" t="inlineStr"/>
+      <c r="AR227" t="n">
+        <v>0</v>
+      </c>
       <c r="AS227" t="inlineStr"/>
     </row>
     <row r="228">
@@ -32992,7 +33444,9 @@
       <c r="AQ228" t="n">
         <v>14</v>
       </c>
-      <c r="AR228" t="inlineStr"/>
+      <c r="AR228" t="n">
+        <v>13</v>
+      </c>
       <c r="AS228" t="inlineStr"/>
     </row>
     <row r="229">
@@ -33135,7 +33589,9 @@
       <c r="AQ229" t="n">
         <v>16</v>
       </c>
-      <c r="AR229" t="inlineStr"/>
+      <c r="AR229" t="n">
+        <v>16</v>
+      </c>
       <c r="AS229" t="inlineStr"/>
     </row>
     <row r="230">
@@ -33278,7 +33734,9 @@
       <c r="AQ230" t="n">
         <v>14</v>
       </c>
-      <c r="AR230" t="inlineStr"/>
+      <c r="AR230" t="n">
+        <v>13</v>
+      </c>
       <c r="AS230" t="inlineStr"/>
     </row>
     <row r="231">
@@ -33421,7 +33879,9 @@
       <c r="AQ231" t="n">
         <v>14</v>
       </c>
-      <c r="AR231" t="inlineStr"/>
+      <c r="AR231" t="n">
+        <v>14</v>
+      </c>
       <c r="AS231" t="inlineStr"/>
     </row>
     <row r="232">
@@ -33564,7 +34024,9 @@
       <c r="AQ232" t="n">
         <v>3</v>
       </c>
-      <c r="AR232" t="inlineStr"/>
+      <c r="AR232" t="n">
+        <v>3</v>
+      </c>
       <c r="AS232" t="inlineStr"/>
     </row>
     <row r="233">
@@ -33707,7 +34169,9 @@
       <c r="AQ233" t="n">
         <v>15</v>
       </c>
-      <c r="AR233" t="inlineStr"/>
+      <c r="AR233" t="n">
+        <v>15</v>
+      </c>
       <c r="AS233" t="inlineStr"/>
     </row>
     <row r="234">
@@ -33850,7 +34314,9 @@
       <c r="AQ234" t="n">
         <v>12</v>
       </c>
-      <c r="AR234" t="inlineStr"/>
+      <c r="AR234" t="n">
+        <v>10</v>
+      </c>
       <c r="AS234" t="inlineStr"/>
     </row>
     <row r="235">
@@ -33993,7 +34459,9 @@
       <c r="AQ235" t="n">
         <v>16</v>
       </c>
-      <c r="AR235" t="inlineStr"/>
+      <c r="AR235" t="n">
+        <v>16</v>
+      </c>
       <c r="AS235" t="inlineStr"/>
     </row>
     <row r="236">
@@ -34136,7 +34604,9 @@
       <c r="AQ236" t="n">
         <v>5</v>
       </c>
-      <c r="AR236" t="inlineStr"/>
+      <c r="AR236" t="n">
+        <v>5</v>
+      </c>
       <c r="AS236" t="inlineStr"/>
     </row>
     <row r="237">
@@ -34279,7 +34749,9 @@
       <c r="AQ237" t="n">
         <v>9</v>
       </c>
-      <c r="AR237" t="inlineStr"/>
+      <c r="AR237" t="n">
+        <v>9</v>
+      </c>
       <c r="AS237" t="inlineStr"/>
     </row>
     <row r="238">
@@ -34422,7 +34894,9 @@
       <c r="AQ238" t="n">
         <v>18</v>
       </c>
-      <c r="AR238" t="inlineStr"/>
+      <c r="AR238" t="n">
+        <v>18</v>
+      </c>
       <c r="AS238" t="inlineStr"/>
     </row>
     <row r="239">
@@ -34565,7 +35039,9 @@
       <c r="AQ239" t="n">
         <v>29</v>
       </c>
-      <c r="AR239" t="inlineStr"/>
+      <c r="AR239" t="n">
+        <v>28</v>
+      </c>
       <c r="AS239" t="inlineStr"/>
     </row>
     <row r="240">
@@ -34708,7 +35184,9 @@
       <c r="AQ240" t="n">
         <v>23</v>
       </c>
-      <c r="AR240" t="inlineStr"/>
+      <c r="AR240" t="n">
+        <v>23</v>
+      </c>
       <c r="AS240" t="inlineStr"/>
     </row>
     <row r="241">
@@ -34851,7 +35329,9 @@
       <c r="AQ241" t="n">
         <v>7</v>
       </c>
-      <c r="AR241" t="inlineStr"/>
+      <c r="AR241" t="n">
+        <v>5</v>
+      </c>
       <c r="AS241" t="inlineStr"/>
     </row>
     <row r="242">
@@ -34994,7 +35474,9 @@
       <c r="AQ242" t="n">
         <v>21</v>
       </c>
-      <c r="AR242" t="inlineStr"/>
+      <c r="AR242" t="n">
+        <v>21</v>
+      </c>
       <c r="AS242" t="inlineStr"/>
     </row>
     <row r="243">
@@ -35137,7 +35619,9 @@
       <c r="AQ243" t="n">
         <v>21</v>
       </c>
-      <c r="AR243" t="inlineStr"/>
+      <c r="AR243" t="n">
+        <v>21</v>
+      </c>
       <c r="AS243" t="inlineStr"/>
     </row>
     <row r="244">
@@ -35280,7 +35764,9 @@
       <c r="AQ244" t="n">
         <v>20</v>
       </c>
-      <c r="AR244" t="inlineStr"/>
+      <c r="AR244" t="n">
+        <v>20</v>
+      </c>
       <c r="AS244" t="inlineStr"/>
     </row>
     <row r="245">
@@ -35423,7 +35909,9 @@
       <c r="AQ245" t="n">
         <v>23</v>
       </c>
-      <c r="AR245" t="inlineStr"/>
+      <c r="AR245" t="n">
+        <v>23</v>
+      </c>
       <c r="AS245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -35566,7 +36054,9 @@
       <c r="AQ246" t="n">
         <v>10</v>
       </c>
-      <c r="AR246" t="inlineStr"/>
+      <c r="AR246" t="n">
+        <v>10</v>
+      </c>
       <c r="AS246" t="inlineStr"/>
     </row>
     <row r="247">
@@ -35709,7 +36199,9 @@
       <c r="AQ247" t="n">
         <v>18</v>
       </c>
-      <c r="AR247" t="inlineStr"/>
+      <c r="AR247" t="n">
+        <v>17</v>
+      </c>
       <c r="AS247" t="inlineStr"/>
     </row>
     <row r="248">
@@ -35852,7 +36344,9 @@
       <c r="AQ248" t="n">
         <v>11</v>
       </c>
-      <c r="AR248" t="inlineStr"/>
+      <c r="AR248" t="n">
+        <v>11</v>
+      </c>
       <c r="AS248" t="inlineStr"/>
     </row>
     <row r="249">
@@ -35995,7 +36489,9 @@
       <c r="AQ249" t="n">
         <v>19</v>
       </c>
-      <c r="AR249" t="inlineStr"/>
+      <c r="AR249" t="n">
+        <v>17</v>
+      </c>
       <c r="AS249" t="inlineStr"/>
     </row>
     <row r="250">
@@ -36138,7 +36634,9 @@
       <c r="AQ250" t="n">
         <v>24</v>
       </c>
-      <c r="AR250" t="inlineStr"/>
+      <c r="AR250" t="n">
+        <v>24</v>
+      </c>
       <c r="AS250" t="inlineStr"/>
     </row>
     <row r="251">
@@ -36281,7 +36779,9 @@
       <c r="AQ251" t="n">
         <v>19</v>
       </c>
-      <c r="AR251" t="inlineStr"/>
+      <c r="AR251" t="n">
+        <v>19</v>
+      </c>
       <c r="AS251" t="inlineStr"/>
     </row>
     <row r="252">
@@ -36424,7 +36924,9 @@
       <c r="AQ252" t="n">
         <v>40</v>
       </c>
-      <c r="AR252" t="inlineStr"/>
+      <c r="AR252" t="n">
+        <v>40</v>
+      </c>
       <c r="AS252" t="inlineStr"/>
     </row>
     <row r="253">
@@ -36567,7 +37069,9 @@
       <c r="AQ253" t="n">
         <v>65</v>
       </c>
-      <c r="AR253" t="inlineStr"/>
+      <c r="AR253" t="n">
+        <v>65</v>
+      </c>
       <c r="AS253" t="inlineStr"/>
     </row>
     <row r="254">
@@ -36710,7 +37214,9 @@
       <c r="AQ254" t="n">
         <v>5</v>
       </c>
-      <c r="AR254" t="inlineStr"/>
+      <c r="AR254" t="n">
+        <v>5</v>
+      </c>
       <c r="AS254" t="inlineStr"/>
     </row>
     <row r="255">
@@ -36853,7 +37359,9 @@
       <c r="AQ255" t="n">
         <v>3</v>
       </c>
-      <c r="AR255" t="inlineStr"/>
+      <c r="AR255" t="n">
+        <v>3</v>
+      </c>
       <c r="AS255" t="inlineStr"/>
     </row>
     <row r="256">
@@ -36996,7 +37504,9 @@
       <c r="AQ256" t="n">
         <v>21</v>
       </c>
-      <c r="AR256" t="inlineStr"/>
+      <c r="AR256" t="n">
+        <v>21</v>
+      </c>
       <c r="AS256" t="inlineStr"/>
     </row>
     <row r="257">
@@ -37139,7 +37649,9 @@
       <c r="AQ257" t="n">
         <v>11</v>
       </c>
-      <c r="AR257" t="inlineStr"/>
+      <c r="AR257" t="n">
+        <v>11</v>
+      </c>
       <c r="AS257" t="inlineStr"/>
     </row>
     <row r="258">
@@ -37282,7 +37794,9 @@
       <c r="AQ258" t="n">
         <v>10</v>
       </c>
-      <c r="AR258" t="inlineStr"/>
+      <c r="AR258" t="n">
+        <v>10</v>
+      </c>
       <c r="AS258" t="inlineStr"/>
     </row>
     <row r="259">
@@ -37425,7 +37939,9 @@
       <c r="AQ259" t="n">
         <v>8</v>
       </c>
-      <c r="AR259" t="inlineStr"/>
+      <c r="AR259" t="n">
+        <v>8</v>
+      </c>
       <c r="AS259" t="inlineStr"/>
     </row>
     <row r="260">
@@ -37568,7 +38084,9 @@
       <c r="AQ260" t="n">
         <v>6</v>
       </c>
-      <c r="AR260" t="inlineStr"/>
+      <c r="AR260" t="n">
+        <v>6</v>
+      </c>
       <c r="AS260" t="inlineStr"/>
     </row>
     <row r="261">
@@ -37711,7 +38229,9 @@
       <c r="AQ261" t="n">
         <v>7</v>
       </c>
-      <c r="AR261" t="inlineStr"/>
+      <c r="AR261" t="n">
+        <v>7</v>
+      </c>
       <c r="AS261" t="inlineStr"/>
     </row>
     <row r="262">
@@ -37854,7 +38374,9 @@
       <c r="AQ262" t="n">
         <v>20</v>
       </c>
-      <c r="AR262" t="inlineStr"/>
+      <c r="AR262" t="n">
+        <v>17</v>
+      </c>
       <c r="AS262" t="inlineStr"/>
     </row>
     <row r="263">
@@ -37997,7 +38519,9 @@
       <c r="AQ263" t="n">
         <v>20</v>
       </c>
-      <c r="AR263" t="inlineStr"/>
+      <c r="AR263" t="n">
+        <v>20</v>
+      </c>
       <c r="AS263" t="inlineStr"/>
     </row>
     <row r="264">
@@ -38140,7 +38664,9 @@
       <c r="AQ264" t="n">
         <v>16</v>
       </c>
-      <c r="AR264" t="inlineStr"/>
+      <c r="AR264" t="n">
+        <v>16</v>
+      </c>
       <c r="AS264" t="inlineStr"/>
     </row>
     <row r="265">
@@ -38283,7 +38809,9 @@
       <c r="AQ265" t="n">
         <v>14</v>
       </c>
-      <c r="AR265" t="inlineStr"/>
+      <c r="AR265" t="n">
+        <v>14</v>
+      </c>
       <c r="AS265" t="inlineStr"/>
     </row>
     <row r="266">
@@ -38426,7 +38954,9 @@
       <c r="AQ266" t="n">
         <v>13</v>
       </c>
-      <c r="AR266" t="inlineStr"/>
+      <c r="AR266" t="n">
+        <v>11</v>
+      </c>
       <c r="AS266" t="inlineStr"/>
     </row>
     <row r="267">
@@ -38569,7 +39099,9 @@
       <c r="AQ267" t="n">
         <v>12</v>
       </c>
-      <c r="AR267" t="inlineStr"/>
+      <c r="AR267" t="n">
+        <v>12</v>
+      </c>
       <c r="AS267" t="inlineStr"/>
     </row>
     <row r="268">
@@ -38712,7 +39244,9 @@
       <c r="AQ268" t="n">
         <v>7</v>
       </c>
-      <c r="AR268" t="inlineStr"/>
+      <c r="AR268" t="n">
+        <v>7</v>
+      </c>
       <c r="AS268" t="inlineStr"/>
     </row>
     <row r="269">
@@ -38855,7 +39389,9 @@
       <c r="AQ269" t="n">
         <v>2</v>
       </c>
-      <c r="AR269" t="inlineStr"/>
+      <c r="AR269" t="n">
+        <v>2</v>
+      </c>
       <c r="AS269" t="inlineStr"/>
     </row>
     <row r="270">
@@ -38998,7 +39534,9 @@
       <c r="AQ270" t="n">
         <v>5</v>
       </c>
-      <c r="AR270" t="inlineStr"/>
+      <c r="AR270" t="n">
+        <v>5</v>
+      </c>
       <c r="AS270" t="inlineStr"/>
     </row>
     <row r="271">
@@ -39141,7 +39679,9 @@
       <c r="AQ271" t="n">
         <v>10</v>
       </c>
-      <c r="AR271" t="inlineStr"/>
+      <c r="AR271" t="n">
+        <v>10</v>
+      </c>
       <c r="AS271" t="inlineStr"/>
     </row>
     <row r="272">
@@ -39284,7 +39824,9 @@
       <c r="AQ272" t="n">
         <v>-1</v>
       </c>
-      <c r="AR272" t="inlineStr"/>
+      <c r="AR272" t="n">
+        <v>-3</v>
+      </c>
       <c r="AS272" t="inlineStr"/>
     </row>
     <row r="273">
@@ -39427,7 +39969,9 @@
       <c r="AQ273" t="n">
         <v>15</v>
       </c>
-      <c r="AR273" t="inlineStr"/>
+      <c r="AR273" t="n">
+        <v>13</v>
+      </c>
       <c r="AS273" t="inlineStr"/>
     </row>
     <row r="274">
@@ -39570,7 +40114,9 @@
       <c r="AQ274" t="n">
         <v>19</v>
       </c>
-      <c r="AR274" t="inlineStr"/>
+      <c r="AR274" t="n">
+        <v>19</v>
+      </c>
       <c r="AS274" t="inlineStr"/>
     </row>
     <row r="275">
@@ -39713,7 +40259,9 @@
       <c r="AQ275" t="n">
         <v>8</v>
       </c>
-      <c r="AR275" t="inlineStr"/>
+      <c r="AR275" t="n">
+        <v>8</v>
+      </c>
       <c r="AS275" t="inlineStr"/>
     </row>
     <row r="276">
@@ -39856,7 +40404,9 @@
       <c r="AQ276" t="n">
         <v>20</v>
       </c>
-      <c r="AR276" t="inlineStr"/>
+      <c r="AR276" t="n">
+        <v>20</v>
+      </c>
       <c r="AS276" t="inlineStr"/>
     </row>
     <row r="277">
@@ -39999,7 +40549,9 @@
       <c r="AQ277" t="n">
         <v>3</v>
       </c>
-      <c r="AR277" t="inlineStr"/>
+      <c r="AR277" t="n">
+        <v>3</v>
+      </c>
       <c r="AS277" t="inlineStr"/>
     </row>
     <row r="278">
@@ -40142,7 +40694,9 @@
       <c r="AQ278" t="n">
         <v>21</v>
       </c>
-      <c r="AR278" t="inlineStr"/>
+      <c r="AR278" t="n">
+        <v>21</v>
+      </c>
       <c r="AS278" t="inlineStr"/>
     </row>
     <row r="279">
@@ -40285,7 +40839,9 @@
       <c r="AQ279" t="n">
         <v>8</v>
       </c>
-      <c r="AR279" t="inlineStr"/>
+      <c r="AR279" t="n">
+        <v>8</v>
+      </c>
       <c r="AS279" t="inlineStr"/>
     </row>
     <row r="280">
@@ -40426,7 +40982,9 @@
       <c r="AQ280" t="n">
         <v>9</v>
       </c>
-      <c r="AR280" t="inlineStr"/>
+      <c r="AR280" t="n">
+        <v>9</v>
+      </c>
       <c r="AS280" t="inlineStr"/>
     </row>
     <row r="281">
@@ -40567,7 +41125,9 @@
       <c r="AQ281" t="n">
         <v>14</v>
       </c>
-      <c r="AR281" t="inlineStr"/>
+      <c r="AR281" t="n">
+        <v>14</v>
+      </c>
       <c r="AS281" t="inlineStr"/>
     </row>
     <row r="282">
@@ -40708,7 +41268,9 @@
       <c r="AQ282" t="n">
         <v>28</v>
       </c>
-      <c r="AR282" t="inlineStr"/>
+      <c r="AR282" t="n">
+        <v>28</v>
+      </c>
       <c r="AS282" t="inlineStr"/>
     </row>
     <row r="283">
@@ -40851,7 +41413,9 @@
       <c r="AQ283" t="n">
         <v>5</v>
       </c>
-      <c r="AR283" t="inlineStr"/>
+      <c r="AR283" t="n">
+        <v>4</v>
+      </c>
       <c r="AS283" t="inlineStr"/>
     </row>
     <row r="284">
@@ -40994,7 +41558,9 @@
       <c r="AQ284" t="n">
         <v>9</v>
       </c>
-      <c r="AR284" t="inlineStr"/>
+      <c r="AR284" t="n">
+        <v>9</v>
+      </c>
       <c r="AS284" t="inlineStr"/>
     </row>
     <row r="285">
@@ -41135,7 +41701,9 @@
       <c r="AQ285" t="n">
         <v>2</v>
       </c>
-      <c r="AR285" t="inlineStr"/>
+      <c r="AR285" t="n">
+        <v>2</v>
+      </c>
       <c r="AS285" t="inlineStr"/>
     </row>
     <row r="286">
@@ -41278,7 +41846,9 @@
       <c r="AQ286" t="n">
         <v>4</v>
       </c>
-      <c r="AR286" t="inlineStr"/>
+      <c r="AR286" t="n">
+        <v>4</v>
+      </c>
       <c r="AS286" t="inlineStr"/>
     </row>
     <row r="287">
@@ -41421,7 +41991,9 @@
       <c r="AQ287" t="n">
         <v>11</v>
       </c>
-      <c r="AR287" t="inlineStr"/>
+      <c r="AR287" t="n">
+        <v>11</v>
+      </c>
       <c r="AS287" t="inlineStr"/>
     </row>
     <row r="288">
@@ -41564,7 +42136,9 @@
       <c r="AQ288" t="n">
         <v>296</v>
       </c>
-      <c r="AR288" t="inlineStr"/>
+      <c r="AR288" t="n">
+        <v>296</v>
+      </c>
       <c r="AS288" t="inlineStr"/>
     </row>
     <row r="289">
@@ -41707,7 +42281,9 @@
       <c r="AQ289" t="n">
         <v>1124</v>
       </c>
-      <c r="AR289" t="inlineStr"/>
+      <c r="AR289" t="n">
+        <v>1124</v>
+      </c>
       <c r="AS289" t="inlineStr"/>
     </row>
     <row r="290">
@@ -41848,7 +42424,9 @@
       <c r="AQ290" t="n">
         <v>1737</v>
       </c>
-      <c r="AR290" t="inlineStr"/>
+      <c r="AR290" t="n">
+        <v>1737</v>
+      </c>
       <c r="AS290" t="inlineStr"/>
     </row>
     <row r="291">
@@ -41989,7 +42567,9 @@
       <c r="AQ291" t="n">
         <v>14</v>
       </c>
-      <c r="AR291" t="inlineStr"/>
+      <c r="AR291" t="n">
+        <v>14</v>
+      </c>
       <c r="AS291" t="inlineStr"/>
     </row>
     <row r="292">
@@ -42130,7 +42710,9 @@
       <c r="AQ292" t="n">
         <v>12</v>
       </c>
-      <c r="AR292" t="inlineStr"/>
+      <c r="AR292" t="n">
+        <v>12</v>
+      </c>
       <c r="AS292" t="inlineStr"/>
     </row>
     <row r="293">
@@ -42271,7 +42853,9 @@
       <c r="AQ293" t="n">
         <v>7</v>
       </c>
-      <c r="AR293" t="inlineStr"/>
+      <c r="AR293" t="n">
+        <v>7</v>
+      </c>
       <c r="AS293" t="inlineStr"/>
     </row>
     <row r="294">
@@ -42412,7 +42996,9 @@
       <c r="AQ294" t="n">
         <v>-1</v>
       </c>
-      <c r="AR294" t="inlineStr"/>
+      <c r="AR294" t="n">
+        <v>-1</v>
+      </c>
       <c r="AS294" t="inlineStr"/>
     </row>
     <row r="295">
@@ -42553,7 +43139,9 @@
       <c r="AQ295" t="n">
         <v>-1</v>
       </c>
-      <c r="AR295" t="inlineStr"/>
+      <c r="AR295" t="n">
+        <v>-1</v>
+      </c>
       <c r="AS295" t="inlineStr"/>
     </row>
     <row r="296">
@@ -42694,7 +43282,9 @@
       <c r="AQ296" t="n">
         <v>17</v>
       </c>
-      <c r="AR296" t="inlineStr"/>
+      <c r="AR296" t="n">
+        <v>15</v>
+      </c>
       <c r="AS296" t="inlineStr"/>
     </row>
     <row r="297">
@@ -42837,7 +43427,9 @@
       <c r="AQ297" t="n">
         <v>41</v>
       </c>
-      <c r="AR297" t="inlineStr"/>
+      <c r="AR297" t="n">
+        <v>41</v>
+      </c>
       <c r="AS297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -42978,7 +43570,9 @@
       <c r="AQ298" t="n">
         <v>49</v>
       </c>
-      <c r="AR298" t="inlineStr"/>
+      <c r="AR298" t="n">
+        <v>49</v>
+      </c>
       <c r="AS298" t="inlineStr"/>
     </row>
     <row r="299">
@@ -43119,7 +43713,9 @@
       <c r="AQ299" t="n">
         <v>25</v>
       </c>
-      <c r="AR299" t="inlineStr"/>
+      <c r="AR299" t="n">
+        <v>25</v>
+      </c>
       <c r="AS299" t="inlineStr"/>
     </row>
     <row r="300">
@@ -43262,7 +43858,9 @@
       <c r="AQ300" t="n">
         <v>18</v>
       </c>
-      <c r="AR300" t="inlineStr"/>
+      <c r="AR300" t="n">
+        <v>17</v>
+      </c>
       <c r="AS300" t="inlineStr"/>
     </row>
     <row r="301">
@@ -43403,7 +44001,9 @@
       <c r="AQ301" t="n">
         <v>25</v>
       </c>
-      <c r="AR301" t="inlineStr"/>
+      <c r="AR301" t="n">
+        <v>24</v>
+      </c>
       <c r="AS301" t="inlineStr"/>
     </row>
     <row r="302">
@@ -43546,7 +44146,9 @@
       <c r="AQ302" t="n">
         <v>53</v>
       </c>
-      <c r="AR302" t="inlineStr"/>
+      <c r="AR302" t="n">
+        <v>50</v>
+      </c>
       <c r="AS302" t="inlineStr"/>
     </row>
     <row r="303">
@@ -43689,7 +44291,9 @@
       <c r="AQ303" t="n">
         <v>10</v>
       </c>
-      <c r="AR303" t="inlineStr"/>
+      <c r="AR303" t="n">
+        <v>10</v>
+      </c>
       <c r="AS303" t="inlineStr"/>
     </row>
     <row r="304">
@@ -43832,7 +44436,9 @@
       <c r="AQ304" t="n">
         <v>11</v>
       </c>
-      <c r="AR304" t="inlineStr"/>
+      <c r="AR304" t="n">
+        <v>11</v>
+      </c>
       <c r="AS304" t="inlineStr"/>
     </row>
     <row r="305">
@@ -43975,7 +44581,9 @@
       <c r="AQ305" t="n">
         <v>25</v>
       </c>
-      <c r="AR305" t="inlineStr"/>
+      <c r="AR305" t="n">
+        <v>25</v>
+      </c>
       <c r="AS305" t="inlineStr"/>
     </row>
     <row r="306">
@@ -44118,7 +44726,9 @@
       <c r="AQ306" t="n">
         <v>-3</v>
       </c>
-      <c r="AR306" t="inlineStr"/>
+      <c r="AR306" t="n">
+        <v>-3</v>
+      </c>
       <c r="AS306" t="inlineStr"/>
     </row>
     <row r="307">
@@ -44261,7 +44871,9 @@
       <c r="AQ307" t="n">
         <v>322</v>
       </c>
-      <c r="AR307" t="inlineStr"/>
+      <c r="AR307" t="n">
+        <v>322</v>
+      </c>
       <c r="AS307" t="inlineStr"/>
     </row>
     <row r="308">
@@ -44402,7 +45014,9 @@
       <c r="AQ308" t="n">
         <v>16.76</v>
       </c>
-      <c r="AR308" t="inlineStr"/>
+      <c r="AR308" t="n">
+        <v>16.76</v>
+      </c>
       <c r="AS308" t="inlineStr"/>
     </row>
     <row r="309">
@@ -44545,7 +45159,9 @@
       <c r="AQ309" t="n">
         <v>9</v>
       </c>
-      <c r="AR309" t="inlineStr"/>
+      <c r="AR309" t="n">
+        <v>9</v>
+      </c>
       <c r="AS309" t="inlineStr"/>
     </row>
     <row r="310">
@@ -44686,7 +45302,9 @@
       <c r="AQ310" t="n">
         <v>141</v>
       </c>
-      <c r="AR310" t="inlineStr"/>
+      <c r="AR310" t="n">
+        <v>141</v>
+      </c>
       <c r="AS310" t="inlineStr"/>
     </row>
     <row r="311">
@@ -44827,7 +45445,9 @@
       <c r="AQ311" t="n">
         <v>77.89999999999999</v>
       </c>
-      <c r="AR311" t="inlineStr"/>
+      <c r="AR311" t="n">
+        <v>77.89999999999999</v>
+      </c>
       <c r="AS311" t="inlineStr"/>
     </row>
     <row r="312">
@@ -44970,7 +45590,9 @@
       <c r="AQ312" t="n">
         <v>58</v>
       </c>
-      <c r="AR312" t="inlineStr"/>
+      <c r="AR312" t="n">
+        <v>58</v>
+      </c>
       <c r="AS312" t="inlineStr"/>
     </row>
     <row r="313">
@@ -45111,7 +45733,9 @@
       <c r="AQ313" t="n">
         <v>12</v>
       </c>
-      <c r="AR313" t="inlineStr"/>
+      <c r="AR313" t="n">
+        <v>12</v>
+      </c>
       <c r="AS313" t="inlineStr"/>
     </row>
     <row r="314">
@@ -45252,7 +45876,9 @@
       <c r="AQ314" t="n">
         <v>15</v>
       </c>
-      <c r="AR314" t="inlineStr"/>
+      <c r="AR314" t="n">
+        <v>15</v>
+      </c>
       <c r="AS314" t="inlineStr"/>
     </row>
     <row r="315">
@@ -45393,7 +46019,9 @@
       <c r="AQ315" t="n">
         <v>1</v>
       </c>
-      <c r="AR315" t="inlineStr"/>
+      <c r="AR315" t="n">
+        <v>1</v>
+      </c>
       <c r="AS315" t="inlineStr"/>
     </row>
     <row r="316">
@@ -45534,7 +46162,9 @@
       <c r="AQ316" t="n">
         <v>1</v>
       </c>
-      <c r="AR316" t="inlineStr"/>
+      <c r="AR316" t="n">
+        <v>1</v>
+      </c>
       <c r="AS316" t="inlineStr"/>
     </row>
     <row r="317">
@@ -45675,7 +46305,9 @@
       <c r="AQ317" t="n">
         <v>9</v>
       </c>
-      <c r="AR317" t="inlineStr"/>
+      <c r="AR317" t="n">
+        <v>9</v>
+      </c>
       <c r="AS317" t="inlineStr"/>
     </row>
     <row r="318">
@@ -45814,7 +46446,9 @@
       <c r="AQ318" t="n">
         <v>39</v>
       </c>
-      <c r="AR318" t="inlineStr"/>
+      <c r="AR318" t="n">
+        <v>39</v>
+      </c>
       <c r="AS318" t="inlineStr"/>
     </row>
     <row r="319">
@@ -45955,7 +46589,9 @@
       <c r="AQ319" t="n">
         <v>96</v>
       </c>
-      <c r="AR319" t="inlineStr"/>
+      <c r="AR319" t="n">
+        <v>93</v>
+      </c>
       <c r="AS319" t="inlineStr"/>
     </row>
     <row r="320">
@@ -46098,7 +46734,9 @@
       <c r="AQ320" t="n">
         <v>55</v>
       </c>
-      <c r="AR320" t="inlineStr"/>
+      <c r="AR320" t="n">
+        <v>55</v>
+      </c>
       <c r="AS320" t="inlineStr"/>
     </row>
     <row r="321">
@@ -46239,7 +46877,9 @@
       <c r="AQ321" t="n">
         <v>6</v>
       </c>
-      <c r="AR321" t="inlineStr"/>
+      <c r="AR321" t="n">
+        <v>6</v>
+      </c>
       <c r="AS321" t="inlineStr"/>
     </row>
     <row r="322">
@@ -46382,7 +47022,9 @@
       <c r="AQ322" t="n">
         <v>18</v>
       </c>
-      <c r="AR322" t="inlineStr"/>
+      <c r="AR322" t="n">
+        <v>15</v>
+      </c>
       <c r="AS322" t="inlineStr"/>
     </row>
     <row r="323">
@@ -46525,7 +47167,9 @@
       <c r="AQ323" t="n">
         <v>82</v>
       </c>
-      <c r="AR323" t="inlineStr"/>
+      <c r="AR323" t="n">
+        <v>82</v>
+      </c>
       <c r="AS323" t="inlineStr"/>
     </row>
     <row r="324">
@@ -46668,7 +47312,9 @@
       <c r="AQ324" t="n">
         <v>29</v>
       </c>
-      <c r="AR324" t="inlineStr"/>
+      <c r="AR324" t="n">
+        <v>29</v>
+      </c>
       <c r="AS324" t="inlineStr"/>
     </row>
     <row r="325">
@@ -46811,7 +47457,9 @@
       <c r="AQ325" t="n">
         <v>2</v>
       </c>
-      <c r="AR325" t="inlineStr"/>
+      <c r="AR325" t="n">
+        <v>2</v>
+      </c>
       <c r="AS325" t="inlineStr"/>
     </row>
     <row r="326">
@@ -46954,7 +47602,9 @@
       <c r="AQ326" t="n">
         <v>17</v>
       </c>
-      <c r="AR326" t="inlineStr"/>
+      <c r="AR326" t="n">
+        <v>15</v>
+      </c>
       <c r="AS326" t="inlineStr"/>
     </row>
     <row r="327">
@@ -47097,7 +47747,9 @@
       <c r="AQ327" t="n">
         <v>51</v>
       </c>
-      <c r="AR327" t="inlineStr"/>
+      <c r="AR327" t="n">
+        <v>51</v>
+      </c>
       <c r="AS327" t="inlineStr"/>
     </row>
     <row r="328">
@@ -47238,7 +47890,9 @@
       <c r="AQ328" t="n">
         <v>95</v>
       </c>
-      <c r="AR328" t="inlineStr"/>
+      <c r="AR328" t="n">
+        <v>95</v>
+      </c>
       <c r="AS328" t="inlineStr"/>
     </row>
     <row r="329">
@@ -47381,7 +48035,9 @@
       <c r="AQ329" t="n">
         <v>9</v>
       </c>
-      <c r="AR329" t="inlineStr"/>
+      <c r="AR329" t="n">
+        <v>9</v>
+      </c>
       <c r="AS329" t="inlineStr"/>
     </row>
     <row r="330">
@@ -47524,7 +48180,9 @@
       <c r="AQ330" t="n">
         <v>15</v>
       </c>
-      <c r="AR330" t="inlineStr"/>
+      <c r="AR330" t="n">
+        <v>15</v>
+      </c>
       <c r="AS330" t="inlineStr"/>
     </row>
     <row r="331">
@@ -47665,7 +48323,9 @@
       <c r="AQ331" t="n">
         <v>53</v>
       </c>
-      <c r="AR331" t="inlineStr"/>
+      <c r="AR331" t="n">
+        <v>53</v>
+      </c>
       <c r="AS331" t="inlineStr"/>
     </row>
     <row r="332">
@@ -47804,7 +48464,9 @@
       <c r="AQ332" t="n">
         <v>3</v>
       </c>
-      <c r="AR332" t="inlineStr"/>
+      <c r="AR332" t="n">
+        <v>0</v>
+      </c>
       <c r="AS332" t="inlineStr"/>
     </row>
     <row r="333">
@@ -47943,7 +48605,9 @@
       <c r="AQ333" t="n">
         <v>9</v>
       </c>
-      <c r="AR333" t="inlineStr"/>
+      <c r="AR333" t="n">
+        <v>9</v>
+      </c>
       <c r="AS333" t="inlineStr"/>
     </row>
     <row r="334">
@@ -48082,7 +48746,9 @@
       <c r="AQ334" t="n">
         <v>8</v>
       </c>
-      <c r="AR334" t="inlineStr"/>
+      <c r="AR334" t="n">
+        <v>8</v>
+      </c>
       <c r="AS334" t="inlineStr"/>
     </row>
     <row r="335">
@@ -48225,7 +48891,9 @@
       <c r="AQ335" t="n">
         <v>81</v>
       </c>
-      <c r="AR335" t="inlineStr"/>
+      <c r="AR335" t="n">
+        <v>81</v>
+      </c>
       <c r="AS335" t="inlineStr"/>
     </row>
     <row r="336">
@@ -48366,7 +49034,9 @@
       <c r="AQ336" t="n">
         <v>5</v>
       </c>
-      <c r="AR336" t="inlineStr"/>
+      <c r="AR336" t="n">
+        <v>5</v>
+      </c>
       <c r="AS336" t="inlineStr"/>
     </row>
     <row r="337">
@@ -48509,7 +49179,9 @@
       <c r="AQ337" t="n">
         <v>3</v>
       </c>
-      <c r="AR337" t="inlineStr"/>
+      <c r="AR337" t="n">
+        <v>2</v>
+      </c>
       <c r="AS337" t="inlineStr"/>
     </row>
     <row r="338">
@@ -48648,7 +49320,9 @@
       <c r="AQ338" t="n">
         <v>-4</v>
       </c>
-      <c r="AR338" t="inlineStr"/>
+      <c r="AR338" t="n">
+        <v>-4</v>
+      </c>
       <c r="AS338" t="inlineStr"/>
     </row>
     <row r="339">
@@ -48791,7 +49465,9 @@
       <c r="AQ339" t="n">
         <v>32</v>
       </c>
-      <c r="AR339" t="inlineStr"/>
+      <c r="AR339" t="n">
+        <v>32</v>
+      </c>
       <c r="AS339" t="inlineStr"/>
     </row>
     <row r="340">
@@ -48934,7 +49610,9 @@
       <c r="AQ340" t="n">
         <v>-2</v>
       </c>
-      <c r="AR340" t="inlineStr"/>
+      <c r="AR340" t="n">
+        <v>-2</v>
+      </c>
       <c r="AS340" t="inlineStr"/>
     </row>
     <row r="341">
@@ -49077,7 +49755,9 @@
       <c r="AQ341" t="n">
         <v>11</v>
       </c>
-      <c r="AR341" t="inlineStr"/>
+      <c r="AR341" t="n">
+        <v>11</v>
+      </c>
       <c r="AS341" t="inlineStr"/>
     </row>
     <row r="342">
@@ -49220,7 +49900,9 @@
       <c r="AQ342" t="n">
         <v>28</v>
       </c>
-      <c r="AR342" t="inlineStr"/>
+      <c r="AR342" t="n">
+        <v>25</v>
+      </c>
       <c r="AS342" t="inlineStr"/>
     </row>
     <row r="343">
@@ -49361,7 +50043,9 @@
       <c r="AQ343" t="n">
         <v>7</v>
       </c>
-      <c r="AR343" t="inlineStr"/>
+      <c r="AR343" t="n">
+        <v>7</v>
+      </c>
       <c r="AS343" t="inlineStr"/>
     </row>
     <row r="344">
@@ -49502,7 +50186,9 @@
       <c r="AQ344" t="n">
         <v>15</v>
       </c>
-      <c r="AR344" t="inlineStr"/>
+      <c r="AR344" t="n">
+        <v>12</v>
+      </c>
       <c r="AS344" t="inlineStr"/>
     </row>
     <row r="345">
@@ -49643,7 +50329,9 @@
       <c r="AQ345" t="n">
         <v>-5</v>
       </c>
-      <c r="AR345" t="inlineStr"/>
+      <c r="AR345" t="n">
+        <v>-8</v>
+      </c>
       <c r="AS345" t="inlineStr"/>
     </row>
     <row r="346">
@@ -49784,7 +50472,9 @@
       <c r="AQ346" t="n">
         <v>19</v>
       </c>
-      <c r="AR346" t="inlineStr"/>
+      <c r="AR346" t="n">
+        <v>19</v>
+      </c>
       <c r="AS346" t="inlineStr"/>
     </row>
     <row r="347">
@@ -49925,7 +50615,9 @@
       <c r="AQ347" t="n">
         <v>7</v>
       </c>
-      <c r="AR347" t="inlineStr"/>
+      <c r="AR347" t="n">
+        <v>7</v>
+      </c>
       <c r="AS347" t="inlineStr"/>
     </row>
     <row r="348">
@@ -50068,7 +50760,9 @@
       <c r="AQ348" t="n">
         <v>18</v>
       </c>
-      <c r="AR348" t="inlineStr"/>
+      <c r="AR348" t="n">
+        <v>18</v>
+      </c>
       <c r="AS348" t="inlineStr"/>
     </row>
     <row r="349">
@@ -50207,7 +50901,9 @@
       <c r="AQ349" t="n">
         <v>51</v>
       </c>
-      <c r="AR349" t="inlineStr"/>
+      <c r="AR349" t="n">
+        <v>51</v>
+      </c>
       <c r="AS349" t="inlineStr"/>
     </row>
     <row r="350">
@@ -50350,7 +51046,9 @@
       <c r="AQ350" t="n">
         <v>52</v>
       </c>
-      <c r="AR350" t="inlineStr"/>
+      <c r="AR350" t="n">
+        <v>52</v>
+      </c>
       <c r="AS350" t="inlineStr"/>
     </row>
     <row r="351">
@@ -50493,7 +51191,9 @@
       <c r="AQ351" t="n">
         <v>150</v>
       </c>
-      <c r="AR351" t="inlineStr"/>
+      <c r="AR351" t="n">
+        <v>150</v>
+      </c>
       <c r="AS351" t="inlineStr"/>
     </row>
     <row r="352">
@@ -50636,7 +51336,9 @@
       <c r="AQ352" t="n">
         <v>1187</v>
       </c>
-      <c r="AR352" t="inlineStr"/>
+      <c r="AR352" t="n">
+        <v>1187</v>
+      </c>
       <c r="AS352" t="inlineStr"/>
     </row>
     <row r="353">
@@ -50777,7 +51479,9 @@
       <c r="AQ353" t="n">
         <v>12</v>
       </c>
-      <c r="AR353" t="inlineStr"/>
+      <c r="AR353" t="n">
+        <v>12</v>
+      </c>
       <c r="AS353" t="inlineStr"/>
     </row>
     <row r="354">
@@ -50920,7 +51624,9 @@
       <c r="AQ354" t="n">
         <v>307</v>
       </c>
-      <c r="AR354" t="inlineStr"/>
+      <c r="AR354" t="n">
+        <v>307</v>
+      </c>
       <c r="AS354" t="inlineStr"/>
     </row>
     <row r="355">
@@ -51061,7 +51767,9 @@
       <c r="AQ355" t="n">
         <v>659</v>
       </c>
-      <c r="AR355" t="inlineStr"/>
+      <c r="AR355" t="n">
+        <v>659</v>
+      </c>
       <c r="AS355" t="inlineStr"/>
     </row>
     <row r="356">
@@ -51204,7 +51912,9 @@
       <c r="AQ356" t="n">
         <v>1</v>
       </c>
-      <c r="AR356" t="inlineStr"/>
+      <c r="AR356" t="n">
+        <v>1</v>
+      </c>
       <c r="AS356" t="inlineStr"/>
     </row>
     <row r="357">
@@ -51347,7 +52057,9 @@
       <c r="AQ357" t="n">
         <v>9</v>
       </c>
-      <c r="AR357" t="inlineStr"/>
+      <c r="AR357" t="n">
+        <v>9</v>
+      </c>
       <c r="AS357" t="inlineStr"/>
     </row>
     <row r="358">
@@ -51490,7 +52202,9 @@
       <c r="AQ358" t="n">
         <v>1110</v>
       </c>
-      <c r="AR358" t="inlineStr"/>
+      <c r="AR358" t="n">
+        <v>1110</v>
+      </c>
       <c r="AS358" t="inlineStr"/>
     </row>
     <row r="359">
@@ -51633,7 +52347,9 @@
       <c r="AQ359" t="n">
         <v>87</v>
       </c>
-      <c r="AR359" t="inlineStr"/>
+      <c r="AR359" t="n">
+        <v>87</v>
+      </c>
       <c r="AS359" t="inlineStr"/>
     </row>
     <row r="360">
@@ -51774,7 +52490,9 @@
       <c r="AQ360" t="n">
         <v>45</v>
       </c>
-      <c r="AR360" t="inlineStr"/>
+      <c r="AR360" t="n">
+        <v>45</v>
+      </c>
       <c r="AS360" t="inlineStr"/>
     </row>
     <row r="361">
@@ -51915,7 +52633,9 @@
       <c r="AQ361" t="n">
         <v>30</v>
       </c>
-      <c r="AR361" t="inlineStr"/>
+      <c r="AR361" t="n">
+        <v>29</v>
+      </c>
       <c r="AS361" t="inlineStr"/>
     </row>
     <row r="362">
@@ -52056,7 +52776,9 @@
       <c r="AQ362" t="n">
         <v>20</v>
       </c>
-      <c r="AR362" t="inlineStr"/>
+      <c r="AR362" t="n">
+        <v>20</v>
+      </c>
       <c r="AS362" t="inlineStr"/>
     </row>
     <row r="363">
@@ -52197,7 +52919,9 @@
       <c r="AQ363" t="n">
         <v>15</v>
       </c>
-      <c r="AR363" t="inlineStr"/>
+      <c r="AR363" t="n">
+        <v>15</v>
+      </c>
       <c r="AS363" t="inlineStr"/>
     </row>
     <row r="364">
@@ -52340,7 +53064,9 @@
       <c r="AQ364" t="n">
         <v>49</v>
       </c>
-      <c r="AR364" t="inlineStr"/>
+      <c r="AR364" t="n">
+        <v>49</v>
+      </c>
       <c r="AS364" t="inlineStr"/>
     </row>
     <row r="365">
@@ -52481,7 +53207,9 @@
       <c r="AQ365" t="n">
         <v>107</v>
       </c>
-      <c r="AR365" t="inlineStr"/>
+      <c r="AR365" t="n">
+        <v>107</v>
+      </c>
       <c r="AS365" t="inlineStr"/>
     </row>
     <row r="366">
@@ -52624,7 +53352,9 @@
       <c r="AQ366" t="n">
         <v>81</v>
       </c>
-      <c r="AR366" t="inlineStr"/>
+      <c r="AR366" t="n">
+        <v>81</v>
+      </c>
       <c r="AS366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -52767,7 +53497,9 @@
       <c r="AQ367" t="n">
         <v>15</v>
       </c>
-      <c r="AR367" t="inlineStr"/>
+      <c r="AR367" t="n">
+        <v>15</v>
+      </c>
       <c r="AS367" t="inlineStr"/>
     </row>
     <row r="368">
@@ -52908,7 +53640,9 @@
       <c r="AQ368" t="n">
         <v>82</v>
       </c>
-      <c r="AR368" t="inlineStr"/>
+      <c r="AR368" t="n">
+        <v>79</v>
+      </c>
       <c r="AS368" t="inlineStr"/>
     </row>
     <row r="369">
@@ -53051,7 +53785,9 @@
       <c r="AQ369" t="n">
         <v>10</v>
       </c>
-      <c r="AR369" t="inlineStr"/>
+      <c r="AR369" t="n">
+        <v>10</v>
+      </c>
       <c r="AS369" t="inlineStr"/>
     </row>
     <row r="370">
@@ -53194,7 +53930,9 @@
       <c r="AQ370" t="n">
         <v>52</v>
       </c>
-      <c r="AR370" t="inlineStr"/>
+      <c r="AR370" t="n">
+        <v>52</v>
+      </c>
       <c r="AS370" t="inlineStr"/>
     </row>
     <row r="371">
@@ -53337,7 +54075,9 @@
       <c r="AQ371" t="n">
         <v>100</v>
       </c>
-      <c r="AR371" t="inlineStr"/>
+      <c r="AR371" t="n">
+        <v>100</v>
+      </c>
       <c r="AS371" t="inlineStr"/>
     </row>
     <row r="372">
@@ -53480,7 +54220,9 @@
       <c r="AQ372" t="n">
         <v>50</v>
       </c>
-      <c r="AR372" t="inlineStr"/>
+      <c r="AR372" t="n">
+        <v>50</v>
+      </c>
       <c r="AS372" t="inlineStr"/>
     </row>
     <row r="373">
@@ -53623,7 +54365,9 @@
       <c r="AQ373" t="n">
         <v>2</v>
       </c>
-      <c r="AR373" t="inlineStr"/>
+      <c r="AR373" t="n">
+        <v>2</v>
+      </c>
       <c r="AS373" t="inlineStr"/>
     </row>
     <row r="374">
@@ -53766,7 +54510,9 @@
       <c r="AQ374" t="n">
         <v>62</v>
       </c>
-      <c r="AR374" t="inlineStr"/>
+      <c r="AR374" t="n">
+        <v>62</v>
+      </c>
       <c r="AS374" t="inlineStr"/>
     </row>
     <row r="375">
@@ -53907,7 +54653,9 @@
       <c r="AQ375" t="n">
         <v>44</v>
       </c>
-      <c r="AR375" t="inlineStr"/>
+      <c r="AR375" t="n">
+        <v>44</v>
+      </c>
       <c r="AS375" t="inlineStr"/>
     </row>
     <row r="376">
@@ -54048,7 +54796,9 @@
       <c r="AQ376" t="n">
         <v>20</v>
       </c>
-      <c r="AR376" t="inlineStr"/>
+      <c r="AR376" t="n">
+        <v>17</v>
+      </c>
       <c r="AS376" t="inlineStr"/>
     </row>
     <row r="377">
@@ -54191,7 +54941,9 @@
       <c r="AQ377" t="n">
         <v>28</v>
       </c>
-      <c r="AR377" t="inlineStr"/>
+      <c r="AR377" t="n">
+        <v>28</v>
+      </c>
       <c r="AS377" t="inlineStr"/>
     </row>
     <row r="378">
@@ -54332,7 +55084,9 @@
       <c r="AQ378" t="n">
         <v>44</v>
       </c>
-      <c r="AR378" t="inlineStr"/>
+      <c r="AR378" t="n">
+        <v>44</v>
+      </c>
       <c r="AS378" t="inlineStr"/>
     </row>
     <row r="379">
@@ -54475,7 +55229,9 @@
       <c r="AQ379" t="n">
         <v>67</v>
       </c>
-      <c r="AR379" t="inlineStr"/>
+      <c r="AR379" t="n">
+        <v>67</v>
+      </c>
       <c r="AS379" t="inlineStr"/>
     </row>
     <row r="380">
@@ -54618,7 +55374,9 @@
       <c r="AQ380" t="n">
         <v>15</v>
       </c>
-      <c r="AR380" t="inlineStr"/>
+      <c r="AR380" t="n">
+        <v>15</v>
+      </c>
       <c r="AS380" t="inlineStr"/>
     </row>
     <row r="381">
@@ -54761,7 +55519,9 @@
       <c r="AQ381" t="n">
         <v>23</v>
       </c>
-      <c r="AR381" t="inlineStr"/>
+      <c r="AR381" t="n">
+        <v>23</v>
+      </c>
       <c r="AS381" t="inlineStr"/>
     </row>
     <row r="382">
@@ -54904,7 +55664,9 @@
       <c r="AQ382" t="n">
         <v>28</v>
       </c>
-      <c r="AR382" t="inlineStr"/>
+      <c r="AR382" t="n">
+        <v>28</v>
+      </c>
       <c r="AS382" t="inlineStr"/>
     </row>
     <row r="383">
@@ -55047,7 +55809,9 @@
       <c r="AQ383" t="n">
         <v>22</v>
       </c>
-      <c r="AR383" t="inlineStr"/>
+      <c r="AR383" t="n">
+        <v>19</v>
+      </c>
       <c r="AS383" t="inlineStr"/>
     </row>
     <row r="384">
@@ -55190,7 +55954,9 @@
       <c r="AQ384" t="n">
         <v>37</v>
       </c>
-      <c r="AR384" t="inlineStr"/>
+      <c r="AR384" t="n">
+        <v>37</v>
+      </c>
       <c r="AS384" t="inlineStr"/>
     </row>
     <row r="385">
@@ -55333,7 +56099,9 @@
       <c r="AQ385" t="n">
         <v>37</v>
       </c>
-      <c r="AR385" t="inlineStr"/>
+      <c r="AR385" t="n">
+        <v>37</v>
+      </c>
       <c r="AS385" t="inlineStr"/>
     </row>
     <row r="386">
@@ -55476,7 +56244,9 @@
       <c r="AQ386" t="n">
         <v>43</v>
       </c>
-      <c r="AR386" t="inlineStr"/>
+      <c r="AR386" t="n">
+        <v>43</v>
+      </c>
       <c r="AS386" t="inlineStr"/>
     </row>
     <row r="387">
@@ -55617,7 +56387,9 @@
       <c r="AQ387" t="n">
         <v>53</v>
       </c>
-      <c r="AR387" t="inlineStr"/>
+      <c r="AR387" t="n">
+        <v>53</v>
+      </c>
       <c r="AS387" t="inlineStr"/>
     </row>
     <row r="388">
@@ -55758,7 +56530,9 @@
       <c r="AQ388" t="n">
         <v>29</v>
       </c>
-      <c r="AR388" t="inlineStr"/>
+      <c r="AR388" t="n">
+        <v>27</v>
+      </c>
       <c r="AS388" t="inlineStr"/>
     </row>
     <row r="389">
@@ -55901,7 +56675,9 @@
       <c r="AQ389" t="n">
         <v>96</v>
       </c>
-      <c r="AR389" t="inlineStr"/>
+      <c r="AR389" t="n">
+        <v>96</v>
+      </c>
       <c r="AS389" t="inlineStr"/>
     </row>
     <row r="390">
@@ -56044,7 +56820,9 @@
       <c r="AQ390" t="n">
         <v>84</v>
       </c>
-      <c r="AR390" t="inlineStr"/>
+      <c r="AR390" t="n">
+        <v>84</v>
+      </c>
       <c r="AS390" t="inlineStr"/>
     </row>
     <row r="391">
@@ -56187,7 +56965,9 @@
       <c r="AQ391" t="n">
         <v>32</v>
       </c>
-      <c r="AR391" t="inlineStr"/>
+      <c r="AR391" t="n">
+        <v>32</v>
+      </c>
       <c r="AS391" t="inlineStr"/>
     </row>
     <row r="392">
@@ -56330,7 +57110,9 @@
       <c r="AQ392" t="n">
         <v>91</v>
       </c>
-      <c r="AR392" t="inlineStr"/>
+      <c r="AR392" t="n">
+        <v>88</v>
+      </c>
       <c r="AS392" t="inlineStr"/>
     </row>
     <row r="393">
@@ -56469,7 +57251,9 @@
       <c r="AQ393" t="n">
         <v>94</v>
       </c>
-      <c r="AR393" t="inlineStr"/>
+      <c r="AR393" t="n">
+        <v>94</v>
+      </c>
       <c r="AS393" t="inlineStr"/>
     </row>
     <row r="394">
@@ -56612,7 +57396,9 @@
       <c r="AQ394" t="n">
         <v>121</v>
       </c>
-      <c r="AR394" t="inlineStr"/>
+      <c r="AR394" t="n">
+        <v>121</v>
+      </c>
       <c r="AS394" t="inlineStr"/>
     </row>
     <row r="395">
@@ -56755,7 +57541,9 @@
       <c r="AQ395" t="n">
         <v>97</v>
       </c>
-      <c r="AR395" t="inlineStr"/>
+      <c r="AR395" t="n">
+        <v>97</v>
+      </c>
       <c r="AS395" t="inlineStr"/>
     </row>
     <row r="396">
@@ -56896,7 +57684,9 @@
       <c r="AQ396" t="n">
         <v>6</v>
       </c>
-      <c r="AR396" t="inlineStr"/>
+      <c r="AR396" t="n">
+        <v>6</v>
+      </c>
       <c r="AS396" t="inlineStr"/>
     </row>
     <row r="397">
@@ -57037,7 +57827,9 @@
       <c r="AQ397" t="n">
         <v>119</v>
       </c>
-      <c r="AR397" t="inlineStr"/>
+      <c r="AR397" t="n">
+        <v>119</v>
+      </c>
       <c r="AS397" t="inlineStr"/>
     </row>
     <row r="398">
@@ -57180,7 +57972,9 @@
       <c r="AQ398" t="n">
         <v>13</v>
       </c>
-      <c r="AR398" t="inlineStr"/>
+      <c r="AR398" t="n">
+        <v>13</v>
+      </c>
       <c r="AS398" t="inlineStr"/>
     </row>
     <row r="399">
@@ -57323,7 +58117,9 @@
       <c r="AQ399" t="n">
         <v>25</v>
       </c>
-      <c r="AR399" t="inlineStr"/>
+      <c r="AR399" t="n">
+        <v>25</v>
+      </c>
       <c r="AS399" t="inlineStr"/>
     </row>
     <row r="400">
@@ -57464,7 +58260,9 @@
       <c r="AQ400" t="n">
         <v>24</v>
       </c>
-      <c r="AR400" t="inlineStr"/>
+      <c r="AR400" t="n">
+        <v>24</v>
+      </c>
       <c r="AS400" t="inlineStr"/>
     </row>
     <row r="401">
@@ -57605,7 +58403,9 @@
       <c r="AQ401" t="n">
         <v>28</v>
       </c>
-      <c r="AR401" t="inlineStr"/>
+      <c r="AR401" t="n">
+        <v>28</v>
+      </c>
       <c r="AS401" t="inlineStr"/>
     </row>
     <row r="402">
@@ -57748,7 +58548,9 @@
       <c r="AQ402" t="n">
         <v>24</v>
       </c>
-      <c r="AR402" t="inlineStr"/>
+      <c r="AR402" t="n">
+        <v>24</v>
+      </c>
       <c r="AS402" t="inlineStr"/>
     </row>
     <row r="403">
@@ -57889,7 +58691,9 @@
       <c r="AQ403" t="n">
         <v>41</v>
       </c>
-      <c r="AR403" t="inlineStr"/>
+      <c r="AR403" t="n">
+        <v>41</v>
+      </c>
       <c r="AS403" t="inlineStr"/>
     </row>
     <row r="404">
@@ -58032,7 +58836,9 @@
       <c r="AQ404" t="n">
         <v>29</v>
       </c>
-      <c r="AR404" t="inlineStr"/>
+      <c r="AR404" t="n">
+        <v>28</v>
+      </c>
       <c r="AS404" t="inlineStr"/>
     </row>
     <row r="405">
@@ -58175,7 +58981,9 @@
       <c r="AQ405" t="n">
         <v>38</v>
       </c>
-      <c r="AR405" t="inlineStr"/>
+      <c r="AR405" t="n">
+        <v>35</v>
+      </c>
       <c r="AS405" t="inlineStr"/>
     </row>
     <row r="406">
@@ -58316,7 +59124,9 @@
       <c r="AQ406" t="n">
         <v>-3</v>
       </c>
-      <c r="AR406" t="inlineStr"/>
+      <c r="AR406" t="n">
+        <v>-3</v>
+      </c>
       <c r="AS406" t="inlineStr"/>
     </row>
     <row r="407">
@@ -58457,7 +59267,9 @@
       <c r="AQ407" t="n">
         <v>-1</v>
       </c>
-      <c r="AR407" t="inlineStr"/>
+      <c r="AR407" t="n">
+        <v>-1</v>
+      </c>
       <c r="AS407" t="inlineStr"/>
     </row>
   </sheetData>
